--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.83</v>
+        <v>1.66</v>
       </c>
       <c r="D2" t="n">
-        <v>198.831</v>
+        <v>73.117</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>48.6</v>
+        <v>48.45</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -734,62 +734,62 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W2" t="n">
         <v>100</v>
       </c>
       <c r="X2" t="n">
-        <v>-16</v>
+        <v>-64</v>
       </c>
       <c r="Y2" t="n">
-        <v>-59</v>
+        <v>-51</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-11611952</v>
+        <v>-34428595</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,36 +881,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.53</v>
+        <v>-1.98</v>
       </c>
       <c r="D3" t="n">
-        <v>129.145</v>
+        <v>588.876</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49.5</v>
+        <v>47.65</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-1.85</v>
+        <v>1.65</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -919,55 +919,55 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>100</v>
       </c>
       <c r="X3" t="n">
-        <v>-23</v>
+        <v>-51</v>
       </c>
       <c r="Y3" t="n">
-        <v>-59</v>
+        <v>-52</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>12226345</v>
+        <v>-31636014</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,32 +1075,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.33</v>
+        <v>-1.83</v>
       </c>
       <c r="D4" t="n">
-        <v>167.144</v>
+        <v>198.831</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.75</v>
+        <v>48.6</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
@@ -1113,20 +1113,20 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1141,43 +1141,43 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>100</v>
       </c>
       <c r="X4" t="n">
-        <v>-39</v>
+        <v>-16</v>
       </c>
       <c r="Y4" t="n">
-        <v>-46</v>
+        <v>-59</v>
       </c>
       <c r="Z4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-59</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>9092109</v>
+        <v>-11611952</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,16 +1216,16 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,36 +1269,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>1.53</v>
       </c>
       <c r="D5" t="n">
-        <v>281.283</v>
+        <v>129.145</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-2.67</v>
+        <v>-2.17</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1307,58 +1307,58 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>100</v>
       </c>
       <c r="X5" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Y5" t="n">
         <v>-59</v>
       </c>
-      <c r="Y5" t="n">
-        <v>-57</v>
-      </c>
       <c r="Z5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1367,11 +1367,11 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-59</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>22129018</v>
+        <v>12226345</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,36 +1463,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.51</v>
+        <v>-2.33</v>
       </c>
       <c r="D6" t="n">
-        <v>64.40600000000001</v>
+        <v>167.144</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>49.75</v>
+        <v>48.75</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-2.37</v>
+        <v>-0.62</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1501,71 +1501,71 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>100</v>
       </c>
       <c r="X6" t="n">
-        <v>-52</v>
+        <v>-39</v>
       </c>
       <c r="Y6" t="n">
-        <v>-54</v>
+        <v>-46</v>
       </c>
       <c r="Z6" t="b">
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>9750888</v>
+        <v>9092109</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,36 +1657,36 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.02</v>
+        <v>0.3</v>
       </c>
       <c r="D7" t="n">
-        <v>97.63200000000001</v>
+        <v>281.283</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-1.85</v>
+        <v>-2.99</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1695,20 +1695,20 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1718,35 +1718,35 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>100</v>
       </c>
       <c r="X7" t="n">
-        <v>-26</v>
+        <v>-59</v>
       </c>
       <c r="Y7" t="n">
-        <v>-40</v>
+        <v>-57</v>
       </c>
       <c r="Z7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>9685618</v>
+        <v>22129018</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,16 +1798,16 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="D8" t="n">
-        <v>35.402</v>
+        <v>64.40600000000001</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49</v>
+        <v>49.75</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-0.82</v>
+        <v>-2.68</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1889,71 +1889,71 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>100</v>
       </c>
       <c r="X8" t="n">
-        <v>-26</v>
+        <v>-52</v>
       </c>
       <c r="Y8" t="n">
-        <v>-34</v>
+        <v>-54</v>
       </c>
       <c r="Z8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-4522496</v>
+        <v>9750888</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,16 +1992,16 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,36 +2045,36 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="D9" t="n">
-        <v>64.55800000000001</v>
+        <v>97.63200000000001</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.65</v>
+        <v>49.5</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-0.1</v>
+        <v>-2.17</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2083,55 +2083,55 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>100</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>-26</v>
       </c>
       <c r="Y9" t="n">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-13527593</v>
+        <v>9685618</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,16 +2186,16 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,36 +2239,36 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.21</v>
+        <v>0.72</v>
       </c>
       <c r="D10" t="n">
-        <v>193.826</v>
+        <v>35.402</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="J10" t="n">
-        <v>48.6</v>
+        <v>49</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-1.14</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2277,32 +2277,32 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>-0.30</t>
@@ -2310,38 +2310,38 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>100</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>-26</v>
       </c>
       <c r="Y10" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-10763755</v>
+        <v>-4522496</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,16 +2380,16 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,36 +2433,36 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.61</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>150.068</v>
+        <v>64.55800000000001</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>48.7</v>
+        <v>48.65</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-0.21</v>
+        <v>-0.41</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2480,11 +2480,11 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2499,43 +2499,43 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>100</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>-27</v>
+        <v>-32</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-5730491</v>
+        <v>-13527593</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>10.71</v>
       </c>
       <c r="AK11" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,16 +2574,16 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,36 +2627,36 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.51</v>
+        <v>-0.21</v>
       </c>
       <c r="D12" t="n">
-        <v>121.119</v>
+        <v>193.826</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-0.82</v>
+        <v>-0.31</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2665,71 +2665,71 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>100</v>
       </c>
       <c r="X12" t="n">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>9209596</v>
+        <v>-10763755</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>10.71</v>
       </c>
       <c r="AK12" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,16 +2768,16 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>瓷器49.56%、出水類20.38%、其他15.11%、電子自動化12.06%、浴缸2.90% (2023年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,32 +2821,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.14</v>
+        <v>8.76</v>
       </c>
       <c r="D13" t="n">
-        <v>20442.683</v>
+        <v>13621.715</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>42.40</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>19.15</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
@@ -2854,57 +2854,57 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X13" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="n">
         <v>91</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>482355605</v>
+        <v>493991956</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2970,16 +2970,16 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3023,93 +3023,93 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-5.01</v>
+        <v>-7.57</v>
       </c>
       <c r="D14" t="n">
-        <v>4871.017</v>
+        <v>8234.450999999999</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-6.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.25</v>
+        <v>17.6</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.95</v>
+        <v>8.09</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X14" t="n">
-        <v>48</v>
+        <v>-26</v>
       </c>
       <c r="Y14" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3124,16 +3124,16 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-350257996</v>
+        <v>146084810</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3152,14 +3152,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3172,16 +3172,16 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3225,63 +3225,63 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.26</v>
+        <v>4.14</v>
       </c>
       <c r="D15" t="n">
-        <v>9732.356</v>
+        <v>20442.683</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>42.40</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-1.05</v>
+        <v>0.78</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3301,23 +3301,23 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X15" t="n">
-        <v>-14</v>
+        <v>104</v>
       </c>
       <c r="Y15" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -3326,16 +3326,16 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>152925109</v>
+        <v>482355605</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3354,14 +3354,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3418,7 +3418,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3427,99 +3427,99 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.82</v>
+        <v>-5.01</v>
       </c>
       <c r="D16" t="n">
-        <v>23350.483</v>
+        <v>4871.017</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>48.43</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.15</v>
+        <v>18.25</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-0.79</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X16" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -3528,16 +3528,16 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-85634599</v>
+        <v>-350257996</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3556,14 +3556,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3576,16 +3576,16 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
@@ -3620,7 +3620,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3629,93 +3629,93 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.699999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="D17" t="n">
-        <v>21559.663</v>
+        <v>9732.356</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>44.72</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="J17" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-2.63</v>
+        <v>-0.26</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X17" t="n">
-        <v>227</v>
+        <v>-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3730,16 +3730,16 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>260428834</v>
+        <v>152925109</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3758,14 +3758,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3778,16 +3778,16 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -3822,7 +3822,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3831,96 +3831,96 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3.54</v>
+        <v>-1.82</v>
       </c>
       <c r="D18" t="n">
-        <v>2825.251</v>
+        <v>23350.483</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-5.07</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>48.43</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.86</v>
+        <v>1.06</v>
       </c>
       <c r="J18" t="n">
-        <v>17.75</v>
+        <v>19.15</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
       <c r="W18" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X18" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="Y18" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="Z18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -3932,16 +3932,16 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>21857642</v>
+        <v>-85634599</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3960,14 +3960,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3980,16 +3980,16 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4033,96 +4033,96 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.82</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>5584.401</v>
+        <v>21559.663</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>44.72</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J19" t="n">
-        <v>18.4</v>
+        <v>19.5</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>3.16</v>
+        <v>-1.83</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X19" t="n">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="Y19" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>69478804</v>
+        <v>260428834</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4162,14 +4162,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4182,16 +4182,16 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4226,7 +4226,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4235,99 +4235,99 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.82</v>
+        <v>-3.54</v>
       </c>
       <c r="D20" t="n">
-        <v>9435.457</v>
+        <v>2825.251</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>-5.07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="J20" t="n">
-        <v>18.55</v>
+        <v>17.75</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>2.37</v>
+        <v>7.31</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X20" t="n">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="Z20" t="b">
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -4336,16 +4336,16 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>182218113</v>
+        <v>21857642</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4364,14 +4364,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>4.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4384,16 +4384,16 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4437,109 +4437,117 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.86</v>
+        <v>-0.82</v>
       </c>
       <c r="D21" t="n">
-        <v>221.668</v>
+        <v>5584.401</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.05</v>
+        <v>18.4</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>10.26</v>
+        <v>3.92</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>11945440</v>
+        <v>69478804</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4558,14 +4566,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>4.3</v>
       </c>
       <c r="AK21" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4578,16 +4586,16 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4622,7 +4630,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4631,109 +4639,117 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.18</v>
+        <v>8.82</v>
       </c>
       <c r="D22" t="n">
-        <v>670.224</v>
+        <v>9435.457</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.2</v>
+        <v>18.55</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>9.470000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X22" t="n">
-        <v>-9</v>
+        <v>172</v>
       </c>
       <c r="Y22" t="n">
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>6873821</v>
+        <v>182218113</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4752,14 +4768,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>4.3</v>
       </c>
       <c r="AK22" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4772,16 +4788,16 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -4816,7 +4832,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4825,45 +4841,45 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3</v>
+        <v>-0.86</v>
       </c>
       <c r="D23" t="n">
-        <v>244.087</v>
+        <v>221.668</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>17</v>
+        <v>17.05</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>10.53</v>
+        <v>10.97</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4872,26 +4888,26 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4901,17 +4917,17 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4923,11 +4939,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-10153049</v>
+        <v>11945440</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4946,14 +4962,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>4.3</v>
       </c>
       <c r="AK23" t="n">
-        <v>100</v>
+        <v>100.79</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4966,16 +4982,16 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -4998,7 +5014,7 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
@@ -5010,7 +5026,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5019,32 +5035,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-4.26</v>
+        <v>4.17</v>
       </c>
       <c r="D24" t="n">
-        <v>853.6369999999999</v>
+        <v>845.221</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.1</v>
+        <v>17.15</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
@@ -5052,84 +5068,76 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-40</v>
       </c>
       <c r="X24" t="n">
-        <v>38</v>
+        <v>-30</v>
       </c>
       <c r="Y24" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-30953790</v>
+        <v>-34000525</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5148,14 +5156,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5168,11 +5176,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5212,7 +5220,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5221,117 +5229,109 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.78</v>
+        <v>-9.43</v>
       </c>
       <c r="D25" t="n">
-        <v>300.597</v>
+        <v>1957.318</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-6.68</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-3.41</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="J25" t="n">
-        <v>18.9</v>
+        <v>16.45</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-4.42</v>
+        <v>4.08</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-40</v>
       </c>
       <c r="X25" t="n">
-        <v>58</v>
+        <v>-61</v>
       </c>
       <c r="Y25" t="n">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="Z25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-40258894</v>
+        <v>-54154286</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5350,14 +5350,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5370,11 +5370,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5414,7 +5414,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5423,78 +5423,78 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1.53</v>
+        <v>-4.26</v>
       </c>
       <c r="D26" t="n">
-        <v>500.377</v>
+        <v>853.6369999999999</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>0.93</v>
       </c>
       <c r="J26" t="n">
-        <v>19.05</v>
+        <v>18.1</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-5.25</v>
+        <v>-5.54</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -5506,16 +5506,16 @@
         <v>-40</v>
       </c>
       <c r="X26" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="Z26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -5529,11 +5529,11 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>4441311</v>
+        <v>-30953790</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5552,14 +5552,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5572,11 +5572,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5616,7 +5616,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5625,63 +5625,63 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.77</v>
+        <v>-0.78</v>
       </c>
       <c r="D27" t="n">
-        <v>1266.561</v>
+        <v>300.597</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="J27" t="n">
-        <v>19.35</v>
+        <v>18.9</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-6.91</v>
+        <v>-10.2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -5691,33 +5691,33 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-40</v>
       </c>
       <c r="X27" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y27" t="n">
-        <v>-21</v>
+        <v>-16</v>
       </c>
       <c r="Z27" t="b">
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -5731,11 +5731,11 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>11459750</v>
+        <v>-40258894</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5754,14 +5754,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5774,11 +5774,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5818,7 +5818,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5827,109 +5827,117 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.95</v>
+        <v>-1.53</v>
       </c>
       <c r="D28" t="n">
-        <v>1979.842</v>
+        <v>500.377</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>19.7</v>
+        <v>19.05</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-8.84</v>
+        <v>-11.08</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-40</v>
       </c>
       <c r="X28" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="Y28" t="n">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="Z28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>33894392</v>
+        <v>4441311</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5948,14 +5956,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5968,11 +5976,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -6012,7 +6020,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6021,109 +6029,117 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.52</v>
+        <v>-1.77</v>
       </c>
       <c r="D29" t="n">
-        <v>136.526</v>
+        <v>1266.561</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>18.95</v>
+        <v>19.35</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-4.7</v>
+        <v>-12.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>-40</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="Y29" t="n">
-        <v>-47</v>
+        <v>-21</v>
       </c>
       <c r="Z29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>2381545</v>
+        <v>11459750</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6142,14 +6158,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>3.85</v>
       </c>
       <c r="AK29" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6162,11 +6178,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6206,7 +6222,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6215,93 +6231,93 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.26</v>
+        <v>3.95</v>
       </c>
       <c r="D30" t="n">
-        <v>131.169</v>
+        <v>1979.842</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.05</v>
+        <v>19.7</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-5.25</v>
+        <v>-14.87</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>-40</v>
       </c>
       <c r="X30" t="n">
-        <v>-12</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="n">
-        <v>-49</v>
+        <v>-28</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
@@ -6313,11 +6329,11 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>8530821</v>
+        <v>33894392</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6336,14 +6352,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>3.85</v>
       </c>
       <c r="AK30" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6356,11 +6372,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6400,7 +6416,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6409,93 +6425,93 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.06</v>
+        <v>-0.52</v>
       </c>
       <c r="D31" t="n">
-        <v>393.517</v>
+        <v>136.526</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.1</v>
+        <v>18.95</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-5.52</v>
+        <v>-10.5</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>-40</v>
       </c>
       <c r="X31" t="n">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>-49</v>
+        <v>-47</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
@@ -6507,11 +6523,11 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>15946990</v>
+        <v>2381545</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6530,14 +6546,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>3.85</v>
       </c>
       <c r="AK31" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6550,11 +6566,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6594,7 +6610,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6603,58 +6619,58 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.53</v>
+        <v>-0.26</v>
       </c>
       <c r="D32" t="n">
-        <v>187.51</v>
+        <v>131.169</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>18.9</v>
+        <v>19.05</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>-4.42</v>
+        <v>-11.08</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -6664,48 +6680,48 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>-40</v>
       </c>
       <c r="X32" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="Y32" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>15722938</v>
+        <v>8530821</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6724,14 +6740,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>3.85</v>
       </c>
       <c r="AK32" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6744,11 +6760,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6788,7 +6804,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6797,93 +6813,93 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="D33" t="n">
-        <v>260.66</v>
+        <v>393.517</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>-3.87</v>
+        <v>-11.37</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>-40</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>-17</v>
       </c>
       <c r="Y33" t="n">
-        <v>-46</v>
+        <v>-49</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6895,11 +6911,11 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>5382206</v>
+        <v>15946990</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6918,14 +6934,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>3.85</v>
       </c>
       <c r="AK33" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6938,11 +6954,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6982,7 +6998,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6991,63 +7007,63 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="D34" t="n">
-        <v>390.511</v>
+        <v>187.51</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.28</v>
+        <v>0.76</v>
       </c>
       <c r="J34" t="n">
-        <v>18.65</v>
+        <v>18.9</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>-3.04</v>
+        <v>-10.2</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>845</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -7057,7 +7073,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -7067,33 +7083,33 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>-40</v>
       </c>
       <c r="X34" t="n">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="Y34" t="n">
-        <v>-42</v>
+        <v>-48</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-5352891</v>
+        <v>15722938</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7112,14 +7128,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>3.85</v>
       </c>
       <c r="AK34" t="n">
-        <v>54.85</v>
+        <v>51.97</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7132,11 +7148,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7176,7 +7192,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7185,32 +7201,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-2.45</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>819.92</v>
+        <v>1443.765</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>9.17</v>
+        <v>9.81</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -7218,76 +7234,76 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-3.08</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X35" t="n">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-12135336</v>
+        <v>358920</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7310,27 +7326,27 @@
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7345,11 +7361,11 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS35" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
@@ -7358,7 +7374,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7370,7 +7386,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7379,93 +7395,93 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.74</v>
+        <v>-2.75</v>
       </c>
       <c r="D36" t="n">
-        <v>246.815</v>
+        <v>687.221</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.4</v>
+        <v>8.92</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-2.51</v>
+        <v>9.07</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-9.09</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="W36" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>-38</v>
       </c>
       <c r="Y36" t="n">
-        <v>-26</v>
+        <v>-16</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -7477,11 +7493,11 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-7874978</v>
+        <v>-16041154</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7504,27 +7520,27 @@
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7539,11 +7555,11 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS36" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
@@ -7564,7 +7580,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7573,93 +7589,93 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.31</v>
+        <v>-2.45</v>
       </c>
       <c r="D37" t="n">
-        <v>238.04</v>
+        <v>819.92</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J37" t="n">
-        <v>9.470000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-3.27</v>
+        <v>6.52</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-5.68</t>
+          <t>-3.08</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="W37" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>-17</v>
       </c>
       <c r="Y37" t="n">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7671,11 +7687,11 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-7516106</v>
+        <v>-12135336</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7698,27 +7714,27 @@
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7733,11 +7749,11 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS37" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
@@ -7758,7 +7774,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7767,58 +7783,58 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.24</v>
+        <v>-0.74</v>
       </c>
       <c r="D38" t="n">
-        <v>343.672</v>
+        <v>246.815</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="J38" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>-3.6</v>
+        <v>4.18</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7833,27 +7849,27 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-9.09</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y38" t="n">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7865,11 +7881,11 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-6839000</v>
+        <v>-7874978</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7892,27 +7908,27 @@
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK38" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7927,11 +7943,11 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS38" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT38" t="inlineStr">
         <is>
@@ -7952,7 +7968,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7961,58 +7977,58 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.51</v>
+        <v>-0.31</v>
       </c>
       <c r="D39" t="n">
-        <v>203.278</v>
+        <v>238.04</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="J39" t="n">
-        <v>9.619999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-4.91</v>
+        <v>3.47</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -8022,32 +8038,32 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-5.68</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="W39" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -8059,11 +8075,11 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>-927628</v>
+        <v>-7516106</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8086,27 +8102,27 @@
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK39" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8121,11 +8137,11 @@
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS39" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
@@ -8146,7 +8162,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8155,109 +8171,109 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.72</v>
+        <v>-1.24</v>
       </c>
       <c r="D40" t="n">
-        <v>163.252</v>
+        <v>343.672</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J40" t="n">
-        <v>9.67</v>
+        <v>9.5</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-5.45</v>
+        <v>3.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="W40" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-1156848</v>
+        <v>-6839000</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8280,27 +8296,27 @@
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK40" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8315,11 +8331,11 @@
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS40" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
@@ -8340,7 +8356,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8349,63 +8365,63 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.62</v>
+        <v>-0.51</v>
       </c>
       <c r="D41" t="n">
-        <v>270.057</v>
+        <v>203.278</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="J41" t="n">
-        <v>9.74</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>-6.22</v>
+        <v>1.94</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8415,43 +8431,43 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="W41" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X41" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="n">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-2892694</v>
+        <v>-927628</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8474,27 +8490,27 @@
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK41" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8509,11 +8525,11 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS41" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
@@ -8534,7 +8550,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8543,45 +8559,45 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.41</v>
+        <v>-0.72</v>
       </c>
       <c r="D42" t="n">
-        <v>227.388</v>
+        <v>163.252</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.68</v>
+        <v>9.67</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-5.56</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -8590,11 +8606,11 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8604,29 +8620,29 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="W42" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
         <v>-29</v>
@@ -8645,7 +8661,7 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-2143054</v>
+        <v>-1156848</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8668,27 +8684,27 @@
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK42" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8703,11 +8719,11 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS42" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
@@ -8728,7 +8744,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8737,45 +8753,45 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.62</v>
+        <v>0.62</v>
       </c>
       <c r="D43" t="n">
-        <v>341.64</v>
+        <v>270.057</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>9.720000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>-6</v>
+        <v>0.71</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -8784,11 +8800,11 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8803,7 +8819,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -8813,33 +8829,33 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X43" t="n">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="Y43" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>4793044</v>
+        <v>-2892694</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8862,27 +8878,27 @@
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK43" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8897,11 +8913,11 @@
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS43" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT43" t="inlineStr">
         <is>
@@ -8922,7 +8938,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8931,73 +8947,73 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.41</v>
+        <v>-0.41</v>
       </c>
       <c r="D44" t="n">
-        <v>346.581</v>
+        <v>227.388</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.779999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-6.65</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -9007,33 +9023,33 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X44" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="Y44" t="n">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>3928236</v>
+        <v>-2143054</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9056,27 +9072,27 @@
         </is>
       </c>
       <c r="AJ44" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK44" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9091,11 +9107,11 @@
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS44" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT44" t="inlineStr">
         <is>
@@ -9116,7 +9132,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9125,45 +9141,45 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.25</v>
+        <v>-0.62</v>
       </c>
       <c r="D45" t="n">
-        <v>489.478</v>
+        <v>341.64</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.74</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-6.22</v>
+        <v>0.92</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9172,11 +9188,11 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -9186,12 +9202,12 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -9205,29 +9221,29 @@
         </is>
       </c>
       <c r="W45" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="X45" t="n">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="Y45" t="n">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>2821538</v>
+        <v>4793044</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9250,27 +9266,27 @@
         </is>
       </c>
       <c r="AJ45" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AK45" t="n">
-        <v>41.68</v>
+        <v>31.65</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9285,11 +9301,11 @@
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS45" t="n">
-        <v>14.37</v>
+        <v>14.4</v>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
@@ -9310,7 +9326,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9319,32 +9335,32 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-3.44</v>
+        <v>2.8</v>
       </c>
       <c r="D46" t="n">
-        <v>10317.732</v>
+        <v>6626.844</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.95</v>
+        <v>16.5</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
@@ -9352,25 +9368,25 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -9380,48 +9396,48 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-90</v>
       </c>
       <c r="X46" t="n">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>94893382</v>
+        <v>-270630970</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9458,16 +9474,16 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
@@ -9502,7 +9518,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9511,109 +9527,109 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.87</v>
+        <v>-5.44</v>
       </c>
       <c r="D47" t="n">
-        <v>9504.121999999999</v>
+        <v>12503.701</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>17.55</v>
+        <v>16.05</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>-3.54</v>
+        <v>2.73</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>-90</v>
       </c>
       <c r="X47" t="n">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="Y47" t="n">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>71250717</v>
+        <v>-212956232</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9650,16 +9666,16 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
@@ -9694,7 +9710,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9703,63 +9719,63 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.04</v>
+        <v>-3.44</v>
       </c>
       <c r="D48" t="n">
-        <v>6046.466</v>
+        <v>10317.732</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>17.4</v>
+        <v>16.95</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>-2.65</v>
+        <v>-2.73</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -9769,43 +9785,43 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>-90</v>
       </c>
       <c r="X48" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>230610551</v>
+        <v>94893382</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9842,16 +9858,16 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ48" t="inlineStr">
@@ -9874,7 +9890,7 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
@@ -9886,7 +9902,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9895,63 +9911,63 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-2.54</v>
+        <v>0.87</v>
       </c>
       <c r="D49" t="n">
-        <v>11573.803</v>
+        <v>9504.121999999999</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-4.40</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>17.05</v>
+        <v>17.55</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>-0.59</v>
+        <v>-6.36</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -9961,27 +9977,27 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>-90</v>
       </c>
       <c r="X49" t="n">
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="Y49" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z49" t="b">
         <v>0</v>
@@ -9993,11 +10009,11 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>362473021</v>
+        <v>71250717</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -10034,16 +10050,16 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ49" t="inlineStr">
@@ -10078,7 +10094,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10087,58 +10103,58 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.14</v>
+        <v>2.04</v>
       </c>
       <c r="D50" t="n">
-        <v>18365.999</v>
+        <v>6046.466</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>-3.24</v>
+        <v>-5.45</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10148,48 +10164,48 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>-90</v>
       </c>
       <c r="X50" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="Y50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="b">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>336922651</v>
+        <v>230610551</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10226,16 +10242,16 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ50" t="inlineStr">
@@ -10270,7 +10286,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10279,63 +10295,63 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.29</v>
+        <v>-2.54</v>
       </c>
       <c r="D51" t="n">
-        <v>13586.994</v>
+        <v>11573.803</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-4.40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>17.3</v>
+        <v>17.05</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>-2.06</v>
+        <v>-3.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -10345,12 +10361,12 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -10362,10 +10378,10 @@
         <v>-90</v>
       </c>
       <c r="X51" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="Y51" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="b">
         <v>0</v>
@@ -10373,23 +10389,15 @@
       <c r="AA51" t="n">
         <v>0</v>
       </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>138649042</v>
+        <v>362473021</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10426,16 +10434,16 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ51" t="inlineStr">
@@ -10470,7 +10478,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10479,78 +10487,78 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.58</v>
+        <v>1.14</v>
       </c>
       <c r="D52" t="n">
-        <v>12986.703</v>
+        <v>18365.999</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>24.21</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J52" t="n">
-        <v>17.25</v>
+        <v>17.5</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>-1.77</v>
+        <v>-6.06</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -10562,10 +10570,10 @@
         <v>-90</v>
       </c>
       <c r="X52" t="n">
-        <v>30</v>
+        <v>-8</v>
       </c>
       <c r="Y52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z52" t="b">
         <v>0</v>
@@ -10573,23 +10581,15 @@
       <c r="AA52" t="n">
         <v>0</v>
       </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-360122383</v>
+        <v>336922651</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10626,16 +10626,16 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
@@ -10670,7 +10670,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10679,45 +10679,45 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.16</v>
+        <v>0.29</v>
       </c>
       <c r="D53" t="n">
-        <v>7386.954</v>
+        <v>13586.994</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>17.91</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>17.35</v>
+        <v>17.3</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>-2.36</v>
+        <v>-4.85</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10726,31 +10726,31 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -10762,10 +10762,10 @@
         <v>-90</v>
       </c>
       <c r="X53" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Y53" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Z53" t="b">
         <v>0</v>
@@ -10785,11 +10785,11 @@
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-396915081</v>
+        <v>138649042</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10826,16 +10826,16 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr">
@@ -10870,7 +10870,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10879,93 +10879,93 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-2.27</v>
+        <v>-0.58</v>
       </c>
       <c r="D54" t="n">
-        <v>15080.505</v>
+        <v>12986.703</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>19.88</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J54" t="n">
-        <v>17.15</v>
+        <v>17.25</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>-1.18</v>
+        <v>-4.55</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>-90</v>
       </c>
       <c r="X54" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Y54" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Z54" t="b">
         <v>0</v>
@@ -10985,11 +10985,11 @@
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>362555770</v>
+        <v>-360122383</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -11026,16 +11026,16 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr">
@@ -11070,7 +11070,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11079,58 +11079,58 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.85</v>
+        <v>1.16</v>
       </c>
       <c r="D55" t="n">
-        <v>14823.348</v>
+        <v>7386.954</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>19.54</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="J55" t="n">
-        <v>17.55</v>
+        <v>17.35</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>-3.54</v>
+        <v>-5.15</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11140,38 +11140,38 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>-90</v>
       </c>
       <c r="X55" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Y55" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z55" t="b">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -11185,11 +11185,11 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>1204024494</v>
+        <v>-396915081</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11226,16 +11226,16 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ55" t="inlineStr">
@@ -11270,7 +11270,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11279,93 +11279,93 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.27</v>
+        <v>-2.27</v>
       </c>
       <c r="D56" t="n">
-        <v>49368.801</v>
+        <v>15080.505</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-3.94</t>
+          <t>-3.21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-2.51</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>65.07</t>
+          <t>19.88</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="J56" t="n">
-        <v>17.7</v>
+        <v>17.15</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>-4.42</v>
+        <v>-3.94</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W56" t="n">
         <v>-90</v>
       </c>
       <c r="X56" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
@@ -11385,11 +11385,11 @@
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>1092478571</v>
+        <v>362555770</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11426,16 +11426,16 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>51.93</v>
+        <v>48.89</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>47983</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>平板玻璃73.77%、玻璃纖維17.84%、玻璃器皿8.39% (2023年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>9.25</v>
       </c>
       <c r="D2" t="n">
-        <v>208.437</v>
+        <v>266.938</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.95</v>
+        <v>46.6</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,60 +720,60 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X2" t="n">
-        <v>-126</v>
+        <v>-69</v>
       </c>
       <c r="Y2" t="n">
-        <v>-32</v>
+        <v>-26</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -785,11 +785,11 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-42789498</v>
+        <v>8403358</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,93 +881,93 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-10.35</v>
+        <v>-3.44</v>
       </c>
       <c r="D3" t="n">
-        <v>511.241</v>
+        <v>304.601</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>43.3</v>
+        <v>42.45</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>8.91</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X3" t="n">
-        <v>-131</v>
+        <v>-80</v>
       </c>
       <c r="Y3" t="n">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-48356955</v>
+        <v>-26145201</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,93 +1075,93 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.46</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="n">
-        <v>618.573</v>
+        <v>208.437</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.75</v>
+        <v>43.95</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-8.65</v>
+        <v>5.69</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X4" t="n">
-        <v>-111</v>
+        <v>-126</v>
       </c>
       <c r="Y4" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-54414128</v>
+        <v>-42789498</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,109 +1269,109 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.66</v>
+        <v>-10.35</v>
       </c>
       <c r="D5" t="n">
-        <v>73.117</v>
+        <v>511.241</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>48.45</v>
+        <v>43.3</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-10.24</v>
+        <v>7.08</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X5" t="n">
-        <v>-64</v>
+        <v>-131</v>
       </c>
       <c r="Y5" t="n">
-        <v>-51</v>
+        <v>-35</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-34428595</v>
+        <v>-48356955</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,45 +1463,45 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.98</v>
+        <v>-1.46</v>
       </c>
       <c r="D6" t="n">
-        <v>588.876</v>
+        <v>618.573</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>47.65</v>
+        <v>47.75</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-8.42</v>
+        <v>-2.47</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1510,46 +1510,46 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X6" t="n">
-        <v>-51</v>
+        <v>-111</v>
       </c>
       <c r="Y6" t="n">
-        <v>-52</v>
+        <v>-42</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-31636014</v>
+        <v>-54414128</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,45 +1657,45 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.83</v>
+        <v>1.66</v>
       </c>
       <c r="D7" t="n">
-        <v>198.831</v>
+        <v>73.117</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.6</v>
+        <v>48.45</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-10.58</v>
+        <v>-3.97</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1704,62 +1704,62 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X7" t="n">
-        <v>-16</v>
+        <v>-64</v>
       </c>
       <c r="Y7" t="n">
-        <v>-59</v>
+        <v>-51</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-11611952</v>
+        <v>-34428595</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,93 +1851,93 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.53</v>
+        <v>-1.98</v>
       </c>
       <c r="D8" t="n">
-        <v>129.145</v>
+        <v>588.876</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.5</v>
+        <v>47.65</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-12.63</v>
+        <v>-2.25</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X8" t="n">
-        <v>-23</v>
+        <v>-51</v>
       </c>
       <c r="Y8" t="n">
-        <v>-59</v>
+        <v>-52</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>12226345</v>
+        <v>-31636014</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,58 +2045,58 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.33</v>
+        <v>-1.83</v>
       </c>
       <c r="D9" t="n">
-        <v>167.144</v>
+        <v>198.831</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.75</v>
+        <v>48.6</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-10.92</v>
+        <v>-4.29</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2111,43 +2111,43 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X9" t="n">
-        <v>-39</v>
+        <v>-16</v>
       </c>
       <c r="Y9" t="n">
-        <v>-46</v>
+        <v>-59</v>
       </c>
       <c r="Z9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-59</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>9092109</v>
+        <v>-11611952</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,96 +2239,96 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3</v>
+        <v>1.53</v>
       </c>
       <c r="D10" t="n">
-        <v>281.283</v>
+        <v>129.145</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-13.54</v>
+        <v>-6.22</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X10" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Y10" t="n">
         <v>-59</v>
       </c>
-      <c r="Y10" t="n">
-        <v>-57</v>
-      </c>
       <c r="Z10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2337,11 +2337,11 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-59</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>22129018</v>
+        <v>12226345</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.13</v>
+        <v>10.74</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-9.42</v>
+        <v>8.85</v>
       </c>
       <c r="D11" t="n">
-        <v>5532.753</v>
+        <v>654.096</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>15.4</v>
+        <v>15.25</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2466,57 +2466,57 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>-90</v>
       </c>
       <c r="X11" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>91</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-321329733</v>
+        <v>-160677055</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>4.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,90 +2627,90 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-10.98</v>
+        <v>-9.77</v>
       </c>
       <c r="D12" t="n">
-        <v>519.745</v>
+        <v>5645.051</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J12" t="n">
-        <v>16.85</v>
+        <v>13.9</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-9.42</v>
+        <v>8.85</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>-90</v>
       </c>
       <c r="X12" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Y12" t="n">
         <v>91</v>
@@ -2721,23 +2721,15 @@
       <c r="AA12" t="n">
         <v>0</v>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>23647293</v>
+        <v>-179409674</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2756,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>4.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2776,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2820,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2829,90 +2821,90 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.36</v>
+        <v>-9.42</v>
       </c>
       <c r="D13" t="n">
-        <v>11896.924</v>
+        <v>5532.753</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J13" t="n">
-        <v>18.7</v>
+        <v>15.4</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>-21.43</v>
+        <v>-0.98</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>-90</v>
       </c>
       <c r="X13" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="n">
         <v>91</v>
@@ -2921,25 +2913,17 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-116718237</v>
+        <v>-321329733</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2958,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2978,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3010,7 +2994,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3022,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3031,90 +3015,90 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.76</v>
+        <v>-10.98</v>
       </c>
       <c r="D14" t="n">
-        <v>13621.715</v>
+        <v>519.745</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>19.15</v>
+        <v>16.85</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-24.35</v>
+        <v>-10.49</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>-90</v>
       </c>
       <c r="X14" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Y14" t="n">
         <v>91</v>
@@ -3141,7 +3125,7 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>493991956</v>
+        <v>23647293</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3160,14 +3144,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3180,11 +3164,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3212,7 +3196,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3224,7 +3208,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3233,99 +3217,99 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-7.57</v>
+        <v>-2.36</v>
       </c>
       <c r="D15" t="n">
-        <v>8234.450999999999</v>
+        <v>11896.924</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-14.29</v>
+        <v>-22.62</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>-90</v>
       </c>
       <c r="X15" t="n">
-        <v>-26</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -3339,11 +3323,11 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>146084810</v>
+        <v>-116718237</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3362,14 +3346,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3382,11 +3366,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3414,7 +3398,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3426,7 +3410,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3435,90 +3419,90 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.14</v>
+        <v>8.76</v>
       </c>
       <c r="D16" t="n">
-        <v>20442.683</v>
+        <v>13621.715</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>42.40</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19</v>
+        <v>19.15</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-23.38</v>
+        <v>-25.57</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>-90</v>
       </c>
       <c r="X16" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="n">
         <v>91</v>
@@ -3527,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -3545,7 +3529,7 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>482355605</v>
+        <v>493991956</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3564,14 +3548,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3584,11 +3568,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3616,7 +3600,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
@@ -3628,7 +3612,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3637,93 +3621,93 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-5.01</v>
+        <v>-7.57</v>
       </c>
       <c r="D17" t="n">
-        <v>4871.017</v>
+        <v>8234.450999999999</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-6.23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.25</v>
+        <v>17.6</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-18.51</v>
+        <v>-15.41</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>-90</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>-26</v>
       </c>
       <c r="Y17" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3743,11 +3727,11 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-350257996</v>
+        <v>146084810</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3766,14 +3750,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3786,11 +3770,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3830,7 +3814,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3839,63 +3823,63 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.26</v>
+        <v>4.14</v>
       </c>
       <c r="D18" t="n">
-        <v>9732.356</v>
+        <v>20442.683</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>42.40</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-24.68</v>
+        <v>-24.59</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3905,7 +3889,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3915,23 +3899,23 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>-90</v>
       </c>
       <c r="X18" t="n">
-        <v>-14</v>
+        <v>104</v>
       </c>
       <c r="Y18" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -3945,11 +3929,11 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>152925109</v>
+        <v>482355605</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3968,14 +3952,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3988,11 +3972,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4020,7 +4004,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
@@ -4032,7 +4016,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4041,99 +4025,99 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.82</v>
+        <v>-5.01</v>
       </c>
       <c r="D19" t="n">
-        <v>23350.483</v>
+        <v>4871.017</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>48.43</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>19.15</v>
+        <v>18.25</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-24.35</v>
+        <v>-19.67</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="W19" t="n">
         <v>-90</v>
       </c>
       <c r="X19" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -4147,11 +4131,11 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-85634599</v>
+        <v>-350257996</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4170,14 +4154,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>81.05</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4190,11 +4174,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4222,7 +4206,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
@@ -4234,7 +4218,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4243,32 +4227,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-10.36</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>2457.509</v>
+        <v>372.65</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.05</v>
+        <v>14.4</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -4276,60 +4260,60 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-90</v>
       </c>
       <c r="X20" t="n">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4341,11 +4325,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-29354757</v>
+        <v>-55882659</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4364,14 +4348,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>3.85</v>
       </c>
       <c r="AK20" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4384,16 +4368,16 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4428,7 +4412,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4437,93 +4421,93 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-10.97</v>
+        <v>-6.81</v>
       </c>
       <c r="D21" t="n">
-        <v>199.531</v>
+        <v>1997.882</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.5</v>
+        <v>13.1</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-10.32</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-90</v>
       </c>
       <c r="X21" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4535,11 +4519,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>19634077</v>
+        <v>-64334416</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4558,14 +4542,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>3.85</v>
       </c>
       <c r="AK21" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4578,16 +4562,16 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4622,7 +4606,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4631,93 +4615,93 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.29</v>
+        <v>-10.36</v>
       </c>
       <c r="D22" t="n">
-        <v>481.077</v>
+        <v>2457.509</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.2</v>
+        <v>14.05</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-22.42</v>
+        <v>2.43</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-90</v>
       </c>
       <c r="X22" t="n">
-        <v>-37</v>
+        <v>-52</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4729,11 +4713,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-10088662</v>
+        <v>-29354757</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4752,14 +4736,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>3.85</v>
       </c>
       <c r="AK22" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4772,16 +4756,16 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -4816,7 +4800,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4825,93 +4809,93 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.17</v>
+        <v>-10.97</v>
       </c>
       <c r="D23" t="n">
-        <v>845.221</v>
+        <v>199.531</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>17.15</v>
+        <v>15.5</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>-22.06</v>
+        <v>-7.64</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-90</v>
       </c>
       <c r="X23" t="n">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="Y23" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4923,11 +4907,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-34000525</v>
+        <v>19634077</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4946,14 +4930,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>3.85</v>
       </c>
       <c r="AK23" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4966,16 +4950,16 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5010,7 +4994,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5019,93 +5003,93 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-9.43</v>
+        <v>0.29</v>
       </c>
       <c r="D24" t="n">
-        <v>1957.318</v>
+        <v>481.077</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-6.68</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-3.41</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>16.45</v>
+        <v>17.2</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>-17.08</v>
+        <v>-19.44</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-90</v>
       </c>
       <c r="X24" t="n">
-        <v>-61</v>
+        <v>-37</v>
       </c>
       <c r="Y24" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5117,11 +5101,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-54154286</v>
+        <v>-10088662</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5140,14 +5124,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5160,16 +5144,16 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5204,7 +5188,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5213,117 +5197,109 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-4.26</v>
+        <v>4.17</v>
       </c>
       <c r="D25" t="n">
-        <v>853.6369999999999</v>
+        <v>845.221</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.1</v>
+        <v>17.15</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-28.83</v>
+        <v>-19.1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-90</v>
       </c>
       <c r="X25" t="n">
-        <v>38</v>
+        <v>-30</v>
       </c>
       <c r="Y25" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-30953790</v>
+        <v>-34000525</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5342,14 +5318,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5362,16 +5338,16 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5406,7 +5382,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5415,117 +5391,109 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.78</v>
+        <v>-9.43</v>
       </c>
       <c r="D26" t="n">
-        <v>300.597</v>
+        <v>1957.318</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-6.68</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-3.41</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="J26" t="n">
-        <v>18.9</v>
+        <v>16.45</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-34.52</v>
+        <v>-14.24</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-90</v>
       </c>
       <c r="X26" t="n">
-        <v>58</v>
+        <v>-61</v>
       </c>
       <c r="Y26" t="n">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="Z26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-40258894</v>
+        <v>-54154286</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5544,14 +5512,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5564,16 +5532,16 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5608,7 +5576,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5617,78 +5585,78 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.53</v>
+        <v>-4.26</v>
       </c>
       <c r="D27" t="n">
-        <v>500.377</v>
+        <v>853.6369999999999</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>0.93</v>
       </c>
       <c r="J27" t="n">
-        <v>19.05</v>
+        <v>18.1</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-35.59</v>
+        <v>-25.69</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -5700,16 +5668,16 @@
         <v>-90</v>
       </c>
       <c r="X27" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="Z27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -5723,11 +5691,11 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>4441311</v>
+        <v>-30953790</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5746,14 +5714,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5766,16 +5734,16 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5810,7 +5778,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5819,63 +5787,63 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-1.77</v>
+        <v>-0.78</v>
       </c>
       <c r="D28" t="n">
-        <v>1266.561</v>
+        <v>300.597</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="J28" t="n">
-        <v>19.35</v>
+        <v>18.9</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-37.72</v>
+        <v>-31.25</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>373</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -5885,33 +5853,33 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-90</v>
       </c>
       <c r="X28" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y28" t="n">
-        <v>-21</v>
+        <v>-16</v>
       </c>
       <c r="Z28" t="b">
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -5925,11 +5893,11 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>11459750</v>
+        <v>-40258894</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5948,14 +5916,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5968,16 +5936,16 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>色釉料77.48%、其他14.69%、玉晶石7.83% (2023年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6012,7 +5980,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6021,29 +5989,29 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.45</v>
+        <v>5.91</v>
       </c>
       <c r="D29" t="n">
-        <v>25281.807</v>
+        <v>10757.929</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.92</v>
+        <v>0.9</v>
       </c>
       <c r="J29" t="n">
         <v>10.9</v>
@@ -6054,12 +6022,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -6068,49 +6036,49 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>50</v>
       </c>
       <c r="X29" t="n">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -6122,16 +6090,16 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-51261423</v>
+        <v>-285894458</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6170,7 +6138,7 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
@@ -6214,7 +6182,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6223,99 +6191,99 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.19</v>
+        <v>-5.94</v>
       </c>
       <c r="D30" t="n">
-        <v>13730.019</v>
+        <v>11256.055</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J30" t="n">
-        <v>10.95</v>
+        <v>10.25</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-0.46</v>
+        <v>5.96</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>50</v>
       </c>
       <c r="X30" t="n">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Z30" t="b">
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -6324,16 +6292,16 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>248539095</v>
+        <v>-263980338</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6372,7 +6340,7 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
@@ -6404,7 +6372,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
@@ -6416,7 +6384,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6425,96 +6393,96 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.12</v>
+        <v>-0.45</v>
       </c>
       <c r="D31" t="n">
-        <v>8980.346</v>
+        <v>25281.807</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J31" t="n">
-        <v>10.55</v>
+        <v>10.9</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>50</v>
       </c>
       <c r="X31" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Y31" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -6526,16 +6494,16 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>102048540</v>
+        <v>-51261423</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6574,7 +6542,7 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
@@ -6618,7 +6586,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6627,109 +6595,117 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.279999999999999</v>
+        <v>4.19</v>
       </c>
       <c r="D32" t="n">
-        <v>1443.765</v>
+        <v>13730.019</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9.81</v>
+        <v>10.95</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>10</v>
+        <v>-0.46</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>50</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="n">
-        <v>-4</v>
+        <v>69</v>
       </c>
       <c r="Z32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>358920</v>
+        <v>248539095</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6768,7 +6744,7 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
@@ -6812,7 +6788,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6821,93 +6797,93 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2.75</v>
+        <v>7.12</v>
       </c>
       <c r="D33" t="n">
-        <v>687.221</v>
+        <v>8980.346</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>35.52</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.92</v>
+        <v>10.55</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>18.17</v>
+        <v>3.21</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
           <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>-2.10</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>-0.04</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>50</v>
       </c>
       <c r="X33" t="n">
-        <v>-38</v>
+        <v>173</v>
       </c>
       <c r="Y33" t="n">
-        <v>-16</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6915,15 +6891,23 @@
       <c r="AA33" t="n">
         <v>0</v>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-16041154</v>
+        <v>102048540</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6962,7 +6946,7 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
@@ -6994,7 +6978,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -7006,7 +6990,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -7015,109 +6999,109 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-2.45</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>819.92</v>
+        <v>1443.765</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>9.17</v>
+        <v>9.81</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>15.87</v>
+        <v>10</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-3.08</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>50</v>
       </c>
       <c r="X34" t="n">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-12135336</v>
+        <v>358920</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7156,7 +7140,7 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
@@ -7188,7 +7172,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7200,7 +7184,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7209,93 +7193,93 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.74</v>
+        <v>-2.75</v>
       </c>
       <c r="D35" t="n">
-        <v>246.815</v>
+        <v>687.221</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>9.4</v>
+        <v>8.92</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>13.76</v>
+        <v>18.17</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-9.09</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>-0.04</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-0.00</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>50</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>-38</v>
       </c>
       <c r="Y35" t="n">
-        <v>-26</v>
+        <v>-16</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
@@ -7307,11 +7291,11 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-7874978</v>
+        <v>-16041154</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7350,7 +7334,7 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
@@ -7394,7 +7378,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7403,93 +7387,93 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.31</v>
+        <v>-2.45</v>
       </c>
       <c r="D36" t="n">
-        <v>238.04</v>
+        <v>819.92</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J36" t="n">
-        <v>9.470000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>13.12</v>
+        <v>15.87</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-5.68</t>
+          <t>-3.08</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
           <t>-0.02</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.01</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>50</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>-17</v>
       </c>
       <c r="Y36" t="n">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -7501,11 +7485,11 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-7516106</v>
+        <v>-12135336</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7544,7 +7528,7 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
@@ -7588,7 +7572,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7597,58 +7581,58 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1.24</v>
+        <v>-0.74</v>
       </c>
       <c r="D37" t="n">
-        <v>343.672</v>
+        <v>246.815</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="J37" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>12.84</v>
+        <v>13.76</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -7663,27 +7647,27 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-9.09</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>50</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y37" t="n">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7695,11 +7679,11 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-6839000</v>
+        <v>-7874978</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7738,7 +7722,7 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
@@ -7782,7 +7766,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7791,32 +7775,32 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-11.03</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>24168.113</v>
+        <v>4425.193</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.55</v>
+        <v>13.4</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -7824,60 +7808,60 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-100</v>
       </c>
       <c r="X38" t="n">
-        <v>4</v>
+        <v>-11</v>
       </c>
       <c r="Y38" t="n">
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7889,11 +7873,11 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-26709684</v>
+        <v>-559081863</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7930,11 +7914,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7974,7 +7958,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7983,93 +7967,93 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-10.96</v>
+        <v>-10.11</v>
       </c>
       <c r="D39" t="n">
-        <v>2129.061</v>
+        <v>23042.602</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-9.43</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.05</v>
+        <v>12.2</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-11.07</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-14.08</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
           <t>-0.23</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-0.02</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>-100</v>
       </c>
       <c r="X39" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="Y39" t="n">
-        <v>-22</v>
+        <v>-35</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -8081,11 +8065,11 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>411887948</v>
+        <v>-650351029</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8122,11 +8106,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8166,7 +8150,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8175,93 +8159,93 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.21</v>
+        <v>-11.03</v>
       </c>
       <c r="D40" t="n">
-        <v>19775.988</v>
+        <v>24168.113</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>-6.27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.7</v>
+        <v>13.55</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-23.25</v>
+        <v>-1.12</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>-100</v>
       </c>
       <c r="X40" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="n">
-        <v>-12</v>
+        <v>-34</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
@@ -8273,11 +8257,11 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>240959752</v>
+        <v>-26709684</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8314,11 +8298,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8358,7 +8342,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8367,93 +8351,93 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.8</v>
+        <v>-10.96</v>
       </c>
       <c r="D41" t="n">
-        <v>6626.844</v>
+        <v>2129.061</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16.5</v>
+        <v>15.05</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>-21.77</v>
+        <v>-12.31</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-14.08</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
           <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>-1.91</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0.07</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>-100</v>
       </c>
       <c r="X41" t="n">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>-11</v>
+        <v>-22</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
@@ -8465,11 +8449,11 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-270630970</v>
+        <v>411887948</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8506,11 +8490,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8550,7 +8534,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8559,109 +8543,109 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-5.44</v>
+        <v>1.21</v>
       </c>
       <c r="D42" t="n">
-        <v>12503.701</v>
+        <v>19775.988</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>16.05</v>
+        <v>16.7</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-18.45</v>
+        <v>-24.63</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>-100</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y42" t="n">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-212956232</v>
+        <v>240959752</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8698,11 +8682,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8742,7 +8726,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8751,58 +8735,58 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-3.44</v>
+        <v>2.8</v>
       </c>
       <c r="D43" t="n">
-        <v>10317.732</v>
+        <v>6626.844</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.95</v>
+        <v>16.5</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>-25.09</v>
+        <v>-23.13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8812,48 +8796,48 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>-100</v>
       </c>
       <c r="X43" t="n">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="Y43" t="n">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>94893382</v>
+        <v>-270630970</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8890,11 +8874,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8934,7 +8918,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8943,109 +8927,109 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.87</v>
+        <v>-5.44</v>
       </c>
       <c r="D44" t="n">
-        <v>9504.121999999999</v>
+        <v>12503.701</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>17.55</v>
+        <v>16.05</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-29.52</v>
+        <v>-19.78</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>-100</v>
       </c>
       <c r="X44" t="n">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>71250717</v>
+        <v>-212956232</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9082,11 +9066,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9126,7 +9110,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9135,63 +9119,63 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.04</v>
+        <v>-3.44</v>
       </c>
       <c r="D45" t="n">
-        <v>6046.466</v>
+        <v>10317.732</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.4</v>
+        <v>16.95</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-28.41</v>
+        <v>-26.49</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -9201,43 +9185,43 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>-100</v>
       </c>
       <c r="X45" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>230610551</v>
+        <v>94893382</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9274,11 +9258,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9306,7 +9290,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
@@ -9318,7 +9302,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9327,63 +9311,63 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-2.54</v>
+        <v>0.87</v>
       </c>
       <c r="D46" t="n">
-        <v>11573.803</v>
+        <v>9504.121999999999</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-4.40</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>17.05</v>
+        <v>17.55</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-25.83</v>
+        <v>-30.97</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>24168</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -9393,27 +9377,27 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-100</v>
       </c>
       <c r="X46" t="n">
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="Y46" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -9425,11 +9409,11 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>362473021</v>
+        <v>71250717</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9466,11 +9450,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>42.23</v>
+        <v>42.45</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t>38968</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D2" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,25 +720,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X2" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y2" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -785,11 +785,11 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,93 +881,93 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.44</v>
+        <v>9.25</v>
       </c>
       <c r="D3" t="n">
-        <v>304.601</v>
+        <v>266.938</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42.45</v>
+        <v>46.6</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>8.91</v>
+        <v>-1.19</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X3" t="n">
-        <v>-80</v>
+        <v>-69</v>
       </c>
       <c r="Y3" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-26145201</v>
+        <v>8403358</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,93 +1075,93 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.5</v>
+        <v>-3.44</v>
       </c>
       <c r="D4" t="n">
-        <v>208.437</v>
+        <v>304.601</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>43.95</v>
+        <v>42.45</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.69</v>
+        <v>7.82</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X4" t="n">
-        <v>-126</v>
+        <v>-80</v>
       </c>
       <c r="Y4" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-42789498</v>
+        <v>-26145201</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,93 +1269,93 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-10.35</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="n">
-        <v>511.241</v>
+        <v>208.437</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>43.3</v>
+        <v>43.95</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>7.08</v>
+        <v>4.56</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X5" t="n">
-        <v>-131</v>
+        <v>-126</v>
       </c>
       <c r="Y5" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1367,11 +1367,11 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-48356955</v>
+        <v>-42789498</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,93 +1463,93 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.46</v>
+        <v>-10.35</v>
       </c>
       <c r="D6" t="n">
-        <v>618.573</v>
+        <v>511.241</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>47.75</v>
+        <v>43.3</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-2.47</v>
+        <v>5.97</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X6" t="n">
-        <v>-111</v>
+        <v>-131</v>
       </c>
       <c r="Y6" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-54414128</v>
+        <v>-48356955</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,63 +1657,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.66</v>
+        <v>-1.46</v>
       </c>
       <c r="D7" t="n">
-        <v>73.117</v>
+        <v>618.573</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.45</v>
+        <v>47.75</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-3.97</v>
+        <v>-3.69</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1723,43 +1723,43 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X7" t="n">
-        <v>-64</v>
+        <v>-111</v>
       </c>
       <c r="Y7" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-34428595</v>
+        <v>-54414128</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,109 +1851,109 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.98</v>
+        <v>1.66</v>
       </c>
       <c r="D8" t="n">
-        <v>588.876</v>
+        <v>73.117</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>47.65</v>
+        <v>48.45</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-2.25</v>
+        <v>-5.21</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X8" t="n">
+        <v>-64</v>
+      </c>
+      <c r="Y8" t="n">
         <v>-51</v>
       </c>
-      <c r="Y8" t="n">
-        <v>-52</v>
-      </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-31636014</v>
+        <v>-34428595</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,109 +2045,109 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.83</v>
+        <v>-1.98</v>
       </c>
       <c r="D9" t="n">
-        <v>198.831</v>
+        <v>588.876</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.6</v>
+        <v>47.65</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-4.29</v>
+        <v>-3.47</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X9" t="n">
-        <v>-16</v>
+        <v>-51</v>
       </c>
       <c r="Y9" t="n">
-        <v>-59</v>
+        <v>-52</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-11611952</v>
+        <v>-31636014</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,63 +2239,63 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.53</v>
+        <v>-1.83</v>
       </c>
       <c r="D10" t="n">
-        <v>129.145</v>
+        <v>198.831</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>49.5</v>
+        <v>48.6</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-6.22</v>
+        <v>-5.54</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2305,24 +2305,24 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X10" t="n">
-        <v>-23</v>
+        <v>-16</v>
       </c>
       <c r="Y10" t="n">
         <v>-59</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>12226345</v>
+        <v>-11611952</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.74</v>
+        <v>10.61</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.85</v>
+        <v>9.49</v>
       </c>
       <c r="D11" t="n">
-        <v>654.096</v>
+        <v>6367.384</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J11" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2466,60 +2466,60 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-160677055</v>
+        <v>30851799</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>4.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,90 +2627,90 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-9.77</v>
+        <v>8.85</v>
       </c>
       <c r="D12" t="n">
-        <v>5645.051</v>
+        <v>654.096</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>13.9</v>
+        <v>15.25</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.85</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X12" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>91</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-179409674</v>
+        <v>-160677055</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>4.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,90 +2821,90 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-9.42</v>
+        <v>-9.77</v>
       </c>
       <c r="D13" t="n">
-        <v>5532.753</v>
+        <v>5645.051</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="J13" t="n">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>-0.98</v>
+        <v>17.01</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X13" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y13" t="n">
         <v>91</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-321329733</v>
+        <v>-179409674</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,90 +3015,90 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-10.98</v>
+        <v>-9.42</v>
       </c>
       <c r="D14" t="n">
-        <v>519.745</v>
+        <v>5532.753</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J14" t="n">
-        <v>16.85</v>
+        <v>15.4</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-10.49</v>
+        <v>8.06</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X14" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="n">
         <v>91</v>
@@ -3107,25 +3107,17 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>23647293</v>
+        <v>-321329733</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3144,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3164,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3208,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3217,90 +3209,90 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.36</v>
+        <v>-10.98</v>
       </c>
       <c r="D15" t="n">
-        <v>11896.924</v>
+        <v>519.745</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.7</v>
+        <v>16.85</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-22.62</v>
+        <v>-0.6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X15" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Y15" t="n">
         <v>91</v>
@@ -3327,7 +3319,7 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-116718237</v>
+        <v>23647293</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3346,14 +3338,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3366,11 +3358,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3398,7 +3390,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3410,7 +3402,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3419,90 +3411,90 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.76</v>
+        <v>-2.36</v>
       </c>
       <c r="D16" t="n">
-        <v>13621.715</v>
+        <v>11896.924</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.15</v>
+        <v>18.7</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-25.57</v>
+        <v>-11.64</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X16" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="n">
         <v>91</v>
@@ -3529,7 +3521,7 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>493991956</v>
+        <v>-116718237</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3548,14 +3540,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3568,11 +3560,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3612,7 +3604,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3621,99 +3613,99 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-7.57</v>
+        <v>8.76</v>
       </c>
       <c r="D17" t="n">
-        <v>8234.450999999999</v>
+        <v>13621.715</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.6</v>
+        <v>19.15</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-15.41</v>
+        <v>-14.33</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X17" t="n">
-        <v>-26</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -3727,11 +3719,11 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>146084810</v>
+        <v>493991956</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3750,14 +3742,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3770,11 +3762,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3802,7 +3794,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
@@ -3814,7 +3806,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3823,78 +3815,78 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.14</v>
+        <v>-7.57</v>
       </c>
       <c r="D18" t="n">
-        <v>20442.683</v>
+        <v>8234.450999999999</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>-6.23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>42.40</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>17.6</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-24.59</v>
+        <v>-5.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3903,19 +3895,19 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X18" t="n">
-        <v>104</v>
+        <v>-26</v>
       </c>
       <c r="Y18" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -3929,11 +3921,11 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>482355605</v>
+        <v>146084810</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3952,14 +3944,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3972,11 +3964,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4016,7 +4008,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4025,99 +4017,99 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-5.01</v>
+        <v>4.14</v>
       </c>
       <c r="D19" t="n">
-        <v>4871.017</v>
+        <v>20442.683</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>42.40</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.25</v>
+        <v>19</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-19.67</v>
+        <v>-13.43</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="Y19" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -4131,11 +4123,11 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-350257996</v>
+        <v>482355605</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4154,14 +4146,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>80.26000000000001</v>
+        <v>88.16</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4174,11 +4166,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4218,7 +4210,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4227,32 +4219,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="D20" t="n">
-        <v>372.65</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -4260,17 +4252,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -4278,42 +4270,42 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X20" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4325,11 +4317,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-55882659</v>
+        <v>-9446945</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4348,14 +4340,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>3.85</v>
       </c>
       <c r="AK20" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4368,11 +4360,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4412,7 +4404,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4421,50 +4413,50 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-6.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>1997.882</v>
+        <v>372.65</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.1</v>
+        <v>14.4</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>9.029999999999999</v>
+        <v>2.04</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -4472,42 +4464,42 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X21" t="n">
-        <v>-32</v>
+        <v>-48</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4519,11 +4511,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-64334416</v>
+        <v>-55882659</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4542,14 +4534,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>3.85</v>
       </c>
       <c r="AK21" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4562,11 +4554,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4606,7 +4598,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4615,50 +4607,50 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-10.36</v>
+        <v>-6.81</v>
       </c>
       <c r="D22" t="n">
-        <v>2457.509</v>
+        <v>1997.882</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.05</v>
+        <v>13.1</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>2.43</v>
+        <v>10.88</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -4666,42 +4658,42 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X22" t="n">
-        <v>-52</v>
+        <v>-32</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4713,11 +4705,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-29354757</v>
+        <v>-64334416</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4736,14 +4728,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>3.85</v>
       </c>
       <c r="AK22" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4756,11 +4748,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4800,7 +4792,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4809,50 +4801,50 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-10.97</v>
+        <v>-10.36</v>
       </c>
       <c r="D23" t="n">
-        <v>199.531</v>
+        <v>2457.509</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.5</v>
+        <v>14.05</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>-7.64</v>
+        <v>4.42</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -4860,42 +4852,42 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X23" t="n">
-        <v>-31</v>
+        <v>-52</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4907,11 +4899,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>19634077</v>
+        <v>-29354757</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4930,14 +4922,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>3.85</v>
       </c>
       <c r="AK23" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4950,11 +4942,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4994,7 +4986,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5003,50 +4995,50 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.29</v>
+        <v>-10.97</v>
       </c>
       <c r="D24" t="n">
-        <v>481.077</v>
+        <v>199.531</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>-19.44</v>
+        <v>-5.44</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -5054,42 +5046,42 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>-0.69</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X24" t="n">
-        <v>-37</v>
+        <v>-31</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5101,11 +5093,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-10088662</v>
+        <v>19634077</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5124,14 +5116,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5144,11 +5136,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5188,7 +5180,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5197,45 +5189,45 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.17</v>
+        <v>0.29</v>
       </c>
       <c r="D25" t="n">
-        <v>845.221</v>
+        <v>481.077</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>17.15</v>
+        <v>17.2</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-19.1</v>
+        <v>-17.01</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5248,42 +5240,42 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X25" t="n">
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="Y25" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
@@ -5295,11 +5287,11 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-34000525</v>
+        <v>-10088662</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5318,14 +5310,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5338,11 +5330,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5382,7 +5374,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5391,50 +5383,50 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-9.43</v>
+        <v>4.17</v>
       </c>
       <c r="D26" t="n">
-        <v>1957.318</v>
+        <v>845.221</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-6.68</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-3.41</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16.45</v>
+        <v>17.15</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-14.24</v>
+        <v>-16.67</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -5442,42 +5434,42 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X26" t="n">
-        <v>-61</v>
+        <v>-30</v>
       </c>
       <c r="Y26" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5489,11 +5481,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-54154286</v>
+        <v>-34000525</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5512,14 +5504,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5532,11 +5524,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5576,7 +5568,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5585,50 +5577,50 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-4.26</v>
+        <v>-9.43</v>
       </c>
       <c r="D27" t="n">
-        <v>853.6369999999999</v>
+        <v>1957.318</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>-6.68</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-3.41</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="J27" t="n">
-        <v>18.1</v>
+        <v>16.45</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-25.69</v>
+        <v>-11.9</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -5636,66 +5628,58 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X27" t="n">
-        <v>38</v>
+        <v>-61</v>
       </c>
       <c r="Y27" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-30953790</v>
+        <v>-54154286</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5714,14 +5698,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5734,11 +5718,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5778,7 +5762,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5787,50 +5771,50 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.78</v>
+        <v>-4.26</v>
       </c>
       <c r="D28" t="n">
-        <v>300.597</v>
+        <v>853.6369999999999</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="J28" t="n">
-        <v>18.9</v>
+        <v>18.1</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-31.25</v>
+        <v>-23.13</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>812</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -5838,48 +5822,48 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X28" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="Z28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -5893,11 +5877,11 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-40258894</v>
+        <v>-30953790</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5916,14 +5900,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>43.64</v>
+        <v>44.55</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5936,11 +5920,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5980,7 +5964,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5989,32 +5973,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.91</v>
+        <v>-2.83</v>
       </c>
       <c r="D29" t="n">
-        <v>10757.929</v>
+        <v>3839.552</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J29" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
@@ -6022,60 +6006,60 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X29" t="n">
-        <v>151</v>
+        <v>-7</v>
       </c>
       <c r="Y29" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
@@ -6090,16 +6074,16 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-285894458</v>
+        <v>-40761602</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6118,14 +6102,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>2.22</v>
       </c>
       <c r="AK29" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6138,11 +6122,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6157,7 +6141,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS29" t="n">
@@ -6170,7 +6154,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6182,7 +6166,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6191,96 +6175,96 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-5.94</v>
+        <v>5.91</v>
       </c>
       <c r="D30" t="n">
-        <v>11256.055</v>
+        <v>10757.929</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="J30" t="n">
-        <v>10.25</v>
+        <v>10.9</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>5.96</v>
+        <v>-2.83</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Y30" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -6292,16 +6276,16 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-263980338</v>
+        <v>-285894458</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6320,14 +6304,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>2.22</v>
       </c>
       <c r="AK30" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6340,11 +6324,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6359,7 +6343,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS30" t="n">
@@ -6372,7 +6356,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
@@ -6384,7 +6368,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6393,73 +6377,73 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.45</v>
+        <v>-5.94</v>
       </c>
       <c r="D31" t="n">
-        <v>25281.807</v>
+        <v>11256.055</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="J31" t="n">
-        <v>10.9</v>
+        <v>10.25</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -6469,17 +6453,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X31" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Y31" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z31" t="b">
         <v>1</v>
@@ -6494,16 +6478,16 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-51261423</v>
+        <v>-263980338</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6522,14 +6506,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>2.22</v>
       </c>
       <c r="AK31" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6542,11 +6526,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6561,7 +6545,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS31" t="n">
@@ -6574,7 +6558,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6586,7 +6570,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6595,45 +6579,45 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.19</v>
+        <v>-0.45</v>
       </c>
       <c r="D32" t="n">
-        <v>13730.019</v>
+        <v>25281.807</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J32" t="n">
-        <v>10.95</v>
+        <v>10.9</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>-0.46</v>
+        <v>-2.83</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -6642,52 +6626,52 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X32" t="n">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="Y32" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Z32" t="b">
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -6696,16 +6680,16 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>248539095</v>
+        <v>-51261423</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6724,14 +6708,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>2.22</v>
       </c>
       <c r="AK32" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6744,11 +6728,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6763,7 +6747,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS32" t="n">
@@ -6788,7 +6772,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6797,99 +6781,99 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.12</v>
+        <v>4.19</v>
       </c>
       <c r="D33" t="n">
-        <v>8980.346</v>
+        <v>13730.019</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.55</v>
+        <v>10.95</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>3.21</v>
+        <v>-3.3</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X33" t="n">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="Y33" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Z33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
@@ -6898,16 +6882,16 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>102048540</v>
+        <v>248539095</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6926,14 +6910,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>2.22</v>
       </c>
       <c r="AK33" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6946,11 +6930,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6965,7 +6949,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS33" t="n">
@@ -6990,7 +6974,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6999,109 +6983,117 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.279999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="D34" t="n">
-        <v>1443.765</v>
+        <v>8980.346</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>35.52</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>9.81</v>
+        <v>10.55</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>0.47</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
       <c r="W34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="Y34" t="n">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>358920</v>
+        <v>102048540</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7120,14 +7112,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>2.22</v>
       </c>
       <c r="AK34" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7140,11 +7132,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7159,7 +7151,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS34" t="n">
@@ -7184,7 +7176,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7193,63 +7185,63 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-2.75</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>687.221</v>
+        <v>1443.765</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.92</v>
+        <v>9.81</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>18.17</v>
+        <v>7.45</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -7259,43 +7251,43 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X35" t="n">
-        <v>-38</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-16041154</v>
+        <v>358920</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7314,14 +7306,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7334,11 +7326,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7353,7 +7345,7 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS35" t="n">
@@ -7366,7 +7358,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7378,7 +7370,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7387,93 +7379,93 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-2.45</v>
+        <v>-2.75</v>
       </c>
       <c r="D36" t="n">
-        <v>819.92</v>
+        <v>687.221</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.17</v>
+        <v>8.92</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>15.87</v>
+        <v>15.85</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-3.08</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X36" t="n">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="Y36" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -7485,11 +7477,11 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-12135336</v>
+        <v>-16041154</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7508,14 +7500,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7528,11 +7520,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7547,7 +7539,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS36" t="n">
@@ -7572,7 +7564,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7581,93 +7573,93 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.74</v>
+        <v>-2.45</v>
       </c>
       <c r="D37" t="n">
-        <v>246.815</v>
+        <v>819.92</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J37" t="n">
-        <v>9.4</v>
+        <v>9.17</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>13.76</v>
+        <v>13.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-9.09</t>
+          <t>-3.08</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X37" t="n">
-        <v>18</v>
+        <v>-17</v>
       </c>
       <c r="Y37" t="n">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7679,11 +7671,11 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-7874978</v>
+        <v>-12135336</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7702,14 +7694,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>35.16</v>
+        <v>34.19</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7722,11 +7714,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7741,7 +7733,7 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS37" t="n">
@@ -7766,7 +7758,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7775,32 +7767,32 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.960000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="D38" t="n">
-        <v>4425.193</v>
+        <v>10815.79</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -7808,17 +7800,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7826,39 +7818,39 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-100</v>
       </c>
       <c r="X38" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="Y38" t="n">
         <v>-37</v>
@@ -7877,7 +7869,7 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-559081863</v>
+        <v>-83220364</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7914,11 +7906,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7958,7 +7950,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7967,50 +7959,50 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-10.11</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>23042.602</v>
+        <v>4425.193</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>8.960000000000001</v>
+        <v>2.19</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -8018,42 +8010,42 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>-100</v>
       </c>
       <c r="X39" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Y39" t="n">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -8065,11 +8057,11 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>-650351029</v>
+        <v>-559081863</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8106,11 +8098,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8150,7 +8142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8159,50 +8151,50 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-11.03</v>
+        <v>-10.11</v>
       </c>
       <c r="D40" t="n">
-        <v>24168.113</v>
+        <v>23042.602</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-9.43</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55</v>
+        <v>12.2</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-1.12</v>
+        <v>10.95</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -8210,42 +8202,42 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>-100</v>
       </c>
       <c r="X40" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="Y40" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
@@ -8257,11 +8249,11 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-26709684</v>
+        <v>-650351029</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8298,11 +8290,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8342,7 +8334,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8351,50 +8343,50 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-10.96</v>
+        <v>-11.03</v>
       </c>
       <c r="D41" t="n">
-        <v>2129.061</v>
+        <v>24168.113</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-6.27</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>15.05</v>
+        <v>13.55</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>-12.31</v>
+        <v>1.09</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -8402,42 +8394,42 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-14.08</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>-100</v>
       </c>
       <c r="X41" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Y41" t="n">
-        <v>-22</v>
+        <v>-34</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
@@ -8449,11 +8441,11 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>411887948</v>
+        <v>-26709684</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8490,11 +8482,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8534,7 +8526,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8543,50 +8535,50 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.21</v>
+        <v>-10.96</v>
       </c>
       <c r="D42" t="n">
-        <v>19775.988</v>
+        <v>2129.061</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>16.7</v>
+        <v>15.05</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-24.63</v>
+        <v>-9.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -8594,42 +8586,42 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-14.08</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>-100</v>
       </c>
       <c r="X42" t="n">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="Y42" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
@@ -8641,11 +8633,11 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>240959752</v>
+        <v>411887948</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8682,11 +8674,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8726,7 +8718,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8735,50 +8727,50 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.8</v>
+        <v>1.21</v>
       </c>
       <c r="D43" t="n">
-        <v>6626.844</v>
+        <v>19775.988</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>-23.13</v>
+        <v>-21.9</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -8786,42 +8778,42 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>-100</v>
       </c>
       <c r="X43" t="n">
-        <v>-20</v>
+        <v>-3</v>
       </c>
       <c r="Y43" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
@@ -8833,11 +8825,11 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-270630970</v>
+        <v>240959752</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8874,11 +8866,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8918,7 +8910,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8927,50 +8919,50 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-5.44</v>
+        <v>2.8</v>
       </c>
       <c r="D44" t="n">
-        <v>12503.701</v>
+        <v>6626.844</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.05</v>
+        <v>16.5</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-19.78</v>
+        <v>-20.44</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -8978,58 +8970,58 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>-1.91</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>-100</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="Y44" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-212956232</v>
+        <v>-270630970</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9066,11 +9058,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9110,7 +9102,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9119,50 +9111,50 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3.44</v>
+        <v>-5.44</v>
       </c>
       <c r="D45" t="n">
-        <v>10317.732</v>
+        <v>12503.701</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>16.95</v>
+        <v>16.05</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-26.49</v>
+        <v>-17.15</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -9170,58 +9162,58 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>-100</v>
       </c>
       <c r="X45" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="Y45" t="n">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>94893382</v>
+        <v>-212956232</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9258,11 +9250,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9302,7 +9294,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9311,50 +9303,50 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.87</v>
+        <v>-3.44</v>
       </c>
       <c r="D46" t="n">
-        <v>9504.121999999999</v>
+        <v>10317.732</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>17.55</v>
+        <v>16.95</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-30.97</v>
+        <v>-23.72</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9362,39 +9354,39 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
           <t>0.13</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>0.14</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-100</v>
       </c>
       <c r="X46" t="n">
-        <v>-26</v>
+        <v>-9</v>
       </c>
       <c r="Y46" t="n">
         <v>16</v>
@@ -9403,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
@@ -9413,7 +9405,7 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>71250717</v>
+        <v>94893382</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9450,11 +9442,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>42.45</v>
+        <v>44.38</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>38968</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="D2" t="n">
-        <v>144.515</v>
+        <v>173.632</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.05</v>
+        <v>45.25</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,17 +720,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -738,58 +738,58 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W2" t="n">
         <v>95</v>
       </c>
       <c r="X2" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-7324501</v>
+        <v>-2201719</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,50 +881,50 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D3" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-1.19</v>
+        <v>-1.77</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -942,32 +942,32 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>95</v>
       </c>
       <c r="X3" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y3" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,50 +1075,50 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.44</v>
+        <v>9.25</v>
       </c>
       <c r="D4" t="n">
-        <v>304.601</v>
+        <v>266.938</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.45</v>
+        <v>46.6</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.82</v>
+        <v>-2.98</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,42 +1126,42 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>95</v>
       </c>
       <c r="X4" t="n">
-        <v>-80</v>
+        <v>-69</v>
       </c>
       <c r="Y4" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-26145201</v>
+        <v>8403358</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,50 +1269,50 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.5</v>
+        <v>-3.44</v>
       </c>
       <c r="D5" t="n">
-        <v>208.437</v>
+        <v>304.601</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>43.95</v>
+        <v>42.45</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.56</v>
+        <v>6.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>95</v>
       </c>
       <c r="X5" t="n">
-        <v>-126</v>
+        <v>-80</v>
       </c>
       <c r="Y5" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1367,11 +1367,11 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-42789498</v>
+        <v>-26145201</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,50 +1463,50 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-10.35</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="n">
-        <v>511.241</v>
+        <v>208.437</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>43.3</v>
+        <v>43.95</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.97</v>
+        <v>2.87</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1514,42 +1514,42 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>95</v>
       </c>
       <c r="X6" t="n">
-        <v>-131</v>
+        <v>-126</v>
       </c>
       <c r="Y6" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-48356955</v>
+        <v>-42789498</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,50 +1657,50 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.46</v>
+        <v>-10.35</v>
       </c>
       <c r="D7" t="n">
-        <v>618.573</v>
+        <v>511.241</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.75</v>
+        <v>43.3</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-3.69</v>
+        <v>4.31</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,42 +1708,42 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>95</v>
       </c>
       <c r="X7" t="n">
-        <v>-111</v>
+        <v>-131</v>
       </c>
       <c r="Y7" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-54414128</v>
+        <v>-48356955</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,50 +1851,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.66</v>
+        <v>-1.46</v>
       </c>
       <c r="D8" t="n">
-        <v>73.117</v>
+        <v>618.573</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>48.45</v>
+        <v>47.75</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-5.21</v>
+        <v>-5.52</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1917,43 +1917,43 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>95</v>
       </c>
       <c r="X8" t="n">
-        <v>-64</v>
+        <v>-111</v>
       </c>
       <c r="Y8" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-34428595</v>
+        <v>-54414128</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,50 +2045,50 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.98</v>
+        <v>1.66</v>
       </c>
       <c r="D9" t="n">
-        <v>588.876</v>
+        <v>73.117</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>47.65</v>
+        <v>48.45</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-3.47</v>
+        <v>-7.07</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2096,58 +2096,58 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>95</v>
       </c>
       <c r="X9" t="n">
+        <v>-64</v>
+      </c>
+      <c r="Y9" t="n">
         <v>-51</v>
       </c>
-      <c r="Y9" t="n">
-        <v>-52</v>
-      </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-31636014</v>
+        <v>-34428595</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,50 +2239,50 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.83</v>
+        <v>-1.98</v>
       </c>
       <c r="D10" t="n">
-        <v>198.831</v>
+        <v>588.876</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.6</v>
+        <v>47.65</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-5.54</v>
+        <v>-5.3</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2290,58 +2290,58 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>95</v>
       </c>
       <c r="X10" t="n">
-        <v>-16</v>
+        <v>-51</v>
       </c>
       <c r="Y10" t="n">
-        <v>-59</v>
+        <v>-52</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-11611952</v>
+        <v>-31636014</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,29 +2433,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.49</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6367.384</v>
+        <v>5012.004</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="J11" t="n">
         <v>16.75</v>
@@ -2466,12 +2466,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2480,11 +2480,11 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2499,27 +2499,27 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>-65</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>30851799</v>
+        <v>27433204</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,93 +2627,93 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.85</v>
+        <v>9.49</v>
       </c>
       <c r="D12" t="n">
-        <v>654.096</v>
+        <v>6367.384</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J12" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>-65</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2725,11 +2725,11 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-160677055</v>
+        <v>30851799</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,90 +2821,90 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-9.77</v>
+        <v>8.85</v>
       </c>
       <c r="D13" t="n">
-        <v>5645.051</v>
+        <v>654.096</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>13.9</v>
+        <v>15.25</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>17.01</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>-65</v>
       </c>
       <c r="X13" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>91</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-179409674</v>
+        <v>-160677055</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,90 +3015,90 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-9.42</v>
+        <v>-9.77</v>
       </c>
       <c r="D14" t="n">
-        <v>5532.753</v>
+        <v>5645.051</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="J14" t="n">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>8.06</v>
+        <v>17.01</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>-65</v>
       </c>
       <c r="X14" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="n">
         <v>91</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-321329733</v>
+        <v>-179409674</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,90 +3209,90 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-10.98</v>
+        <v>-9.42</v>
       </c>
       <c r="D15" t="n">
-        <v>519.745</v>
+        <v>5532.753</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J15" t="n">
-        <v>16.85</v>
+        <v>15.4</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-0.6</v>
+        <v>8.06</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>-65</v>
       </c>
       <c r="X15" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="Y15" t="n">
         <v>91</v>
@@ -3301,25 +3301,17 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>23647293</v>
+        <v>-321329733</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3358,7 +3350,7 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -3402,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3411,90 +3403,90 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.36</v>
+        <v>-10.98</v>
       </c>
       <c r="D16" t="n">
-        <v>11896.924</v>
+        <v>519.745</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.7</v>
+        <v>16.85</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-11.64</v>
+        <v>-0.6</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>-65</v>
       </c>
       <c r="X16" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Y16" t="n">
         <v>91</v>
@@ -3521,7 +3513,7 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-116718237</v>
+        <v>23647293</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3560,7 +3552,7 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
@@ -3592,7 +3584,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
@@ -3604,7 +3596,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3613,90 +3605,90 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.76</v>
+        <v>-2.36</v>
       </c>
       <c r="D17" t="n">
-        <v>13621.715</v>
+        <v>11896.924</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.15</v>
+        <v>18.7</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-14.33</v>
+        <v>-11.64</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>-65</v>
       </c>
       <c r="X17" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
         <v>91</v>
@@ -3723,7 +3715,7 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>493991956</v>
+        <v>-116718237</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3762,7 +3754,7 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
@@ -3806,7 +3798,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3815,99 +3807,99 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-7.57</v>
+        <v>8.76</v>
       </c>
       <c r="D18" t="n">
-        <v>8234.450999999999</v>
+        <v>13621.715</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.6</v>
+        <v>19.15</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-5.07</v>
+        <v>-14.33</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>-65</v>
       </c>
       <c r="X18" t="n">
-        <v>-26</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -3921,11 +3913,11 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>146084810</v>
+        <v>493991956</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3964,7 +3956,7 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -3996,7 +3988,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
@@ -4008,7 +4000,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4017,78 +4009,78 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.14</v>
+        <v>-7.57</v>
       </c>
       <c r="D19" t="n">
-        <v>20442.683</v>
+        <v>8234.450999999999</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>-6.23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>42.40</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>17.6</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-13.43</v>
+        <v>-5.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -4100,16 +4092,16 @@
         <v>-65</v>
       </c>
       <c r="X19" t="n">
-        <v>104</v>
+        <v>-26</v>
       </c>
       <c r="Y19" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -4123,11 +4115,11 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>482355605</v>
+        <v>146084810</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4166,7 +4158,7 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
@@ -4210,7 +4202,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4219,32 +4211,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="D20" t="n">
-        <v>812.1319999999999</v>
+        <v>781.769</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.7</v>
+        <v>15.05</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -4252,30 +4244,30 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -4285,27 +4277,27 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-65</v>
       </c>
       <c r="X20" t="n">
-        <v>-46</v>
+        <v>-65</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4317,11 +4309,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-9446945</v>
+        <v>29128757</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4340,14 +4332,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>3.85</v>
       </c>
       <c r="AK20" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4360,11 +4352,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4404,7 +4396,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4413,93 +4405,93 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="D21" t="n">
-        <v>372.65</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-65</v>
       </c>
       <c r="X21" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4511,11 +4503,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-55882659</v>
+        <v>-9446945</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4534,14 +4526,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>3.85</v>
       </c>
       <c r="AK21" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4554,11 +4546,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4598,7 +4590,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4607,93 +4599,93 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-6.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>1997.882</v>
+        <v>372.65</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13.1</v>
+        <v>14.4</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>10.88</v>
+        <v>4.32</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-65</v>
       </c>
       <c r="X22" t="n">
-        <v>-32</v>
+        <v>-48</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4705,11 +4697,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-64334416</v>
+        <v>-55882659</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4728,14 +4720,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>3.85</v>
       </c>
       <c r="AK22" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4748,11 +4740,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4792,7 +4784,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4801,93 +4793,93 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-10.36</v>
+        <v>-6.81</v>
       </c>
       <c r="D23" t="n">
-        <v>2457.509</v>
+        <v>1997.882</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.05</v>
+        <v>13.1</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>4.42</v>
+        <v>12.96</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-65</v>
       </c>
       <c r="X23" t="n">
-        <v>-52</v>
+        <v>-32</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4899,11 +4891,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-29354757</v>
+        <v>-64334416</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4922,14 +4914,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>3.85</v>
       </c>
       <c r="AK23" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4942,11 +4934,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4986,7 +4978,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4995,93 +4987,93 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-10.97</v>
+        <v>-10.36</v>
       </c>
       <c r="D24" t="n">
-        <v>199.531</v>
+        <v>2457.509</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.5</v>
+        <v>14.05</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>-5.44</v>
+        <v>6.64</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-65</v>
       </c>
       <c r="X24" t="n">
-        <v>-31</v>
+        <v>-52</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5093,11 +5085,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>19634077</v>
+        <v>-29354757</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5116,14 +5108,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5136,11 +5128,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5180,7 +5172,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5189,93 +5181,93 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.29</v>
+        <v>-10.97</v>
       </c>
       <c r="D25" t="n">
-        <v>481.077</v>
+        <v>199.531</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-17.01</v>
+        <v>-2.99</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>-0.69</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-65</v>
       </c>
       <c r="X25" t="n">
-        <v>-37</v>
+        <v>-31</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
@@ -5287,11 +5279,11 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-10088662</v>
+        <v>19634077</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5310,14 +5302,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5330,11 +5322,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5374,7 +5366,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5383,45 +5375,45 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.17</v>
+        <v>0.29</v>
       </c>
       <c r="D26" t="n">
-        <v>845.221</v>
+        <v>481.077</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>17.15</v>
+        <v>17.2</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-16.67</v>
+        <v>-14.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5430,46 +5422,46 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-65</v>
       </c>
       <c r="X26" t="n">
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5481,11 +5473,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-34000525</v>
+        <v>-10088662</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5504,14 +5496,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5524,11 +5516,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5568,7 +5560,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5577,93 +5569,93 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-9.43</v>
+        <v>4.17</v>
       </c>
       <c r="D27" t="n">
-        <v>1957.318</v>
+        <v>845.221</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-6.68</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-3.41</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.45</v>
+        <v>17.15</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-11.9</v>
+        <v>-13.95</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-65</v>
       </c>
       <c r="X27" t="n">
-        <v>-61</v>
+        <v>-30</v>
       </c>
       <c r="Y27" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5675,11 +5667,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-54154286</v>
+        <v>-34000525</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5698,14 +5690,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5718,11 +5710,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5762,7 +5754,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5771,117 +5763,109 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-4.26</v>
+        <v>-9.43</v>
       </c>
       <c r="D28" t="n">
-        <v>853.6369999999999</v>
+        <v>1957.318</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>-6.68</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-3.41</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="J28" t="n">
-        <v>18.1</v>
+        <v>16.45</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-23.13</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-65</v>
       </c>
       <c r="X28" t="n">
-        <v>38</v>
+        <v>-61</v>
       </c>
       <c r="Y28" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-30953790</v>
+        <v>-54154286</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5900,14 +5884,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5920,11 +5904,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5964,7 +5948,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5973,32 +5957,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2.83</v>
+        <v>-1.38</v>
       </c>
       <c r="D29" t="n">
-        <v>3839.552</v>
+        <v>3572.959</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
@@ -6006,17 +5990,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -6024,22 +6008,22 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -6049,23 +6033,23 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>40</v>
       </c>
       <c r="X29" t="n">
-        <v>-7</v>
+        <v>-126</v>
       </c>
       <c r="Y29" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -6074,16 +6058,16 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-40761602</v>
+        <v>39883278</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6102,14 +6086,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>2.22</v>
       </c>
       <c r="AK29" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6122,16 +6106,16 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6166,7 +6150,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6175,50 +6159,50 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.91</v>
+        <v>-2.83</v>
       </c>
       <c r="D30" t="n">
-        <v>10757.929</v>
+        <v>3839.552</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-2.83</v>
+        <v>-1.44</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -6226,42 +6210,42 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>151</v>
+        <v>-7</v>
       </c>
       <c r="Y30" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
@@ -6276,16 +6260,16 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-285894458</v>
+        <v>-40761602</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6304,14 +6288,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>2.22</v>
       </c>
       <c r="AK30" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6324,16 +6308,16 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6356,7 +6340,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
@@ -6368,7 +6352,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6377,50 +6361,50 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-5.94</v>
+        <v>5.91</v>
       </c>
       <c r="D31" t="n">
-        <v>11256.055</v>
+        <v>10757.929</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="J31" t="n">
-        <v>10.25</v>
+        <v>10.9</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>3.3</v>
+        <v>-4.31</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -6428,45 +6412,45 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>40</v>
       </c>
       <c r="X31" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Y31" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -6478,16 +6462,16 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-263980338</v>
+        <v>-285894458</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6506,14 +6490,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>2.22</v>
       </c>
       <c r="AK31" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6526,16 +6510,16 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6558,7 +6542,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6570,7 +6554,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6579,50 +6563,50 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.45</v>
+        <v>-5.94</v>
       </c>
       <c r="D32" t="n">
-        <v>25281.807</v>
+        <v>11256.055</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="J32" t="n">
-        <v>10.9</v>
+        <v>10.25</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>-2.83</v>
+        <v>1.91</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -6630,22 +6614,22 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -6655,17 +6639,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>40</v>
       </c>
       <c r="X32" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Y32" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z32" t="b">
         <v>1</v>
@@ -6680,16 +6664,16 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-51261423</v>
+        <v>-263980338</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6708,14 +6692,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>2.22</v>
       </c>
       <c r="AK32" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6728,16 +6712,16 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -6760,7 +6744,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6772,7 +6756,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6781,45 +6765,45 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.19</v>
+        <v>-0.45</v>
       </c>
       <c r="D33" t="n">
-        <v>13730.019</v>
+        <v>25281.807</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J33" t="n">
-        <v>10.95</v>
+        <v>10.9</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>-3.3</v>
+        <v>-4.31</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6832,48 +6816,48 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>40</v>
       </c>
       <c r="X33" t="n">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="Y33" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Z33" t="b">
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
@@ -6882,16 +6866,16 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>248539095</v>
+        <v>-51261423</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6910,14 +6894,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>2.22</v>
       </c>
       <c r="AK33" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6930,16 +6914,16 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -6974,7 +6958,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6983,50 +6967,50 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.12</v>
+        <v>4.19</v>
       </c>
       <c r="D34" t="n">
-        <v>8980.346</v>
+        <v>13730.019</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.55</v>
+        <v>10.95</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.47</v>
+        <v>-4.78</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -7034,48 +7018,48 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>40</v>
       </c>
       <c r="X34" t="n">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Z34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -7084,16 +7068,16 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>102048540</v>
+        <v>248539095</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7112,14 +7096,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>2.22</v>
       </c>
       <c r="AK34" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7132,16 +7116,16 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -7176,7 +7160,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7185,50 +7169,50 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.279999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="D35" t="n">
-        <v>1443.765</v>
+        <v>8980.346</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>35.52</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>9.81</v>
+        <v>10.55</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>7.45</v>
+        <v>-0.96</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -7236,58 +7220,66 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-0.05</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>40</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>358920</v>
+        <v>102048540</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7306,14 +7298,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7326,16 +7318,16 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7370,7 +7362,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7379,50 +7371,50 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-2.75</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>687.221</v>
+        <v>1443.765</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.92</v>
+        <v>9.81</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>15.85</v>
+        <v>6.12</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -7430,12 +7422,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -7445,43 +7437,43 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>40</v>
       </c>
       <c r="X36" t="n">
-        <v>-38</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-16041154</v>
+        <v>358920</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7500,14 +7492,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7520,16 +7512,16 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -7552,7 +7544,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7564,7 +7556,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7573,50 +7565,50 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2.45</v>
+        <v>-2.75</v>
       </c>
       <c r="D37" t="n">
-        <v>819.92</v>
+        <v>687.221</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>9.17</v>
+        <v>8.92</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>13.49</v>
+        <v>14.64</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -7624,42 +7616,42 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-3.08</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>40</v>
       </c>
       <c r="X37" t="n">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="Y37" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7671,11 +7663,11 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-12135336</v>
+        <v>-16041154</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7694,14 +7686,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>34.19</v>
+        <v>33.71</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7714,16 +7706,16 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7758,7 +7750,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7767,32 +7759,32 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="D38" t="n">
-        <v>10815.79</v>
+        <v>8815.002</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.7</v>
+        <v>14.05</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -7800,30 +7792,30 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -7833,24 +7825,24 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X38" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="Y38" t="n">
         <v>-37</v>
@@ -7869,7 +7861,7 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-83220364</v>
+        <v>328719682</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7906,11 +7898,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7950,7 +7942,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7959,90 +7951,90 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.960000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="D39" t="n">
-        <v>4425.193</v>
+        <v>10815.79</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>2.19</v>
+        <v>2.49</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X39" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="Y39" t="n">
         <v>-37</v>
@@ -8061,7 +8053,7 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>-559081863</v>
+        <v>-83220364</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8098,11 +8090,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8142,7 +8134,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8151,93 +8143,93 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-10.11</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>23042.602</v>
+        <v>4425.193</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>10.95</v>
+        <v>4.63</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X40" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Y40" t="n">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
@@ -8249,11 +8241,11 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-650351029</v>
+        <v>-559081863</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8290,11 +8282,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8334,7 +8326,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8343,93 +8335,93 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-11.03</v>
+        <v>-10.11</v>
       </c>
       <c r="D41" t="n">
-        <v>24168.113</v>
+        <v>23042.602</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-9.43</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.55</v>
+        <v>12.2</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.09</v>
+        <v>13.17</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X41" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="Y41" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
@@ -8441,11 +8433,11 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-26709684</v>
+        <v>-650351029</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8482,11 +8474,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8526,7 +8518,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8535,93 +8527,93 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-10.96</v>
+        <v>-11.03</v>
       </c>
       <c r="D42" t="n">
-        <v>2129.061</v>
+        <v>24168.113</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-6.27</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15.05</v>
+        <v>13.55</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-9.85</v>
+        <v>3.56</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-14.08</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X42" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="n">
-        <v>-22</v>
+        <v>-34</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
@@ -8633,11 +8625,11 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>411887948</v>
+        <v>-26709684</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8674,11 +8666,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8718,7 +8710,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8727,93 +8719,93 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.21</v>
+        <v>-10.96</v>
       </c>
       <c r="D43" t="n">
-        <v>19775.988</v>
+        <v>2129.061</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.7</v>
+        <v>15.05</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>-21.9</v>
+        <v>-7.12</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-14.08</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X43" t="n">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="Y43" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
@@ -8825,11 +8817,11 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>240959752</v>
+        <v>411887948</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8866,11 +8858,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8910,7 +8902,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8919,93 +8911,93 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.8</v>
+        <v>1.21</v>
       </c>
       <c r="D44" t="n">
-        <v>6626.844</v>
+        <v>19775.988</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-20.44</v>
+        <v>-18.86</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X44" t="n">
-        <v>-20</v>
+        <v>-3</v>
       </c>
       <c r="Y44" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
@@ -9017,11 +9009,11 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-270630970</v>
+        <v>240959752</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9058,11 +9050,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9102,7 +9094,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9111,109 +9103,109 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-5.44</v>
+        <v>2.8</v>
       </c>
       <c r="D45" t="n">
-        <v>12503.701</v>
+        <v>6626.844</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>16.05</v>
+        <v>16.5</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-17.15</v>
+        <v>-17.44</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>-1.91</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X45" t="n">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="Y45" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-212956232</v>
+        <v>-270630970</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9250,11 +9242,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9294,7 +9286,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9303,109 +9295,109 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-3.44</v>
+        <v>-5.44</v>
       </c>
       <c r="D46" t="n">
-        <v>10317.732</v>
+        <v>12503.701</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.95</v>
+        <v>16.05</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-23.72</v>
+        <v>-14.23</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>8815</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>94893382</v>
+        <v>-212956232</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9442,11 +9434,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40858</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV46"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,61 +676,53 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>1817</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173.632</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>98</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -738,58 +730,54 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>95</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-2201719</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +796,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.43</v>
+        <v>10.5</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +816,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -847,7 +835,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS2" t="n">
@@ -872,122 +860,122 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.17</v>
+        <v>5.28</v>
       </c>
       <c r="D3" t="n">
-        <v>144.515</v>
+        <v>3570.343</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>46.05</v>
+        <v>17.65</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-1.77</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X3" t="n">
         <v>-18</v>
       </c>
       <c r="Y3" t="n">
-        <v>-24</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-7324501</v>
+        <v>79667719</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1002,50 +990,50 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS3" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
@@ -1059,109 +1047,109 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>266.938</v>
+        <v>5012.004</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J4" t="n">
-        <v>46.6</v>
+        <v>16.75</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-2.98</v>
+        <v>5.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X4" t="n">
-        <v>-69</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>-26</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,15 +1161,15 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>8403358</v>
+        <v>27433204</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1196,50 +1184,50 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS4" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -1248,114 +1236,114 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.44</v>
+        <v>9.49</v>
       </c>
       <c r="D5" t="n">
-        <v>304.601</v>
+        <v>6367.384</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J5" t="n">
-        <v>42.45</v>
+        <v>16.75</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.19</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X5" t="n">
-        <v>-80</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>-29</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1367,15 +1355,15 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-26145201</v>
+        <v>30851799</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1390,50 +1378,50 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS5" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
@@ -1442,79 +1430,79 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.5</v>
+        <v>8.85</v>
       </c>
       <c r="D6" t="n">
-        <v>208.437</v>
+        <v>654.096</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>43.95</v>
+        <v>15.25</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2.87</v>
+        <v>13.6</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1524,32 +1512,32 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X6" t="n">
-        <v>-126</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>-32</v>
+        <v>91</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,15 +1549,15 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-42789498</v>
+        <v>-160677055</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1584,50 +1572,50 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
@@ -1641,109 +1629,109 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-10.35</v>
+        <v>-9.77</v>
       </c>
       <c r="D7" t="n">
-        <v>511.241</v>
+        <v>5645.051</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J7" t="n">
-        <v>43.3</v>
+        <v>13.9</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.31</v>
+        <v>21.25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X7" t="n">
-        <v>-131</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,15 +1743,15 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-48356955</v>
+        <v>-179409674</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1778,50 +1766,50 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS7" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
@@ -1835,129 +1823,129 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.46</v>
+        <v>-9.42</v>
       </c>
       <c r="D8" t="n">
-        <v>618.573</v>
+        <v>5532.753</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J8" t="n">
-        <v>47.75</v>
+        <v>15.4</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-5.52</v>
+        <v>12.75</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X8" t="n">
-        <v>-111</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="n">
-        <v>-42</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-54414128</v>
+        <v>-321329733</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1972,50 +1960,50 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS8" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
@@ -2029,129 +2017,137 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.66</v>
+        <v>-10.98</v>
       </c>
       <c r="D9" t="n">
-        <v>73.117</v>
+        <v>519.745</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.45</v>
+        <v>16.85</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-7.07</v>
+        <v>4.53</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X9" t="n">
-        <v>-64</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="n">
-        <v>-51</v>
+        <v>91</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-34428595</v>
+        <v>23647293</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2166,50 +2162,50 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS9" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
@@ -2223,109 +2219,109 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.98</v>
+        <v>-2.36</v>
       </c>
       <c r="D10" t="n">
-        <v>588.876</v>
+        <v>11896.924</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.65</v>
+        <v>18.7</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-5.3</v>
+        <v>-5.95</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>95</v>
+        <v>-50</v>
       </c>
       <c r="X10" t="n">
-        <v>-51</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="n">
-        <v>-52</v>
+        <v>91</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
@@ -2333,19 +2329,27 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-31636014</v>
+        <v>-116718237</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>凱撒衛</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2360,50 +2364,50 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>10.71</v>
+        <v>4.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.43</v>
+        <v>92.89</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>36.33%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>凱撒衛-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS10" t="n">
-        <v>30.94</v>
+        <v>22.66</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
@@ -2412,19 +2416,19 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,36 +2437,36 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="D11" t="n">
-        <v>5012.004</v>
+        <v>13621.715</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.75</v>
+        <v>19.15</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2471,55 +2475,55 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X11" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2527,15 +2531,23 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>27433204</v>
+        <v>493991956</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2566,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>4.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>88.16</v>
+        <v>92.89</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2586,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2618,41 +2630,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.49</v>
+        <v>4.52</v>
       </c>
       <c r="D12" t="n">
-        <v>6367.384</v>
+        <v>433.824</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
@@ -2660,80 +2672,80 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>-47</v>
       </c>
       <c r="Y12" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>30851799</v>
+        <v>30511598</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2748,41 +2760,41 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK12" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -2791,7 +2803,7 @@
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
@@ -2800,114 +2812,114 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.85</v>
+        <v>2.36</v>
       </c>
       <c r="D13" t="n">
-        <v>654.096</v>
+        <v>781.769</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.25</v>
+        <v>15.05</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8.960000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W13" t="n">
+        <v>-50</v>
+      </c>
+      <c r="X13" t="n">
         <v>-65</v>
       </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
       <c r="Y13" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
@@ -2919,15 +2931,15 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-160677055</v>
+        <v>29128757</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2942,41 +2954,41 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK13" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -2985,7 +2997,7 @@
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
@@ -2999,109 +3011,109 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-9.77</v>
+        <v>2.08</v>
       </c>
       <c r="D14" t="n">
-        <v>5645.051</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>17.01</v>
+        <v>6.67</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X14" t="n">
-        <v>44</v>
+        <v>-46</v>
       </c>
       <c r="Y14" t="n">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3113,15 +3125,15 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-179409674</v>
+        <v>-9446945</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3136,41 +3148,41 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK14" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3179,7 +3191,7 @@
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -3193,129 +3205,129 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-9.42</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>5532.753</v>
+        <v>372.65</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>8.06</v>
+        <v>8.57</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X15" t="n">
-        <v>33</v>
+        <v>-48</v>
       </c>
       <c r="Y15" t="n">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-321329733</v>
+        <v>-55882659</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3330,41 +3342,41 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK15" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3373,7 +3385,7 @@
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -3387,61 +3399,61 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-10.98</v>
+        <v>-6.81</v>
       </c>
       <c r="D16" t="n">
-        <v>519.745</v>
+        <v>1997.882</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.85</v>
+        <v>13.1</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-0.6</v>
+        <v>16.83</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3450,46 +3462,46 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X16" t="n">
-        <v>64</v>
+        <v>-32</v>
       </c>
       <c r="Y16" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3497,27 +3509,19 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>23647293</v>
+        <v>-64334416</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3532,41 +3536,41 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK16" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -3575,7 +3579,7 @@
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
@@ -3589,109 +3593,109 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.36</v>
+        <v>-10.36</v>
       </c>
       <c r="D17" t="n">
-        <v>11896.924</v>
+        <v>2457.509</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.7</v>
+        <v>14.05</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-11.64</v>
+        <v>10.79</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>-52</v>
       </c>
       <c r="Y17" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3699,27 +3703,19 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-116718237</v>
+        <v>-29354757</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3734,41 +3730,41 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK17" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -3777,7 +3773,7 @@
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
@@ -3786,114 +3782,114 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.76</v>
+        <v>-10.97</v>
       </c>
       <c r="D18" t="n">
-        <v>13621.715</v>
+        <v>199.531</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.15</v>
+        <v>15.5</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-14.33</v>
+        <v>1.59</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X18" t="n">
-        <v>72</v>
+        <v>-31</v>
       </c>
       <c r="Y18" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3901,27 +3897,19 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>493991956</v>
+        <v>19634077</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3936,41 +3924,41 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK18" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -3979,7 +3967,7 @@
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
@@ -3988,142 +3976,134 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7.57</v>
+        <v>0.29</v>
       </c>
       <c r="D19" t="n">
-        <v>8234.450999999999</v>
+        <v>481.077</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.6</v>
+        <v>17.2</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-5.07</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X19" t="n">
-        <v>-26</v>
+        <v>-37</v>
       </c>
       <c r="Y19" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>146084810</v>
+        <v>-10088662</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4138,41 +4118,41 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AK19" t="n">
-        <v>88.16</v>
+        <v>47.73</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4181,7 +4161,7 @@
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>22.66</v>
+        <v>17.7</v>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
@@ -4195,14 +4175,14 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4211,93 +4191,93 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.36</v>
+        <v>4.17</v>
       </c>
       <c r="D20" t="n">
-        <v>781.769</v>
+        <v>845.221</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.05</v>
+        <v>17.15</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>434</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X20" t="n">
-        <v>-65</v>
+        <v>-30</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4309,11 +4289,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>29128757</v>
+        <v>-34000525</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4332,14 +4312,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>3.85</v>
       </c>
       <c r="AK20" t="n">
-        <v>45.61</v>
+        <v>47.73</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4352,11 +4332,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4396,122 +4376,130 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.08</v>
+        <v>5.66</v>
       </c>
       <c r="D21" t="n">
-        <v>812.1319999999999</v>
+        <v>5797.142</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.7</v>
+        <v>11.05</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X21" t="n">
-        <v>-46</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-9446945</v>
+        <v>-15056952</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -4526,50 +4514,50 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK21" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
@@ -4578,134 +4566,142 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.029999999999999</v>
+        <v>-1.38</v>
       </c>
       <c r="D22" t="n">
-        <v>372.65</v>
+        <v>3572.959</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.4</v>
+        <v>10.45</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>4.32</v>
+        <v>5.43</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X22" t="n">
-        <v>-48</v>
+        <v>-126</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-55882659</v>
+        <v>39883278</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4720,50 +4716,50 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK22" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
@@ -4777,61 +4773,61 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-6.81</v>
+        <v>-2.83</v>
       </c>
       <c r="D23" t="n">
-        <v>1997.882</v>
+        <v>3839.552</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J23" t="n">
-        <v>13.1</v>
+        <v>10.6</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>12.96</v>
+        <v>4.07</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4840,46 +4836,46 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X23" t="n">
-        <v>-32</v>
+        <v>-7</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4887,19 +4883,27 @@
       <c r="AA23" t="n">
         <v>0</v>
       </c>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-64334416</v>
+        <v>-40761602</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4914,50 +4918,50 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK23" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
@@ -4971,109 +4975,109 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-10.36</v>
+        <v>5.91</v>
       </c>
       <c r="D24" t="n">
-        <v>2457.509</v>
+        <v>10757.929</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J24" t="n">
-        <v>14.05</v>
+        <v>10.9</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>6.64</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X24" t="n">
-        <v>-52</v>
+        <v>151</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5081,19 +5085,27 @@
       <c r="AA24" t="n">
         <v>0</v>
       </c>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-29354757</v>
+        <v>-285894458</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -5108,50 +5120,50 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK24" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
@@ -5160,134 +5172,142 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-10.97</v>
+        <v>-5.94</v>
       </c>
       <c r="D25" t="n">
-        <v>199.531</v>
+        <v>11256.055</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J25" t="n">
-        <v>15.5</v>
+        <v>10.25</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-2.99</v>
+        <v>7.24</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X25" t="n">
-        <v>-31</v>
+        <v>175</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="Z25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>19634077</v>
+        <v>-263980338</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5302,50 +5322,50 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK25" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
@@ -5359,129 +5379,137 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.29</v>
+        <v>-0.45</v>
       </c>
       <c r="D26" t="n">
-        <v>481.077</v>
+        <v>25281.807</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J26" t="n">
-        <v>17.2</v>
+        <v>10.9</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-14.29</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X26" t="n">
-        <v>-37</v>
+        <v>191</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Z26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-10088662</v>
+        <v>-51261423</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -5496,50 +5524,50 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK26" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
@@ -5548,134 +5576,142 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.17</v>
+        <v>4.19</v>
       </c>
       <c r="D27" t="n">
-        <v>845.221</v>
+        <v>13730.019</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>17.15</v>
+        <v>10.95</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-13.95</v>
+        <v>0.9</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X27" t="n">
-        <v>-30</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="n">
-        <v>-8</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-34000525</v>
+        <v>248539095</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -5690,50 +5726,50 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK27" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS27" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
@@ -5742,114 +5778,114 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-9.43</v>
+        <v>7.12</v>
       </c>
       <c r="D28" t="n">
-        <v>1957.318</v>
+        <v>8980.346</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-6.68</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-3.41</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>35.52</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.45</v>
+        <v>10.55</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-9.300000000000001</v>
+        <v>4.52</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
       <c r="W28" t="n">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="X28" t="n">
-        <v>-61</v>
+        <v>173</v>
       </c>
       <c r="Y28" t="n">
-        <v>-7</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5857,19 +5893,27 @@
       <c r="AA28" t="n">
         <v>0</v>
       </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-54154286</v>
+        <v>102048540</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5884,50 +5928,50 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AK28" t="n">
-        <v>45.61</v>
+        <v>35.65</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS28" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
@@ -5936,19 +5980,19 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5957,117 +6001,109 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1.38</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>3572.959</v>
+        <v>1443.765</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.45</v>
+        <v>9.81</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.22</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="X29" t="n">
-        <v>-126</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>90</v>
+        <v>-4</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>39883278</v>
+        <v>358920</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6086,14 +6122,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>2.22</v>
       </c>
       <c r="AK29" t="n">
-        <v>33.71</v>
+        <v>35.65</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6106,11 +6142,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6125,7 +6161,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS29" t="n">
@@ -6138,7 +6174,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6150,130 +6186,122 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-2.83</v>
+        <v>1.75</v>
       </c>
       <c r="D30" t="n">
-        <v>3839.552</v>
+        <v>8197.369000000001</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.6</v>
+        <v>14.3</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X30" t="n">
-        <v>-7</v>
+        <v>-37</v>
       </c>
       <c r="Y30" t="n">
-        <v>89</v>
+        <v>-35</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-40761602</v>
+        <v>387221083</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -6288,50 +6316,48 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS30" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
@@ -6345,109 +6371,109 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.91</v>
+        <v>2.53</v>
       </c>
       <c r="D31" t="n">
-        <v>10757.929</v>
+        <v>8815.002</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10.9</v>
+        <v>14.05</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-4.31</v>
+        <v>1.75</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X31" t="n">
-        <v>151</v>
+        <v>-42</v>
       </c>
       <c r="Y31" t="n">
-        <v>88</v>
+        <v>-37</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
@@ -6455,27 +6481,19 @@
       <c r="AA31" t="n">
         <v>0</v>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-285894458</v>
+        <v>328719682</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -6490,50 +6508,48 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS31" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
@@ -6542,142 +6558,134 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-5.94</v>
+        <v>2.3</v>
       </c>
       <c r="D32" t="n">
-        <v>11256.055</v>
+        <v>10815.79</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.25</v>
+        <v>13.7</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X32" t="n">
-        <v>175</v>
+        <v>-19</v>
       </c>
       <c r="Y32" t="n">
-        <v>86</v>
+        <v>-37</v>
       </c>
       <c r="Z32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-263980338</v>
+        <v>-83220364</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -6692,50 +6700,48 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS32" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
@@ -6749,137 +6755,129 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.45</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>25281.807</v>
+        <v>4425.193</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.9</v>
+        <v>13.4</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>-4.31</v>
+        <v>6.29</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X33" t="n">
-        <v>191</v>
+        <v>-11</v>
       </c>
       <c r="Y33" t="n">
-        <v>83</v>
+        <v>-37</v>
       </c>
       <c r="Z33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-51261423</v>
+        <v>-559081863</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -6894,50 +6892,48 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS33" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
@@ -6946,142 +6942,134 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.19</v>
+        <v>-10.11</v>
       </c>
       <c r="D34" t="n">
-        <v>13730.019</v>
+        <v>23042.602</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>-9.43</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.95</v>
+        <v>12.2</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>-4.78</v>
+        <v>14.69</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X34" t="n">
-        <v>295</v>
+        <v>-10</v>
       </c>
       <c r="Y34" t="n">
-        <v>69</v>
+        <v>-35</v>
       </c>
       <c r="Z34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>248539095</v>
+        <v>-650351029</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -7096,50 +7084,48 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS34" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
@@ -7148,114 +7134,114 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.12</v>
+        <v>-11.03</v>
       </c>
       <c r="D35" t="n">
-        <v>8980.346</v>
+        <v>24168.113</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>-6.27</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.55</v>
+        <v>13.55</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>-0.96</v>
+        <v>5.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X35" t="n">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="n">
-        <v>44</v>
+        <v>-34</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
@@ -7263,27 +7249,19 @@
       <c r="AA35" t="n">
         <v>0</v>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>102048540</v>
+        <v>-26709684</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -7298,50 +7276,48 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS35" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
@@ -7350,134 +7326,134 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.279999999999999</v>
+        <v>-10.96</v>
       </c>
       <c r="D36" t="n">
-        <v>1443.765</v>
+        <v>2129.061</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.81</v>
+        <v>15.05</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>6.12</v>
+        <v>-5.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-14.08</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>-4</v>
+        <v>-22</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>358920</v>
+        <v>411887948</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -7492,50 +7468,48 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS36" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
@@ -7544,84 +7518,84 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2.75</v>
+        <v>1.21</v>
       </c>
       <c r="D37" t="n">
-        <v>687.221</v>
+        <v>19775.988</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>8.92</v>
+        <v>16.7</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>14.64</v>
+        <v>-16.78</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -7631,27 +7605,27 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>40</v>
+        <v>-99</v>
       </c>
       <c r="X37" t="n">
-        <v>-38</v>
+        <v>-3</v>
       </c>
       <c r="Y37" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7663,15 +7637,15 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-16041154</v>
+        <v>240959752</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -7686,50 +7660,48 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>33.71</v>
-      </c>
+        <v>3.98</v>
+      </c>
+      <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-0.99%</t>
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台玻-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS37" t="n">
-        <v>14.4</v>
+        <v>16.66</v>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
@@ -7743,14 +7715,14 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7759,50 +7731,50 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="D38" t="n">
-        <v>8815.002</v>
+        <v>6626.844</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.05</v>
+        <v>16.5</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-15.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>8815</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7810,42 +7782,42 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-99</v>
       </c>
       <c r="X38" t="n">
-        <v>-42</v>
+        <v>-20</v>
       </c>
       <c r="Y38" t="n">
-        <v>-37</v>
+        <v>-11</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7857,11 +7829,11 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>328719682</v>
+        <v>-270630970</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7898,11 +7870,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>44.48</v>
+        <v>46.69</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>40858</t>
+          <t>41585</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7934,1542 +7906,6 @@
         </is>
       </c>
       <c r="AV38" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10815.79</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-1.68</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>14.26</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>-0.96</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>-0.92</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-0.47</t>
-        </is>
-      </c>
-      <c r="W39" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X39" t="n">
-        <v>-19</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>-37</v>
-      </c>
-      <c r="Z39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="AE39" t="n">
-        <v>-83220364</v>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ39" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN39" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS39" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU39" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV39" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4425.193</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>-3.49</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>-1.41</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>-0.86</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="W40" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-11</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>-37</v>
-      </c>
-      <c r="Z40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="AE40" t="n">
-        <v>-559081863</v>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ40" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN40" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS40" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU40" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV40" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>-10.11</v>
-      </c>
-      <c r="D41" t="n">
-        <v>23042.602</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-9.43</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>-3.35</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>30.37</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>-2.21</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="W41" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X41" t="n">
-        <v>-10</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>-35</v>
-      </c>
-      <c r="Z41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="AE41" t="n">
-        <v>-650351029</v>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ41" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN41" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS41" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU41" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV41" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>-11.03</v>
-      </c>
-      <c r="D42" t="n">
-        <v>24168.113</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-6.27</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>-2.09</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>-3.42</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="W42" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>-34</v>
-      </c>
-      <c r="Z42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="AE42" t="n">
-        <v>-26709684</v>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ42" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN42" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS42" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT42" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU42" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV42" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>-10.96</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2129.061</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>-1.36</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>-7.12</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>-14.08</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="W43" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X43" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>-22</v>
-      </c>
-      <c r="Z43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="AE43" t="n">
-        <v>411887948</v>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ43" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN43" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP43" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS43" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT43" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU43" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV43" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D44" t="n">
-        <v>19775.988</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-3.25</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-1.13</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>-18.86</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>-3.14</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="W44" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X44" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>-12</v>
-      </c>
-      <c r="Z44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="AE44" t="n">
-        <v>240959752</v>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ44" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN44" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP44" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS44" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT44" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU44" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV44" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6626.844</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>-17.44</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>-1.91</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="W45" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X45" t="n">
-        <v>-20</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>-11</v>
-      </c>
-      <c r="Z45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="AE45" t="n">
-        <v>-270630970</v>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ45" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN45" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS45" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT45" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU45" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV45" t="inlineStr">
-        <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-5.44</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12503.701</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-3.11</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>-1.68</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>-14.23</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>8815</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W46" t="n">
-        <v>-99</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AE46" t="n">
-        <v>-212956232</v>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>台玻</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ46" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="AN46" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>40858</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
-          <t>商品銷售100.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>台玻-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右下</t>
-        </is>
-      </c>
-      <c r="AS46" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU46" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV46" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV38"/>
+  <dimension ref="A1:AV46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,39 +676,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>1817</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.04900000000001</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -717,12 +725,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -730,54 +738,58 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>90</v>
+      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-6442165</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -796,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.5</v>
+        <v>10.32</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -816,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -835,7 +847,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS2" t="n">
@@ -865,117 +877,117 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.28</v>
+        <v>0.66</v>
       </c>
       <c r="D3" t="n">
-        <v>3570.343</v>
+        <v>98.401</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>17.65</v>
+        <v>45.55</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.67</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>72</v>
+        <v>-15</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>79667719</v>
+        <v>-10074248</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -990,50 +1002,50 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS3" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
@@ -1047,7 +1059,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -1059,117 +1071,117 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-1.74</v>
       </c>
       <c r="D4" t="n">
-        <v>5012.004</v>
+        <v>173.632</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.75</v>
+        <v>45.25</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.1</v>
+        <v>-1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>74</v>
+        <v>-21</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>27433204</v>
+        <v>-2201719</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1184,50 +1196,50 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS4" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -1236,12 +1248,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -1253,97 +1265,97 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.49</v>
+        <v>-1.17</v>
       </c>
       <c r="D5" t="n">
-        <v>6367.384</v>
+        <v>144.515</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.75</v>
+        <v>46.05</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>-2.79</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>-18</v>
       </c>
       <c r="Y5" t="n">
-        <v>80</v>
+        <v>-24</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1355,15 +1367,15 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>30851799</v>
+        <v>-7324501</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1378,50 +1390,50 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS5" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
@@ -1430,12 +1442,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -1447,97 +1459,97 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.85</v>
+        <v>9.25</v>
       </c>
       <c r="D6" t="n">
-        <v>654.096</v>
+        <v>266.938</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.25</v>
+        <v>46.6</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>13.6</v>
+        <v>-4.02</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>-69</v>
       </c>
       <c r="Y6" t="n">
-        <v>91</v>
+        <v>-26</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1549,15 +1561,15 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-160677055</v>
+        <v>8403358</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1572,50 +1584,50 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
@@ -1629,7 +1641,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -1641,97 +1653,97 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-9.77</v>
+        <v>-3.44</v>
       </c>
       <c r="D7" t="n">
-        <v>5645.051</v>
+        <v>304.601</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.9</v>
+        <v>42.45</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>21.25</v>
+        <v>5.25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X7" t="n">
-        <v>44</v>
+        <v>-80</v>
       </c>
       <c r="Y7" t="n">
-        <v>91</v>
+        <v>-29</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1743,15 +1755,15 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-179409674</v>
+        <v>-26145201</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1766,50 +1778,50 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS7" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
@@ -1823,7 +1835,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -1835,117 +1847,117 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-9.42</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="n">
-        <v>5532.753</v>
+        <v>208.437</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>15.4</v>
+        <v>43.95</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>12.75</v>
+        <v>1.9</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X8" t="n">
-        <v>33</v>
+        <v>-126</v>
       </c>
       <c r="Y8" t="n">
-        <v>91</v>
+        <v>-32</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-321329733</v>
+        <v>-42789498</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1960,50 +1972,50 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS8" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
@@ -2017,7 +2029,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -2029,62 +2041,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-10.98</v>
+        <v>-10.35</v>
       </c>
       <c r="D9" t="n">
-        <v>519.745</v>
+        <v>511.241</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16.85</v>
+        <v>43.3</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.53</v>
+        <v>3.35</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2094,32 +2106,32 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X9" t="n">
-        <v>64</v>
+        <v>-131</v>
       </c>
       <c r="Y9" t="n">
-        <v>91</v>
+        <v>-35</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2127,27 +2139,19 @@
       <c r="AA9" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>23647293</v>
+        <v>-48356955</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2162,50 +2166,50 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS9" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
@@ -2219,7 +2223,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
@@ -2231,97 +2235,97 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.36</v>
+        <v>-1.46</v>
       </c>
       <c r="D10" t="n">
-        <v>11896.924</v>
+        <v>618.573</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.7</v>
+        <v>47.75</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-5.95</v>
+        <v>-6.58</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>66</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>-111</v>
       </c>
       <c r="Y10" t="n">
-        <v>91</v>
+        <v>-42</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
@@ -2329,27 +2333,19 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-116718237</v>
+        <v>-54414128</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2364,50 +2360,50 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>92.89</v>
+        <v>10.32</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS10" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
@@ -2416,19 +2412,19 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2437,93 +2433,93 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.76</v>
+        <v>0.57</v>
       </c>
       <c r="D11" t="n">
-        <v>13621.715</v>
+        <v>11897.927</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.15</v>
+        <v>17.75</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X11" t="n">
-        <v>72</v>
+        <v>-21</v>
       </c>
       <c r="Y11" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,23 +2527,15 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>493991956</v>
+        <v>193311762</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2573,7 +2561,7 @@
         <v>4.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>92.89</v>
+        <v>93.42</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2586,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2605,7 +2593,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS11" t="n">
@@ -2618,7 +2606,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2635,97 +2623,97 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.52</v>
+        <v>5.28</v>
       </c>
       <c r="D12" t="n">
-        <v>433.824</v>
+        <v>3570.343</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>15.75</v>
+        <v>17.65</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X12" t="n">
-        <v>-47</v>
+        <v>-18</v>
       </c>
       <c r="Y12" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2737,15 +2725,15 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>30511598</v>
+        <v>79667719</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2760,50 +2748,50 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
@@ -2817,7 +2805,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -2829,97 +2817,97 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>781.769</v>
+        <v>5012.004</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J13" t="n">
-        <v>15.05</v>
+        <v>16.75</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.44</v>
+        <v>5.63</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>-3.69</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>-0.35</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-1.29</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X13" t="n">
-        <v>-65</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
@@ -2931,15 +2919,15 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>29128757</v>
+        <v>27433204</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2954,50 +2942,50 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
@@ -3006,12 +2994,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3023,97 +3011,97 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.08</v>
+        <v>9.49</v>
       </c>
       <c r="D14" t="n">
-        <v>812.1319999999999</v>
+        <v>6367.384</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J14" t="n">
-        <v>14.7</v>
+        <v>16.75</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.67</v>
+        <v>5.63</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X14" t="n">
-        <v>-46</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3125,15 +3113,15 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-9446945</v>
+        <v>30851799</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3148,50 +3136,50 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -3200,12 +3188,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3217,97 +3205,97 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.029999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="D15" t="n">
-        <v>372.65</v>
+        <v>654.096</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>14.4</v>
+        <v>15.25</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>8.57</v>
+        <v>14.08</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X15" t="n">
-        <v>-48</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
@@ -3319,15 +3307,15 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-55882659</v>
+        <v>-160677055</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3342,50 +3330,50 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -3399,7 +3387,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3411,97 +3399,97 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-6.81</v>
+        <v>-9.77</v>
       </c>
       <c r="D16" t="n">
-        <v>1997.882</v>
+        <v>5645.051</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J16" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>16.83</v>
+        <v>21.69</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X16" t="n">
-        <v>-32</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3513,15 +3501,15 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-64334416</v>
+        <v>-179409674</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3536,50 +3524,50 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
@@ -3593,7 +3581,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3605,117 +3593,117 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-10.36</v>
+        <v>-9.42</v>
       </c>
       <c r="D17" t="n">
-        <v>2457.509</v>
+        <v>5532.753</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J17" t="n">
-        <v>14.05</v>
+        <v>15.4</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>10.79</v>
+        <v>13.24</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X17" t="n">
-        <v>-52</v>
+        <v>33</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-29354757</v>
+        <v>-321329733</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3730,50 +3718,50 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
@@ -3787,7 +3775,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3799,14 +3787,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-10.97</v>
+        <v>-10.98</v>
       </c>
       <c r="D18" t="n">
-        <v>199.531</v>
+        <v>519.745</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
@@ -3816,45 +3804,45 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.5</v>
+        <v>16.85</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.59</v>
+        <v>5.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3864,32 +3852,32 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X18" t="n">
-        <v>-31</v>
+        <v>64</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3897,19 +3885,27 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>19634077</v>
+        <v>23647293</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3924,50 +3920,50 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
@@ -3981,7 +3977,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3993,97 +3989,97 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.29</v>
+        <v>-2.36</v>
       </c>
       <c r="D19" t="n">
-        <v>481.077</v>
+        <v>11896.924</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.2</v>
+        <v>18.7</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-9.210000000000001</v>
+        <v>-5.35</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="X19" t="n">
-        <v>-37</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
@@ -4091,19 +4087,27 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-10088662</v>
+        <v>-116718237</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4118,50 +4122,50 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>47.73</v>
+        <v>93.42</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
@@ -4170,19 +4174,19 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4191,93 +4195,93 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.17</v>
+        <v>-0.62</v>
       </c>
       <c r="D20" t="n">
-        <v>845.221</v>
+        <v>446.862</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>17.15</v>
+        <v>15.65</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>-8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-50</v>
       </c>
       <c r="X20" t="n">
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4289,11 +4293,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-34000525</v>
+        <v>11532248</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4312,14 +4316,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>3.85</v>
       </c>
       <c r="AK20" t="n">
-        <v>47.73</v>
+        <v>47.42</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4332,11 +4336,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4381,125 +4385,117 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.66</v>
+        <v>4.52</v>
       </c>
       <c r="D21" t="n">
-        <v>5797.142</v>
+        <v>433.824</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.05</v>
+        <v>15.75</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.64</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>-47</v>
       </c>
       <c r="Y21" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-15056952</v>
+        <v>30511598</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -4514,50 +4510,50 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK21" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
@@ -4566,12 +4562,12 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -4583,125 +4579,117 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1.38</v>
+        <v>2.36</v>
       </c>
       <c r="D22" t="n">
-        <v>3572.959</v>
+        <v>781.769</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.45</v>
+        <v>15.05</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>5.43</v>
+        <v>3.83</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X22" t="n">
-        <v>-126</v>
+        <v>-65</v>
       </c>
       <c r="Y22" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>39883278</v>
+        <v>29128757</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4716,50 +4704,50 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK22" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
@@ -4773,7 +4761,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -4785,97 +4773,97 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2.83</v>
+        <v>2.08</v>
       </c>
       <c r="D23" t="n">
-        <v>3839.552</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10.6</v>
+        <v>14.7</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>4.07</v>
+        <v>6.07</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X23" t="n">
-        <v>-7</v>
+        <v>-46</v>
       </c>
       <c r="Y23" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4883,27 +4871,19 @@
       <c r="AA23" t="n">
         <v>0</v>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-40761602</v>
+        <v>-9446945</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4918,50 +4898,50 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK23" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
@@ -4975,7 +4955,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -4987,97 +4967,97 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.91</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>10757.929</v>
+        <v>372.65</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>10.9</v>
+        <v>14.4</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>7.99</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X24" t="n">
-        <v>151</v>
+        <v>-48</v>
       </c>
       <c r="Y24" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5085,27 +5065,19 @@
       <c r="AA24" t="n">
         <v>0</v>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-285894458</v>
+        <v>-55882659</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -5120,50 +5092,50 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
@@ -5172,12 +5144,12 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -5189,125 +5161,117 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-5.94</v>
+        <v>-6.81</v>
       </c>
       <c r="D25" t="n">
-        <v>11256.055</v>
+        <v>1997.882</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.25</v>
+        <v>13.1</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>7.24</v>
+        <v>16.29</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X25" t="n">
-        <v>175</v>
+        <v>-32</v>
       </c>
       <c r="Y25" t="n">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-263980338</v>
+        <v>-64334416</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5322,50 +5286,50 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
@@ -5379,7 +5343,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -5391,125 +5355,117 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.45</v>
+        <v>-10.36</v>
       </c>
       <c r="D26" t="n">
-        <v>25281.807</v>
+        <v>2457.509</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10.9</v>
+        <v>14.05</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>10.22</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X26" t="n">
-        <v>191</v>
+        <v>-52</v>
       </c>
       <c r="Y26" t="n">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-51261423</v>
+        <v>-29354757</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -5524,50 +5480,50 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
@@ -5576,12 +5532,12 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -5593,125 +5549,117 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.19</v>
+        <v>-10.97</v>
       </c>
       <c r="D27" t="n">
-        <v>13730.019</v>
+        <v>199.531</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.95</v>
+        <v>15.5</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>0.9</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>5797</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>0.47</v>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X27" t="n">
-        <v>295</v>
+        <v>-31</v>
       </c>
       <c r="Y27" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>248539095</v>
+        <v>19634077</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -5726,50 +5674,50 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS27" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
@@ -5778,12 +5726,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
@@ -5795,97 +5743,97 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.12</v>
+        <v>0.29</v>
       </c>
       <c r="D28" t="n">
-        <v>8980.346</v>
+        <v>481.077</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>10.55</v>
+        <v>17.2</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>4.52</v>
+        <v>-9.9</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>447</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="X28" t="n">
-        <v>173</v>
+        <v>-37</v>
       </c>
       <c r="Y28" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5893,27 +5841,19 @@
       <c r="AA28" t="n">
         <v>0</v>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>102048540</v>
+        <v>-10088662</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5928,50 +5868,50 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>35.65</v>
+        <v>47.42</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS28" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
@@ -5980,19 +5920,19 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6001,109 +5941,117 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.279999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="D29" t="n">
-        <v>1443.765</v>
+        <v>5193.331</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.81</v>
+        <v>11.2</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>11.22</v>
+        <v>0</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>65</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4</v>
+        <v>91</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>358920</v>
+        <v>83328965</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6122,14 +6070,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>2.22</v>
       </c>
       <c r="AK29" t="n">
-        <v>35.65</v>
+        <v>36.13</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6142,11 +6090,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6191,117 +6139,125 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.75</v>
+        <v>5.66</v>
       </c>
       <c r="D30" t="n">
-        <v>8197.369000000001</v>
+        <v>5797.142</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.3</v>
+        <v>11.05</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X30" t="n">
-        <v>-37</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="n">
-        <v>-35</v>
+        <v>90</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>387221083</v>
+        <v>-15056952</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -6316,48 +6272,50 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK30" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS30" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
@@ -6366,12 +6324,12 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -6383,117 +6341,125 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.53</v>
+        <v>-1.38</v>
       </c>
       <c r="D31" t="n">
-        <v>8815.002</v>
+        <v>3572.959</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.05</v>
+        <v>10.45</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.75</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X31" t="n">
-        <v>-42</v>
+        <v>-126</v>
       </c>
       <c r="Y31" t="n">
-        <v>-37</v>
+        <v>90</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>328719682</v>
+        <v>39883278</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -6508,48 +6474,50 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK31" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS31" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
@@ -6563,7 +6531,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -6575,97 +6543,97 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.3</v>
+        <v>-2.83</v>
       </c>
       <c r="D32" t="n">
-        <v>10815.79</v>
+        <v>3839.552</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J32" t="n">
-        <v>13.7</v>
+        <v>10.6</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>4.2</v>
+        <v>5.36</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X32" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="Y32" t="n">
-        <v>-37</v>
+        <v>89</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
@@ -6673,19 +6641,27 @@
       <c r="AA32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-83220364</v>
+        <v>-40761602</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -6700,48 +6676,50 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK32" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS32" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
@@ -6755,7 +6733,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -6767,97 +6745,97 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.960000000000001</v>
+        <v>5.91</v>
       </c>
       <c r="D33" t="n">
-        <v>4425.193</v>
+        <v>10757.929</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J33" t="n">
-        <v>13.4</v>
+        <v>10.9</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>6.29</v>
+        <v>2.68</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X33" t="n">
-        <v>-11</v>
+        <v>151</v>
       </c>
       <c r="Y33" t="n">
-        <v>-37</v>
+        <v>88</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6865,19 +6843,27 @@
       <c r="AA33" t="n">
         <v>0</v>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-559081863</v>
+        <v>-285894458</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -6892,48 +6878,50 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK33" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS33" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
@@ -6942,12 +6930,12 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -6959,117 +6947,125 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-10.11</v>
+        <v>-5.94</v>
       </c>
       <c r="D34" t="n">
-        <v>23042.602</v>
+        <v>11256.055</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J34" t="n">
-        <v>12.2</v>
+        <v>10.25</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>14.69</v>
+        <v>8.48</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X34" t="n">
-        <v>-10</v>
+        <v>175</v>
       </c>
       <c r="Y34" t="n">
-        <v>-35</v>
+        <v>86</v>
       </c>
       <c r="Z34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-650351029</v>
+        <v>-263980338</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -7084,48 +7080,50 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK34" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS34" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
@@ -7139,7 +7137,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -7151,117 +7149,125 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-11.03</v>
+        <v>-0.45</v>
       </c>
       <c r="D35" t="n">
-        <v>24168.113</v>
+        <v>25281.807</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J35" t="n">
-        <v>13.55</v>
+        <v>10.9</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>5.24</v>
+        <v>2.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>-3.42</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
       <c r="W35" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X35" t="n">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="Y35" t="n">
-        <v>-34</v>
+        <v>83</v>
       </c>
       <c r="Z35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-26709684</v>
+        <v>-51261423</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -7276,48 +7282,50 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK35" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS35" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
@@ -7326,12 +7334,12 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -7343,117 +7351,125 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-10.96</v>
+        <v>4.19</v>
       </c>
       <c r="D36" t="n">
-        <v>2129.061</v>
+        <v>13730.019</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>15.05</v>
+        <v>10.95</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-5.24</v>
+        <v>2.23</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-14.08</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="Y36" t="n">
-        <v>-22</v>
+        <v>69</v>
       </c>
       <c r="Z36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>411887948</v>
+        <v>248539095</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -7468,48 +7484,50 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK36" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS36" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
@@ -7518,12 +7536,12 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -7535,97 +7553,97 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.21</v>
+        <v>7.12</v>
       </c>
       <c r="D37" t="n">
-        <v>19775.988</v>
+        <v>8980.346</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>35.52</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.7</v>
+        <v>10.55</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-16.78</v>
+        <v>5.8</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>-3.14</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="W37" t="n">
-        <v>-99</v>
+        <v>65</v>
       </c>
       <c r="X37" t="n">
-        <v>-3</v>
+        <v>173</v>
       </c>
       <c r="Y37" t="n">
-        <v>-12</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7633,19 +7651,27 @@
       <c r="AA37" t="n">
         <v>0</v>
       </c>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>240959752</v>
+        <v>102048540</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -7660,48 +7686,50 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK37" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>36.13</v>
+      </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS37" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
@@ -7710,19 +7738,19 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7731,50 +7759,50 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.8</v>
+        <v>-2.8</v>
       </c>
       <c r="D38" t="n">
-        <v>6626.844</v>
+        <v>10072.532</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16.5</v>
+        <v>13.9</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>-15.38</v>
+        <v>0</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>10073</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7782,42 +7810,42 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-99</v>
       </c>
       <c r="X38" t="n">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="Y38" t="n">
-        <v>-11</v>
+        <v>-40</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7829,11 +7857,11 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-270630970</v>
+        <v>99937211</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7870,11 +7898,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>46.69</v>
+        <v>46.82</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>41585</t>
+          <t>40422</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7906,6 +7934,1542 @@
         </is>
       </c>
       <c r="AV38" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8197.369000000001</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-37</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-35</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>-35</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>387221083</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ39" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN39" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8815.002</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>-0.56</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-42</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-37</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
+        <v>328719682</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ40" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN40" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10815.79</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>-0.47</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-37</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
+        <v>-83220364</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ41" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN41" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4425.193</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-3.49</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-37</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="AE42" t="n">
+        <v>-559081863</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ42" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN42" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS42" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-10.11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23042.602</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-9.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-3.35</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>-2.21</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-35</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>-35</t>
+        </is>
+      </c>
+      <c r="AE43" t="n">
+        <v>-650351029</v>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ43" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN43" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS43" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-11.03</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24168.113</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-6.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-2.09</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-34</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
+      <c r="AE44" t="n">
+        <v>-26709684</v>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ44" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN44" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS44" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-10.96</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2129.061</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>-14.08</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X45" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-22</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
+        <v>411887948</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ45" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN45" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS45" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19775.988</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-3.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>-20.14</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
+        <v>240959752</v>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ46" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN46" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS46" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.64</v>
+        <v>-0.44</v>
       </c>
       <c r="D2" t="n">
-        <v>66.04900000000001</v>
+        <v>32.528</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -725,12 +725,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -738,39 +738,39 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="W2" t="n">
         <v>90</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="n">
         <v>-3</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-6442165</v>
+        <v>57389</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,36 +881,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.66</v>
+        <v>-1.64</v>
       </c>
       <c r="D3" t="n">
-        <v>98.401</v>
+        <v>66.04900000000001</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45.55</v>
+        <v>44.8</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-1.67</v>
+        <v>-0.45</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -919,12 +919,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -932,42 +932,42 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-10074248</v>
+        <v>-6442165</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,36 +1075,36 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.74</v>
+        <v>0.66</v>
       </c>
       <c r="D4" t="n">
-        <v>173.632</v>
+        <v>98.401</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.25</v>
+        <v>45.55</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-1</v>
+        <v>-2.13</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1151,33 +1151,33 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>90</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-2201719</v>
+        <v>-10074248</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,36 +1269,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="D5" t="n">
-        <v>144.515</v>
+        <v>173.632</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>46.05</v>
+        <v>45.25</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-2.79</v>
+        <v>-1.46</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1320,58 +1320,58 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>90</v>
       </c>
       <c r="X5" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-7324501</v>
+        <v>-2201719</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,36 +1463,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D6" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-4.02</v>
+        <v>-3.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1524,32 +1524,32 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>90</v>
       </c>
       <c r="X6" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y6" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,36 +1657,36 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.44</v>
+        <v>9.25</v>
       </c>
       <c r="D7" t="n">
-        <v>304.601</v>
+        <v>266.938</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>42.45</v>
+        <v>46.6</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.25</v>
+        <v>-4.48</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,42 +1708,42 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>90</v>
       </c>
       <c r="X7" t="n">
-        <v>-80</v>
+        <v>-69</v>
       </c>
       <c r="Y7" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-26145201</v>
+        <v>8403358</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>-3.44</v>
       </c>
       <c r="D8" t="n">
-        <v>208.437</v>
+        <v>304.601</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>43.95</v>
+        <v>42.45</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.9</v>
+        <v>4.82</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1889,12 +1889,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,42 +1902,42 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>90</v>
       </c>
       <c r="X8" t="n">
-        <v>-126</v>
+        <v>-80</v>
       </c>
       <c r="Y8" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-42789498</v>
+        <v>-26145201</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,36 +2045,36 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-10.35</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>511.241</v>
+        <v>208.437</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.3</v>
+        <v>43.95</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.35</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>90</v>
       </c>
       <c r="X9" t="n">
-        <v>-131</v>
+        <v>-126</v>
       </c>
       <c r="Y9" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-48356955</v>
+        <v>-42789498</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,36 +2239,36 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.46</v>
+        <v>-10.35</v>
       </c>
       <c r="D10" t="n">
-        <v>618.573</v>
+        <v>511.241</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.75</v>
+        <v>43.3</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-6.58</v>
+        <v>2.91</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2290,42 +2290,42 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>90</v>
       </c>
       <c r="X10" t="n">
-        <v>-111</v>
+        <v>-131</v>
       </c>
       <c r="Y10" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
@@ -2337,11 +2337,11 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-54414128</v>
+        <v>-48356955</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="D11" t="n">
-        <v>11897.927</v>
+        <v>8270.969999999999</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.75</v>
+        <v>17.95</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2466,60 +2466,60 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>-40</v>
       </c>
       <c r="X11" t="n">
-        <v>-21</v>
+        <v>-2</v>
       </c>
       <c r="Y11" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>193311762</v>
+        <v>429986747</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>4.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,45 +2627,45 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.28</v>
+        <v>0.57</v>
       </c>
       <c r="D12" t="n">
-        <v>3570.343</v>
+        <v>11897.927</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>35.40</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.65</v>
+        <v>17.75</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2674,62 +2674,62 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>-40</v>
       </c>
       <c r="X12" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="Y12" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>79667719</v>
+        <v>193311762</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>4.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,109 +2821,109 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="D13" t="n">
-        <v>5012.004</v>
+        <v>3570.343</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="J13" t="n">
-        <v>16.75</v>
+        <v>17.65</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.63</v>
+        <v>1.67</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-3.69</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-0.08</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>-40</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="Y13" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>27433204</v>
+        <v>79667719</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,45 +3015,45 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.49</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6367.384</v>
+        <v>5012.004</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="J14" t="n">
         <v>16.75</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.63</v>
+        <v>6.69</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3062,11 +3062,11 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3081,27 +3081,27 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>-40</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3113,11 +3113,11 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>30851799</v>
+        <v>27433204</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,93 +3209,93 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.85</v>
+        <v>9.49</v>
       </c>
       <c r="D15" t="n">
-        <v>654.096</v>
+        <v>6367.384</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J15" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>14.08</v>
+        <v>6.69</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>-40</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
@@ -3307,11 +3307,11 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-160677055</v>
+        <v>30851799</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,90 +3403,90 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-9.77</v>
+        <v>8.85</v>
       </c>
       <c r="D16" t="n">
-        <v>5645.051</v>
+        <v>654.096</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>13.9</v>
+        <v>15.25</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>21.69</v>
+        <v>15.04</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>-40</v>
       </c>
       <c r="X16" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>91</v>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-179409674</v>
+        <v>-160677055</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,90 +3597,90 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-9.42</v>
+        <v>-9.77</v>
       </c>
       <c r="D17" t="n">
-        <v>5532.753</v>
+        <v>5645.051</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="J17" t="n">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>13.24</v>
+        <v>22.56</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>-40</v>
       </c>
       <c r="X17" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="n">
         <v>91</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-321329733</v>
+        <v>-179409674</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,90 +3791,90 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-10.98</v>
+        <v>-9.42</v>
       </c>
       <c r="D18" t="n">
-        <v>519.745</v>
+        <v>5532.753</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J18" t="n">
-        <v>16.85</v>
+        <v>15.4</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>5.07</v>
+        <v>14.21</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>-40</v>
       </c>
       <c r="X18" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="Y18" t="n">
         <v>91</v>
@@ -3883,25 +3883,17 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>23647293</v>
+        <v>-321329733</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3920,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3940,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3984,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3993,90 +3985,90 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2.36</v>
+        <v>-10.98</v>
       </c>
       <c r="D19" t="n">
-        <v>11896.924</v>
+        <v>519.745</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.7</v>
+        <v>16.85</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-5.35</v>
+        <v>6.13</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>870</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>8271</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W19" t="n">
         <v>-40</v>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Y19" t="n">
         <v>91</v>
@@ -4103,7 +4095,7 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-116718237</v>
+        <v>23647293</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4122,14 +4114,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>93.42</v>
+        <v>94.47</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4142,11 +4134,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4174,7 +4166,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
@@ -4186,7 +4178,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4195,25 +4187,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>446.862</v>
+        <v>283.747</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -4228,12 +4220,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4246,27 +4238,27 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -4278,10 +4270,10 @@
         <v>-50</v>
       </c>
       <c r="X20" t="n">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4293,11 +4285,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>11532248</v>
+        <v>-4736597</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4336,7 +4328,7 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
@@ -4380,7 +4372,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4389,50 +4381,50 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.52</v>
+        <v>-0.62</v>
       </c>
       <c r="D21" t="n">
-        <v>433.824</v>
+        <v>446.862</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.75</v>
+        <v>15.65</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -4440,58 +4432,58 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-50</v>
       </c>
       <c r="X21" t="n">
-        <v>-47</v>
+        <v>-23</v>
       </c>
       <c r="Y21" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>30511598</v>
+        <v>11532248</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4530,7 +4522,7 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
@@ -4574,7 +4566,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4583,50 +4575,50 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.36</v>
+        <v>4.52</v>
       </c>
       <c r="D22" t="n">
-        <v>781.769</v>
+        <v>433.824</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.05</v>
+        <v>15.75</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>3.83</v>
+        <v>-0.64</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -4634,58 +4626,58 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-50</v>
       </c>
       <c r="X22" t="n">
-        <v>-65</v>
+        <v>-47</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>29128757</v>
+        <v>30511598</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4724,7 +4716,7 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
@@ -4768,7 +4760,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4777,50 +4769,50 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="D23" t="n">
-        <v>812.1319999999999</v>
+        <v>781.769</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.7</v>
+        <v>15.05</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>6.07</v>
+        <v>3.83</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -4828,12 +4820,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4843,27 +4835,27 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-50</v>
       </c>
       <c r="X23" t="n">
-        <v>-46</v>
+        <v>-65</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4875,11 +4867,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-9446945</v>
+        <v>29128757</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4918,7 +4910,7 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
@@ -4962,7 +4954,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4971,50 +4963,50 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="D24" t="n">
-        <v>372.65</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>7.99</v>
+        <v>6.07</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -5022,42 +5014,42 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-50</v>
       </c>
       <c r="X24" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5069,11 +5061,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-55882659</v>
+        <v>-9446945</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5112,7 +5104,7 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
@@ -5156,7 +5148,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5165,50 +5157,50 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-6.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1997.882</v>
+        <v>372.65</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>13.1</v>
+        <v>14.4</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>16.29</v>
+        <v>7.99</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -5216,42 +5208,42 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-50</v>
       </c>
       <c r="X25" t="n">
-        <v>-32</v>
+        <v>-48</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
@@ -5263,11 +5255,11 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-64334416</v>
+        <v>-55882659</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5306,7 +5298,7 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
@@ -5350,7 +5342,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5359,50 +5351,50 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-10.36</v>
+        <v>-6.81</v>
       </c>
       <c r="D26" t="n">
-        <v>2457.509</v>
+        <v>1997.882</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>14.05</v>
+        <v>13.1</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>10.22</v>
+        <v>16.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -5410,42 +5402,42 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-50</v>
       </c>
       <c r="X26" t="n">
-        <v>-52</v>
+        <v>-32</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5457,11 +5449,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-29354757</v>
+        <v>-64334416</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5500,7 +5492,7 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
@@ -5544,7 +5536,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5553,50 +5545,50 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-10.97</v>
+        <v>-10.36</v>
       </c>
       <c r="D27" t="n">
-        <v>199.531</v>
+        <v>2457.509</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.5</v>
+        <v>14.05</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.96</v>
+        <v>10.22</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -5604,42 +5596,42 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-50</v>
       </c>
       <c r="X27" t="n">
-        <v>-31</v>
+        <v>-52</v>
       </c>
       <c r="Y27" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5651,11 +5643,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>19634077</v>
+        <v>-29354757</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5694,7 +5686,7 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
@@ -5738,7 +5730,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5747,50 +5739,50 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.29</v>
+        <v>-10.97</v>
       </c>
       <c r="D28" t="n">
-        <v>481.077</v>
+        <v>199.531</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-9.9</v>
+        <v>0.96</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>284</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -5798,42 +5790,42 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>-0.69</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-50</v>
       </c>
       <c r="X28" t="n">
-        <v>-37</v>
+        <v>-31</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5845,11 +5837,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-10088662</v>
+        <v>19634077</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5888,7 +5880,7 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
@@ -5932,7 +5924,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5941,32 +5933,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="D29" t="n">
-        <v>5193.331</v>
+        <v>3793.099</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
@@ -5974,12 +5966,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5992,7 +5984,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6002,32 +5994,32 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>65</v>
       </c>
       <c r="X29" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
@@ -6042,16 +6034,16 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>83328965</v>
+        <v>163874500</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6070,14 +6062,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>2.22</v>
       </c>
       <c r="AK29" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6090,11 +6082,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6134,7 +6126,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6143,50 +6135,50 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.66</v>
+        <v>1.35</v>
       </c>
       <c r="D30" t="n">
-        <v>5797.142</v>
+        <v>5193.331</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>0.44</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -6194,48 +6186,48 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>65</v>
       </c>
       <c r="X30" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y30" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -6244,16 +6236,16 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-15056952</v>
+        <v>83328965</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6272,14 +6264,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>2.22</v>
       </c>
       <c r="AK30" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6292,11 +6284,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6336,7 +6328,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6345,50 +6337,50 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.38</v>
+        <v>5.66</v>
       </c>
       <c r="D31" t="n">
-        <v>3572.959</v>
+        <v>5797.142</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10.45</v>
+        <v>11.05</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>1.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -6396,39 +6388,39 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>65</v>
       </c>
       <c r="X31" t="n">
-        <v>-126</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>90</v>
@@ -6437,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -6446,7 +6438,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -6455,7 +6447,7 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>39883278</v>
+        <v>-15056952</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6474,14 +6466,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>2.22</v>
       </c>
       <c r="AK31" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6494,11 +6486,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6526,7 +6518,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6538,7 +6530,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6547,50 +6539,50 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-2.83</v>
+        <v>-1.38</v>
       </c>
       <c r="D32" t="n">
-        <v>3839.552</v>
+        <v>3572.959</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>5.36</v>
+        <v>7.11</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -6598,22 +6590,22 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -6623,23 +6615,23 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>65</v>
       </c>
       <c r="X32" t="n">
-        <v>-7</v>
+        <v>-126</v>
       </c>
       <c r="Y32" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -6648,16 +6640,16 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-40761602</v>
+        <v>39883278</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6676,14 +6668,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>2.22</v>
       </c>
       <c r="AK32" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6696,11 +6688,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6740,7 +6732,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6749,50 +6741,50 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.91</v>
+        <v>-2.83</v>
       </c>
       <c r="D33" t="n">
-        <v>10757.929</v>
+        <v>3839.552</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J33" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>5.78</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -6800,42 +6792,42 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>65</v>
       </c>
       <c r="X33" t="n">
-        <v>151</v>
+        <v>-7</v>
       </c>
       <c r="Y33" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6850,16 +6842,16 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-285894458</v>
+        <v>-40761602</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6878,14 +6870,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>2.22</v>
       </c>
       <c r="AK33" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6898,11 +6890,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6930,7 +6922,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6942,7 +6934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6951,50 +6943,50 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-5.94</v>
+        <v>5.91</v>
       </c>
       <c r="D34" t="n">
-        <v>11256.055</v>
+        <v>10757.929</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="J34" t="n">
-        <v>10.25</v>
+        <v>10.9</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>8.48</v>
+        <v>3.11</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -7002,45 +6994,45 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>65</v>
       </c>
       <c r="X34" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Y34" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -7052,16 +7044,16 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-263980338</v>
+        <v>-285894458</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7080,14 +7072,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>2.22</v>
       </c>
       <c r="AK34" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7100,11 +7092,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7132,7 +7124,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7144,7 +7136,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7153,50 +7145,50 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.45</v>
+        <v>-5.94</v>
       </c>
       <c r="D35" t="n">
-        <v>25281.807</v>
+        <v>11256.055</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="J35" t="n">
-        <v>10.9</v>
+        <v>10.25</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>2.68</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -7204,22 +7196,22 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -7229,17 +7221,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>65</v>
       </c>
       <c r="X35" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Y35" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z35" t="b">
         <v>1</v>
@@ -7254,16 +7246,16 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-51261423</v>
+        <v>-263980338</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7282,14 +7274,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7302,11 +7294,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7334,7 +7326,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7346,7 +7338,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7355,45 +7347,45 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.19</v>
+        <v>-0.45</v>
       </c>
       <c r="D36" t="n">
-        <v>13730.019</v>
+        <v>25281.807</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J36" t="n">
-        <v>10.95</v>
+        <v>10.9</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>2.23</v>
+        <v>3.11</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7406,48 +7398,48 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>65</v>
       </c>
       <c r="X36" t="n">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="Y36" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="b">
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -7456,16 +7448,16 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>248539095</v>
+        <v>-51261423</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7484,14 +7476,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7504,11 +7496,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7548,7 +7540,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7557,50 +7549,50 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7.12</v>
+        <v>4.19</v>
       </c>
       <c r="D37" t="n">
-        <v>8980.346</v>
+        <v>13730.019</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>10.55</v>
+        <v>10.95</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>5.8</v>
+        <v>2.67</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -7608,48 +7600,48 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>65</v>
       </c>
       <c r="X37" t="n">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="Y37" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Z37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -7658,16 +7650,16 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>102048540</v>
+        <v>248539095</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7686,14 +7678,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>36.13</v>
+        <v>36.29</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7706,11 +7698,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7750,7 +7742,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7759,32 +7751,32 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-2.8</v>
+        <v>0.73</v>
       </c>
       <c r="D38" t="n">
-        <v>10072.532</v>
+        <v>5711.889</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -7792,17 +7784,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7810,7 +7802,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7820,32 +7812,32 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-99</v>
       </c>
       <c r="X38" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="Y38" t="n">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7857,11 +7849,11 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>99937211</v>
+        <v>55293052</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7898,11 +7890,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7942,7 +7934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7951,50 +7943,50 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.75</v>
+        <v>-2.8</v>
       </c>
       <c r="D39" t="n">
-        <v>8197.369000000001</v>
+        <v>10072.532</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-2.88</v>
+        <v>0.71</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -8002,58 +7994,58 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>-99</v>
       </c>
       <c r="X39" t="n">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="Y39" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>387221083</v>
+        <v>99937211</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8090,11 +8082,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8134,7 +8126,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8143,50 +8135,50 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.53</v>
+        <v>1.75</v>
       </c>
       <c r="D40" t="n">
-        <v>8815.002</v>
+        <v>8197.369000000001</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-1.08</v>
+        <v>-2.14</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -8194,58 +8186,58 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>-99</v>
       </c>
       <c r="X40" t="n">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="Y40" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>328719682</v>
+        <v>387221083</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8282,11 +8274,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8326,7 +8318,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8335,50 +8327,50 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="D41" t="n">
-        <v>10815.79</v>
+        <v>8815.002</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.7</v>
+        <v>14.05</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>-0.36</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -8386,12 +8378,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8401,24 +8393,24 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>-99</v>
       </c>
       <c r="X41" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="Y41" t="n">
         <v>-37</v>
@@ -8437,7 +8429,7 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-83220364</v>
+        <v>328719682</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8474,11 +8466,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8518,7 +8510,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8527,50 +8519,50 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.960000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="D42" t="n">
-        <v>4425.193</v>
+        <v>10815.79</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -8578,39 +8570,39 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>-99</v>
       </c>
       <c r="X42" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="Y42" t="n">
         <v>-37</v>
@@ -8629,7 +8621,7 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-559081863</v>
+        <v>-83220364</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8666,11 +8658,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8710,7 +8702,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8719,50 +8711,50 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-10.11</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>23042.602</v>
+        <v>4425.193</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>12.23</v>
+        <v>4.29</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -8770,42 +8762,42 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>-99</v>
       </c>
       <c r="X43" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Y43" t="n">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
@@ -8817,11 +8809,11 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-650351029</v>
+        <v>-559081863</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8858,11 +8850,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8902,7 +8894,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8911,50 +8903,50 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-11.03</v>
+        <v>-10.11</v>
       </c>
       <c r="D44" t="n">
-        <v>24168.113</v>
+        <v>23042.602</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-9.43</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>13.55</v>
+        <v>12.2</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>2.52</v>
+        <v>12.86</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -8962,42 +8954,42 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>-99</v>
       </c>
       <c r="X44" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="Y44" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
@@ -9009,11 +9001,11 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-26709684</v>
+        <v>-650351029</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9050,11 +9042,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9094,7 +9086,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9103,50 +9095,50 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-10.96</v>
+        <v>-11.03</v>
       </c>
       <c r="D45" t="n">
-        <v>2129.061</v>
+        <v>24168.113</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-6.27</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.05</v>
+        <v>13.55</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-8.27</v>
+        <v>3.21</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -9154,42 +9146,42 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-14.08</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>-99</v>
       </c>
       <c r="X45" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Y45" t="n">
-        <v>-22</v>
+        <v>-34</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
@@ -9201,11 +9193,11 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>411887948</v>
+        <v>-26709684</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9242,11 +9234,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9286,7 +9278,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9295,50 +9287,50 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.21</v>
+        <v>-10.96</v>
       </c>
       <c r="D46" t="n">
-        <v>19775.988</v>
+        <v>2129.061</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.7</v>
+        <v>15.05</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-20.14</v>
+        <v>-7.5</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>10073</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9346,42 +9338,42 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-14.08</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="Y46" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -9393,11 +9385,11 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>240959752</v>
+        <v>411887948</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9434,11 +9426,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>46.82</v>
+        <v>47.12</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>40422</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV46"/>
+  <dimension ref="A1:AV51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.44</v>
+        <v>1.9</v>
       </c>
       <c r="D2" t="n">
-        <v>32.528</v>
+        <v>111.465</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.6</v>
+        <v>45.45</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,17 +720,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -738,12 +738,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,43 +753,43 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X2" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>57389</v>
+        <v>647009</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,50 +881,50 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.64</v>
+        <v>-0.44</v>
       </c>
       <c r="D3" t="n">
-        <v>66.04900000000001</v>
+        <v>32.528</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-0.45</v>
+        <v>1.87</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -932,39 +932,39 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="n">
         <v>-3</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-6442165</v>
+        <v>57389</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,50 +1075,50 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.66</v>
+        <v>-1.64</v>
       </c>
       <c r="D4" t="n">
-        <v>98.401</v>
+        <v>66.04900000000001</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.55</v>
+        <v>44.8</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-2.13</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,42 +1126,42 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-10074248</v>
+        <v>-6442165</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,50 +1269,50 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.74</v>
+        <v>0.66</v>
       </c>
       <c r="D5" t="n">
-        <v>173.632</v>
+        <v>98.401</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.25</v>
+        <v>45.55</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-1.46</v>
+        <v>-0.22</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1345,33 +1345,33 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-2201719</v>
+        <v>-10074248</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,50 +1463,50 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="D6" t="n">
-        <v>144.515</v>
+        <v>173.632</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.05</v>
+        <v>45.25</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-3.25</v>
+        <v>0.44</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1514,58 +1514,58 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-7324501</v>
+        <v>-2201719</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,50 +1657,50 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D7" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-4.48</v>
+        <v>-1.32</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X7" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y7" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,50 +1851,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.44</v>
+        <v>9.25</v>
       </c>
       <c r="D8" t="n">
-        <v>304.601</v>
+        <v>266.938</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>42.45</v>
+        <v>46.6</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.82</v>
+        <v>-2.53</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,42 +1902,42 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X8" t="n">
-        <v>-80</v>
+        <v>-69</v>
       </c>
       <c r="Y8" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-26145201</v>
+        <v>8403358</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,50 +2045,50 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.5</v>
+        <v>-3.44</v>
       </c>
       <c r="D9" t="n">
-        <v>208.437</v>
+        <v>304.601</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.95</v>
+        <v>42.45</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X9" t="n">
-        <v>-126</v>
+        <v>-80</v>
       </c>
       <c r="Y9" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-42789498</v>
+        <v>-26145201</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,50 +2239,50 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-10.35</v>
+        <v>1.5</v>
       </c>
       <c r="D10" t="n">
-        <v>511.241</v>
+        <v>208.437</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.3</v>
+        <v>43.95</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2290,42 +2290,42 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X10" t="n">
-        <v>-131</v>
+        <v>-126</v>
       </c>
       <c r="Y10" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
@@ -2337,11 +2337,11 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-48356955</v>
+        <v>-42789498</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.28</v>
+        <v>10.47</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,102 +2424,102 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.11</v>
+        <v>-10.35</v>
       </c>
       <c r="D11" t="n">
-        <v>8270.969999999999</v>
+        <v>511.241</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.95</v>
+        <v>43.3</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>111</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>-40</v>
+        <v>95</v>
       </c>
       <c r="X11" t="n">
-        <v>-2</v>
+        <v>-131</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>-35</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,15 +2531,15 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>429986747</v>
+        <v>-48356955</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>凱撒衛</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2554,50 +2554,50 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>4.3</v>
+        <v>10.71</v>
       </c>
       <c r="AK11" t="n">
-        <v>94.47</v>
+        <v>10.47</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>36.33%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
+          <t>瓷器45.07%、出水類20.66%、其他14.05%、電子自動化11.61%、 浴櫃類6.35%、浴缸2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>凱撒衛-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS11" t="n">
-        <v>22.66</v>
+        <v>30.94</v>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
@@ -2606,19 +2606,19 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料** 貿易百貨 - 貿易商、代理商、經銷商</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,45 +2627,45 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.57</v>
+        <v>-1.67</v>
       </c>
       <c r="D12" t="n">
-        <v>11897.927</v>
+        <v>2932.418</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>35.40</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.75</v>
+        <v>17.65</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2678,42 +2678,42 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.42</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X12" t="n">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2725,11 +2725,11 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>193311762</v>
+        <v>315631059</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>4.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS12" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,50 +2821,50 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.28</v>
+        <v>1.11</v>
       </c>
       <c r="D13" t="n">
-        <v>3570.343</v>
+        <v>8270.969999999999</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.65</v>
+        <v>17.95</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.67</v>
+        <v>-1.7</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -2872,58 +2872,58 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X13" t="n">
-        <v>-18</v>
+        <v>-2</v>
       </c>
       <c r="Y13" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>79667719</v>
+        <v>429986747</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS13" t="n">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,50 +3015,50 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="D14" t="n">
-        <v>5012.004</v>
+        <v>11897.927</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>35.40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.75</v>
+        <v>17.75</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.69</v>
+        <v>-0.57</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -3066,42 +3066,42 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>-21</v>
       </c>
       <c r="Y14" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3113,11 +3113,11 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>27433204</v>
+        <v>193311762</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS14" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,50 +3209,50 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.49</v>
+        <v>5.28</v>
       </c>
       <c r="D15" t="n">
-        <v>6367.384</v>
+        <v>3570.343</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.89</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>16.75</v>
+        <v>17.65</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -3260,58 +3260,58 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>-61.98</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-0.37</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="W15" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>-18</v>
       </c>
       <c r="Y15" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>30851799</v>
+        <v>79667719</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS15" t="n">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,50 +3403,50 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>654.096</v>
+        <v>5012.004</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="J16" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>15.04</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -3454,42 +3454,42 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3501,11 +3501,11 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-160677055</v>
+        <v>27433204</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS16" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,50 +3597,50 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-9.77</v>
+        <v>9.49</v>
       </c>
       <c r="D17" t="n">
-        <v>5645.051</v>
+        <v>6367.384</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="J17" t="n">
-        <v>13.9</v>
+        <v>16.75</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>22.56</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -3648,42 +3648,42 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X17" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3695,11 +3695,11 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-179409674</v>
+        <v>30851799</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS17" t="n">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,50 +3791,50 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-9.42</v>
+        <v>8.85</v>
       </c>
       <c r="D18" t="n">
-        <v>5532.753</v>
+        <v>654.096</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>15.4</v>
+        <v>15.25</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>14.21</v>
+        <v>13.6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -3842,39 +3842,39 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X18" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>91</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>-321329733</v>
+        <v>-160677055</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS18" t="n">
@@ -3976,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,50 +3985,50 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-10.98</v>
+        <v>-9.77</v>
       </c>
       <c r="D19" t="n">
-        <v>519.745</v>
+        <v>5645.051</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J19" t="n">
-        <v>16.85</v>
+        <v>13.9</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>6.13</v>
+        <v>21.25</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -4036,39 +4036,39 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="X19" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="n">
         <v>91</v>
@@ -4079,23 +4079,15 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>23647293</v>
+        <v>-179409674</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4114,14 +4106,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>94.47</v>
+        <v>92.89</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4134,11 +4126,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4153,7 +4145,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS19" t="n">
@@ -4178,122 +4170,122 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.42</v>
       </c>
       <c r="D20" t="n">
-        <v>283.747</v>
+        <v>5532.753</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J20" t="n">
-        <v>15.65</v>
+        <v>15.4</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-50</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-4736597</v>
+        <v>-321329733</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -4308,41 +4300,41 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>47.42</v>
+        <v>92.89</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4351,7 +4343,7 @@
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
@@ -4365,109 +4357,109 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.62</v>
+        <v>-10.98</v>
       </c>
       <c r="D21" t="n">
-        <v>446.862</v>
+        <v>519.745</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.65</v>
+        <v>16.85</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-50</v>
       </c>
       <c r="X21" t="n">
-        <v>-23</v>
+        <v>64</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4475,19 +4467,27 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>11532248</v>
+        <v>23647293</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>中釉</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -4502,41 +4502,41 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AK21" t="n">
-        <v>47.42</v>
+        <v>92.89</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>商品銷售96.42%、工程3.58% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>中釉-玻璃陶瓷-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>17.7</v>
+        <v>22.66</v>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
@@ -4559,14 +4559,14 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4575,50 +4575,50 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.52</v>
+        <v>-0.63</v>
       </c>
       <c r="D22" t="n">
-        <v>433.824</v>
+        <v>187.278</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.75</v>
+        <v>15.55</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -4626,58 +4626,58 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X22" t="n">
-        <v>-47</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>30511598</v>
+        <v>-14399502</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4696,14 +4696,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>3.85</v>
       </c>
       <c r="AK22" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4716,11 +4716,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4760,7 +4760,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4769,50 +4769,50 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>781.769</v>
+        <v>283.747</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.05</v>
+        <v>15.65</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>3.83</v>
+        <v>-0.64</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -4820,42 +4820,42 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X23" t="n">
-        <v>-65</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4867,11 +4867,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>29128757</v>
+        <v>-4736597</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4890,14 +4890,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>3.85</v>
       </c>
       <c r="AK23" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4910,11 +4910,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4954,7 +4954,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4963,50 +4963,50 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.08</v>
+        <v>-0.62</v>
       </c>
       <c r="D24" t="n">
-        <v>812.1319999999999</v>
+        <v>446.862</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.7</v>
+        <v>15.65</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>6.07</v>
+        <v>-0.64</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -5014,42 +5014,42 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X24" t="n">
-        <v>-46</v>
+        <v>-23</v>
       </c>
       <c r="Y24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5061,11 +5061,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-9446945</v>
+        <v>11532248</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5084,14 +5084,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5104,11 +5104,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5157,50 +5157,50 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.029999999999999</v>
+        <v>4.52</v>
       </c>
       <c r="D25" t="n">
-        <v>372.65</v>
+        <v>433.824</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.4</v>
+        <v>15.75</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>7.99</v>
+        <v>-1.29</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -5208,58 +5208,58 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X25" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-55882659</v>
+        <v>30511598</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5278,14 +5278,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5298,11 +5298,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5342,7 +5342,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5351,50 +5351,50 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-6.81</v>
+        <v>2.36</v>
       </c>
       <c r="D26" t="n">
-        <v>1997.882</v>
+        <v>781.769</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.1</v>
+        <v>15.05</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>16.29</v>
+        <v>3.22</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -5402,42 +5402,42 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X26" t="n">
-        <v>-32</v>
+        <v>-65</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5449,11 +5449,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-64334416</v>
+        <v>29128757</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5472,14 +5472,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5492,11 +5492,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5545,50 +5545,50 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-10.36</v>
+        <v>2.08</v>
       </c>
       <c r="D27" t="n">
-        <v>2457.509</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.05</v>
+        <v>14.7</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>10.22</v>
+        <v>5.47</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -5596,42 +5596,42 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X27" t="n">
-        <v>-52</v>
+        <v>-46</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5643,11 +5643,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-29354757</v>
+        <v>-9446945</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5666,14 +5666,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5686,11 +5686,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5730,7 +5730,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5739,50 +5739,50 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-10.97</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>199.531</v>
+        <v>372.65</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.96</v>
+        <v>7.4</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -5790,42 +5790,42 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="X28" t="n">
-        <v>-31</v>
+        <v>-48</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5837,11 +5837,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>19634077</v>
+        <v>-55882659</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5860,14 +5860,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>47.42</v>
+        <v>47.12</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5880,11 +5880,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5924,102 +5924,102 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.44</v>
+        <v>-6.81</v>
       </c>
       <c r="D29" t="n">
-        <v>3793.099</v>
+        <v>1997.882</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.25</v>
+        <v>13.1</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15.76</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>65</v>
+        <v>-65</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>-32</v>
       </c>
       <c r="Y29" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
@@ -6027,27 +6027,19 @@
       <c r="AA29" t="n">
         <v>0</v>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>163874500</v>
+        <v>-64334416</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -6062,50 +6054,50 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK29" t="n">
-        <v>36.29</v>
+        <v>47.12</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS29" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
@@ -6114,114 +6106,114 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.35</v>
+        <v>-10.36</v>
       </c>
       <c r="D30" t="n">
-        <v>5193.331</v>
+        <v>2457.509</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.2</v>
+        <v>14.05</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.44</v>
+        <v>9.65</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>65</v>
+        <v>-65</v>
       </c>
       <c r="X30" t="n">
-        <v>33</v>
+        <v>-52</v>
       </c>
       <c r="Y30" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
@@ -6229,27 +6221,19 @@
       <c r="AA30" t="n">
         <v>0</v>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>83328965</v>
+        <v>-29354757</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -6264,50 +6248,50 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK30" t="n">
-        <v>36.29</v>
+        <v>47.12</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS30" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
@@ -6316,142 +6300,134 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.66</v>
+        <v>-10.97</v>
       </c>
       <c r="D31" t="n">
-        <v>5797.142</v>
+        <v>199.531</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.05</v>
+        <v>15.5</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.78</v>
+        <v>0.32</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>187</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>65</v>
+        <v>-65</v>
       </c>
       <c r="X31" t="n">
-        <v>4</v>
+        <v>-31</v>
       </c>
       <c r="Y31" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-15056952</v>
+        <v>19634077</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>中釉</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -6466,50 +6442,50 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AK31" t="n">
-        <v>36.29</v>
+        <v>47.12</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.39%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>商品銷售96.42%、工程3.58% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>中釉-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS31" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
@@ -6518,19 +6494,19 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料、個人、民間企業、政府機構** LED照明產業 - 封裝/模組</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6539,50 +6515,50 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.38</v>
+        <v>0.85</v>
       </c>
       <c r="D32" t="n">
-        <v>3572.959</v>
+        <v>10354.875</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="J32" t="n">
-        <v>10.45</v>
+        <v>11.35</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -6590,48 +6566,48 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X32" t="n">
-        <v>-126</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -6640,16 +6616,16 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>39883278</v>
+        <v>220446738</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6668,14 +6644,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>2.22</v>
       </c>
       <c r="AK32" t="n">
-        <v>36.29</v>
+        <v>36.61</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6688,11 +6664,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6720,7 +6696,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6732,7 +6708,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6741,50 +6717,50 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2.83</v>
+        <v>0.44</v>
       </c>
       <c r="D33" t="n">
-        <v>3839.552</v>
+        <v>3793.099</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.6</v>
+        <v>11.25</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>5.78</v>
+        <v>0.88</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -6792,42 +6768,42 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X33" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6842,16 +6818,16 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-40761602</v>
+        <v>163874500</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6870,14 +6846,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>2.22</v>
       </c>
       <c r="AK33" t="n">
-        <v>36.29</v>
+        <v>36.61</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6890,11 +6866,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6922,7 +6898,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6934,7 +6910,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6943,50 +6919,50 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.91</v>
+        <v>1.35</v>
       </c>
       <c r="D34" t="n">
-        <v>10757.929</v>
+        <v>5193.331</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>3.11</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -6994,42 +6970,42 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X34" t="n">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="Y34" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
@@ -7044,16 +7020,16 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-285894458</v>
+        <v>83328965</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7072,14 +7048,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>2.22</v>
       </c>
       <c r="AK34" t="n">
-        <v>36.29</v>
+        <v>36.61</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7092,11 +7068,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7136,7 +7112,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7145,50 +7121,50 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-5.94</v>
+        <v>5.66</v>
       </c>
       <c r="D35" t="n">
-        <v>11256.055</v>
+        <v>5797.142</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.25</v>
+        <v>11.05</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>8.890000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -7196,48 +7172,48 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="W35" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X35" t="n">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Z35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -7246,16 +7222,16 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-263980338</v>
+        <v>-15056952</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7274,14 +7250,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>36.29</v>
+        <v>36.61</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7294,11 +7270,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7326,7 +7302,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7338,7 +7314,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7347,50 +7323,50 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.45</v>
+        <v>-1.38</v>
       </c>
       <c r="D36" t="n">
-        <v>25281.807</v>
+        <v>3572.959</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>10.9</v>
+        <v>10.45</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>3.11</v>
+        <v>7.93</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -7398,48 +7374,48 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X36" t="n">
-        <v>191</v>
+        <v>-126</v>
       </c>
       <c r="Y36" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Z36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -7448,16 +7424,16 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-51261423</v>
+        <v>39883278</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7476,14 +7452,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>36.29</v>
+        <v>36.61</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7496,11 +7472,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7528,7 +7504,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7540,7 +7516,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7549,50 +7525,50 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.19</v>
+        <v>-2.83</v>
       </c>
       <c r="D37" t="n">
-        <v>13730.019</v>
+        <v>3839.552</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J37" t="n">
-        <v>10.95</v>
+        <v>10.6</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>2.67</v>
+        <v>6.61</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -7600,48 +7576,48 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>-5.72</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>29.39</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="W37" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X37" t="n">
-        <v>295</v>
+        <v>-7</v>
       </c>
       <c r="Y37" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Z37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -7650,16 +7626,16 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>248539095</v>
+        <v>-40761602</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7678,14 +7654,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>36.29</v>
+        <v>36.61</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7698,11 +7674,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7730,7 +7706,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
@@ -7742,102 +7718,102 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.73</v>
+        <v>5.91</v>
       </c>
       <c r="D38" t="n">
-        <v>5711.889</v>
+        <v>10757.929</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J38" t="n">
-        <v>14</v>
+        <v>10.9</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>-99</v>
+        <v>90</v>
       </c>
       <c r="X38" t="n">
-        <v>-24</v>
+        <v>151</v>
       </c>
       <c r="Y38" t="n">
-        <v>-42</v>
+        <v>88</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7845,19 +7821,27 @@
       <c r="AA38" t="n">
         <v>0</v>
       </c>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>55293052</v>
+        <v>-285894458</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -7872,48 +7856,50 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK38" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>36.61</v>
+      </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS38" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT38" t="inlineStr">
         <is>
@@ -7922,134 +7908,142 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-2.8</v>
+        <v>-5.94</v>
       </c>
       <c r="D39" t="n">
-        <v>10072.532</v>
+        <v>11256.055</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J39" t="n">
-        <v>13.9</v>
+        <v>10.25</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.71</v>
+        <v>9.69</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>-99</v>
+        <v>90</v>
       </c>
       <c r="X39" t="n">
-        <v>-27</v>
+        <v>175</v>
       </c>
       <c r="Y39" t="n">
-        <v>-40</v>
+        <v>86</v>
       </c>
       <c r="Z39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>99937211</v>
+        <v>-263980338</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -8064,48 +8058,50 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK39" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>36.61</v>
+      </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS39" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
@@ -8119,129 +8115,137 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.75</v>
+        <v>-0.45</v>
       </c>
       <c r="D40" t="n">
-        <v>8197.369000000001</v>
+        <v>25281.807</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J40" t="n">
-        <v>14.3</v>
+        <v>10.9</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-2.14</v>
+        <v>3.96</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>-99</v>
+        <v>90</v>
       </c>
       <c r="X40" t="n">
-        <v>-37</v>
+        <v>191</v>
       </c>
       <c r="Y40" t="n">
-        <v>-35</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>387221083</v>
+        <v>-51261423</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -8256,48 +8260,50 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK40" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>36.61</v>
+      </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS40" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
@@ -8306,134 +8312,142 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.53</v>
+        <v>4.19</v>
       </c>
       <c r="D41" t="n">
-        <v>8815.002</v>
+        <v>13730.019</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.05</v>
+        <v>10.95</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>-0.36</v>
+        <v>3.52</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>-99</v>
+        <v>90</v>
       </c>
       <c r="X41" t="n">
-        <v>-42</v>
+        <v>295</v>
       </c>
       <c r="Y41" t="n">
-        <v>-37</v>
+        <v>69</v>
       </c>
       <c r="Z41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>328719682</v>
+        <v>248539095</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -8448,48 +8462,50 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AK41" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>36.61</v>
+      </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>台玻-玻璃陶瓷-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS41" t="n">
-        <v>16.66</v>
+        <v>14.4</v>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
@@ -8498,19 +8514,19 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8519,50 +8535,50 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="D42" t="n">
-        <v>10815.79</v>
+        <v>4488.251</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -8570,7 +8586,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8580,32 +8596,32 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>-99</v>
       </c>
       <c r="X42" t="n">
-        <v>-19</v>
+        <v>-30</v>
       </c>
       <c r="Y42" t="n">
-        <v>-37</v>
+        <v>-41</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
@@ -8617,11 +8633,11 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-83220364</v>
+        <v>865899</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8658,11 +8674,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41294</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8702,7 +8718,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8711,50 +8727,50 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.960000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="D43" t="n">
-        <v>4425.193</v>
+        <v>5711.889</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>4.29</v>
+        <v>1.41</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -8762,42 +8778,42 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>-99</v>
       </c>
       <c r="X43" t="n">
-        <v>-11</v>
+        <v>-24</v>
       </c>
       <c r="Y43" t="n">
-        <v>-37</v>
+        <v>-42</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
@@ -8809,11 +8825,11 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-559081863</v>
+        <v>55293052</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8850,11 +8866,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41294</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8894,7 +8910,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8903,50 +8919,50 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-10.11</v>
+        <v>-2.8</v>
       </c>
       <c r="D44" t="n">
-        <v>23042.602</v>
+        <v>10072.532</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>12.86</v>
+        <v>2.11</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -8954,42 +8970,42 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>-99</v>
       </c>
       <c r="X44" t="n">
-        <v>-10</v>
+        <v>-27</v>
       </c>
       <c r="Y44" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
@@ -9001,11 +9017,11 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-650351029</v>
+        <v>99937211</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9042,11 +9058,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41294</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9086,7 +9102,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9095,50 +9111,50 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-11.03</v>
+        <v>1.75</v>
       </c>
       <c r="D45" t="n">
-        <v>24168.113</v>
+        <v>8197.369000000001</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.55</v>
+        <v>14.3</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>3.21</v>
+        <v>-0.7</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -9146,58 +9162,58 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>-99</v>
       </c>
       <c r="X45" t="n">
-        <v>4</v>
+        <v>-37</v>
       </c>
       <c r="Y45" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-26709684</v>
+        <v>387221083</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9234,11 +9250,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41294</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9278,7 +9294,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9287,50 +9303,50 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-10.96</v>
+        <v>2.53</v>
       </c>
       <c r="D46" t="n">
-        <v>2129.061</v>
+        <v>8815.002</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.05</v>
+        <v>14.05</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-7.5</v>
+        <v>1.06</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9338,42 +9354,42 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-14.08</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>25</v>
+        <v>-42</v>
       </c>
       <c r="Y46" t="n">
-        <v>-22</v>
+        <v>-37</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -9385,11 +9401,11 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>411887948</v>
+        <v>328719682</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9426,11 +9442,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41294</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9462,6 +9478,966 @@
         </is>
       </c>
       <c r="AV46" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10815.79</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>-0.47</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-37</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="AE47" t="n">
+        <v>-83220364</v>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ47" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN47" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>41294</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS47" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4425.193</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-3.49</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-37</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="AE48" t="n">
+        <v>-559081863</v>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ48" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN48" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>41294</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS48" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-10.11</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23042.602</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-9.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-3.35</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>-2.21</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-35</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>-35</t>
+        </is>
+      </c>
+      <c r="AE49" t="n">
+        <v>-650351029</v>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ49" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN49" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>41294</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS49" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-11.03</v>
+      </c>
+      <c r="D50" t="n">
+        <v>24168.113</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-6.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-2.09</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-34</v>
+      </c>
+      <c r="Z50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
+      <c r="AE50" t="n">
+        <v>-26709684</v>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ50" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN50" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>41294</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS50" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-10.96</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2129.061</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>-14.08</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>-99</v>
+      </c>
+      <c r="X51" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-22</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AE51" t="n">
+        <v>411887948</v>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>台玻</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ51" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AN51" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>41294</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>商品銷售100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>台玻-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="AS51" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 玻璃纖維/玻纖布** 建材營造 - 建材原料</t>
         </is>

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,29 +687,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>25.623</v>
+        <v>52.973</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="J2" t="n">
         <v>44.2</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -734,11 +734,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -753,17 +753,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -773,7 +773,7 @@
         <v>50</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -785,11 +785,11 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-162051</v>
+        <v>-7590443</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,36 +881,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.76</v>
+        <v>-1.02</v>
       </c>
       <c r="D3" t="n">
-        <v>91.71299999999999</v>
+        <v>25.623</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="J3" t="n">
-        <v>44.65</v>
+        <v>44.2</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -919,20 +919,20 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -952,19 +952,19 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-473874</v>
+        <v>-162051</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,36 +1075,36 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.9</v>
+        <v>-1.76</v>
       </c>
       <c r="D4" t="n">
-        <v>111.465</v>
+        <v>91.71299999999999</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J4" t="n">
-        <v>45.45</v>
+        <v>44.65</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-2.83</v>
+        <v>-1.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1113,55 +1113,55 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>90</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>647009</v>
+        <v>-473874</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,36 +1269,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.44</v>
+        <v>1.9</v>
       </c>
       <c r="D5" t="n">
-        <v>32.528</v>
+        <v>111.465</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.6</v>
+        <v>45.45</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-0.9</v>
+        <v>-2.83</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1307,25 +1307,25 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1335,43 +1335,43 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>90</v>
       </c>
       <c r="X5" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>57389</v>
+        <v>647009</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,36 +1463,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.64</v>
+        <v>-0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>66.04900000000001</v>
+        <v>32.528</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-1.36</v>
+        <v>-0.9</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1501,52 +1501,52 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>90</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="n">
         <v>-3</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-6442165</v>
+        <v>57389</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,36 +1657,36 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.66</v>
+        <v>-1.64</v>
       </c>
       <c r="D7" t="n">
-        <v>98.401</v>
+        <v>66.04900000000001</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.55</v>
+        <v>44.8</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-3.05</v>
+        <v>-1.36</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1695,55 +1695,55 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>90</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-10074248</v>
+        <v>-6442165</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.74</v>
+        <v>0.66</v>
       </c>
       <c r="D8" t="n">
-        <v>173.632</v>
+        <v>98.401</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45.25</v>
+        <v>45.55</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-2.38</v>
+        <v>-3.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1889,20 +1889,20 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1927,33 +1927,33 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>90</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-2201719</v>
+        <v>-10074248</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,36 +2045,36 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="D9" t="n">
-        <v>144.515</v>
+        <v>173.632</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.05</v>
+        <v>45.25</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-4.19</v>
+        <v>-2.38</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2083,71 +2083,71 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>90</v>
       </c>
       <c r="X9" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-7324501</v>
+        <v>-2201719</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,36 +2239,36 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D10" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-5.43</v>
+        <v>-4.19</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2277,20 +2277,20 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2300,32 +2300,32 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>90</v>
       </c>
       <c r="X10" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y10" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
@@ -2337,11 +2337,11 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,36 +2433,36 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.44</v>
+        <v>9.25</v>
       </c>
       <c r="D11" t="n">
-        <v>304.601</v>
+        <v>266.938</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42.45</v>
+        <v>46.6</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3.96</v>
+        <v>-5.43</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2471,55 +2471,55 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>90</v>
       </c>
       <c r="X11" t="n">
-        <v>-80</v>
+        <v>-69</v>
       </c>
       <c r="Y11" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-26145201</v>
+        <v>8403358</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,36 +2627,36 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>-3.44</v>
       </c>
       <c r="D12" t="n">
-        <v>208.437</v>
+        <v>304.601</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>43.95</v>
+        <v>42.45</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.57</v>
+        <v>3.96</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2665,55 +2665,55 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-5.73</t>
+          <t>-9.65</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>-126</v>
+        <v>-80</v>
       </c>
       <c r="Y12" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2725,11 +2725,11 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-42789498</v>
+        <v>-26145201</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,32 +2821,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="D13" t="n">
-        <v>3552.446</v>
+        <v>4545.679</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="J13" t="n">
-        <v>17.3</v>
+        <v>17.75</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
@@ -2854,76 +2854,76 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="Z13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-36762623</v>
+        <v>96945578</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS13" t="n">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,109 +3015,109 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.23</v>
+        <v>2.34</v>
       </c>
       <c r="D14" t="n">
-        <v>2704.432</v>
+        <v>3552.446</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-3.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>2.31</v>
+        <v>2.54</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="Z14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>51568315</v>
+        <v>-36762623</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS14" t="n">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,109 +3209,109 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.67</v>
+        <v>-4.23</v>
       </c>
       <c r="D15" t="n">
-        <v>2932.418</v>
+        <v>2704.432</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>17.65</v>
+        <v>16.9</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-2.02</v>
+        <v>4.79</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>315631059</v>
+        <v>51568315</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS15" t="n">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,93 +3403,93 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.11</v>
+        <v>-1.67</v>
       </c>
       <c r="D16" t="n">
-        <v>8270.969999999999</v>
+        <v>2932.418</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.95</v>
+        <v>17.65</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-3.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X16" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3501,11 +3501,11 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>429986747</v>
+        <v>315631059</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS16" t="n">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,93 +3597,93 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="D17" t="n">
-        <v>11897.927</v>
+        <v>8270.969999999999</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>35.40</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.75</v>
+        <v>17.95</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-2.6</v>
+        <v>-1.13</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X17" t="n">
-        <v>-21</v>
+        <v>-2</v>
       </c>
       <c r="Y17" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3695,11 +3695,11 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>193311762</v>
+        <v>429986747</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS17" t="n">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,45 +3791,45 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.28</v>
+        <v>0.57</v>
       </c>
       <c r="D18" t="n">
-        <v>3570.343</v>
+        <v>11897.927</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>35.40</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.65</v>
+        <v>17.75</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-2.02</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3838,62 +3838,62 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X18" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="Y18" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>79667719</v>
+        <v>193311762</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS18" t="n">
@@ -3976,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,109 +3985,109 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="D19" t="n">
-        <v>5012.004</v>
+        <v>3570.343</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="J19" t="n">
-        <v>16.75</v>
+        <v>17.65</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>3.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>-3.69</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
       <c r="W19" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="Y19" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>27433204</v>
+        <v>79667719</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4126,11 +4126,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS19" t="n">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4179,45 +4179,45 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.49</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6367.384</v>
+        <v>5012.004</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="J20" t="n">
         <v>16.75</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>3.18</v>
+        <v>5.63</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4226,11 +4226,11 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4245,27 +4245,27 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4277,11 +4277,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>30851799</v>
+        <v>27433204</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>4.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4320,11 +4320,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS20" t="n">
@@ -4364,7 +4364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4373,93 +4373,93 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.85</v>
+        <v>9.49</v>
       </c>
       <c r="D21" t="n">
-        <v>654.096</v>
+        <v>6367.384</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J21" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>11.85</v>
+        <v>5.63</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4471,11 +4471,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-160677055</v>
+        <v>30851799</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>4.3</v>
       </c>
       <c r="AK21" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4514,11 +4514,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS21" t="n">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4567,90 +4567,90 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-9.77</v>
+        <v>8.85</v>
       </c>
       <c r="D22" t="n">
-        <v>5645.051</v>
+        <v>654.096</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>13.9</v>
+        <v>15.25</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>19.65</v>
+        <v>14.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X22" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>91</v>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-179409674</v>
+        <v>-160677055</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>4.3</v>
       </c>
       <c r="AK22" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4708,11 +4708,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS22" t="n">
@@ -4752,7 +4752,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4761,90 +4761,90 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-9.42</v>
+        <v>-9.77</v>
       </c>
       <c r="D23" t="n">
-        <v>5532.753</v>
+        <v>5645.051</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="J23" t="n">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>10.98</v>
+        <v>21.69</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="X23" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="n">
         <v>91</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-321329733</v>
+        <v>-179409674</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4882,14 +4882,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>4.3</v>
       </c>
       <c r="AK23" t="n">
-        <v>91.05</v>
+        <v>93.42</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS23" t="n">
@@ -4946,7 +4946,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4955,32 +4955,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.01</v>
+        <v>2.27</v>
       </c>
       <c r="D24" t="n">
-        <v>311.913</v>
+        <v>306.498</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.73</v>
+        <v>1.08</v>
       </c>
       <c r="J24" t="n">
-        <v>15.15</v>
+        <v>15.5</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
@@ -4988,76 +4988,76 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-65</v>
       </c>
       <c r="X24" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="n">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-20783901</v>
+        <v>-13100073</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5076,14 +5076,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5096,11 +5096,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5149,45 +5149,45 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.53</v>
+        <v>-1.01</v>
       </c>
       <c r="D25" t="n">
-        <v>834.509</v>
+        <v>311.913</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J25" t="n">
-        <v>15.3</v>
+        <v>15.15</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-0.99</v>
+        <v>2.26</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5196,11 +5196,11 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5215,43 +5215,43 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-65</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-20451543</v>
+        <v>-20783901</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5270,14 +5270,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5290,11 +5290,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5343,93 +5343,93 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.63</v>
+        <v>-1.53</v>
       </c>
       <c r="D26" t="n">
-        <v>187.278</v>
+        <v>834.509</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15.55</v>
+        <v>15.3</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-2.64</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-65</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5441,11 +5441,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-14399502</v>
+        <v>-20451543</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5464,14 +5464,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5484,11 +5484,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5537,45 +5537,45 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="D27" t="n">
-        <v>283.747</v>
+        <v>187.278</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.65</v>
+        <v>15.55</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-3.3</v>
+        <v>-0.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5584,31 +5584,31 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -5620,10 +5620,10 @@
         <v>-65</v>
       </c>
       <c r="X27" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5635,11 +5635,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-4736597</v>
+        <v>-14399502</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5658,14 +5658,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5678,11 +5678,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5731,25 +5731,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>446.862</v>
+        <v>283.747</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -5760,16 +5760,16 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-3.3</v>
+        <v>-0.97</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5778,31 +5778,31 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -5814,10 +5814,10 @@
         <v>-65</v>
       </c>
       <c r="X28" t="n">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5829,11 +5829,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>11532248</v>
+        <v>-4736597</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5852,14 +5852,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5872,11 +5872,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5916,7 +5916,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5925,109 +5925,109 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.52</v>
+        <v>-0.62</v>
       </c>
       <c r="D29" t="n">
-        <v>433.824</v>
+        <v>446.862</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>15.75</v>
+        <v>15.65</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-3.96</v>
+        <v>-0.97</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>-65</v>
       </c>
       <c r="X29" t="n">
-        <v>-47</v>
+        <v>-23</v>
       </c>
       <c r="Y29" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>30511598</v>
+        <v>11532248</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6046,14 +6046,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>3.85</v>
       </c>
       <c r="AK29" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6066,11 +6066,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6119,109 +6119,109 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.36</v>
+        <v>4.52</v>
       </c>
       <c r="D30" t="n">
-        <v>781.769</v>
+        <v>433.824</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.05</v>
+        <v>15.75</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.66</v>
+        <v>-1.61</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>-65</v>
       </c>
       <c r="X30" t="n">
-        <v>-65</v>
+        <v>-47</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>29128757</v>
+        <v>30511598</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6240,14 +6240,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>3.85</v>
       </c>
       <c r="AK30" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6260,11 +6260,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6313,63 +6313,63 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="D31" t="n">
-        <v>812.1319999999999</v>
+        <v>781.769</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.7</v>
+        <v>15.05</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -6379,27 +6379,27 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>-65</v>
       </c>
       <c r="X31" t="n">
-        <v>-46</v>
+        <v>-65</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
@@ -6411,11 +6411,11 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-9446945</v>
+        <v>29128757</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>3.85</v>
       </c>
       <c r="AK31" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6454,11 +6454,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6507,93 +6507,93 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="D32" t="n">
-        <v>372.65</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>4.95</v>
+        <v>5.16</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>-65</v>
       </c>
       <c r="X32" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
@@ -6605,11 +6605,11 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-55882659</v>
+        <v>-9446945</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6628,14 +6628,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>3.85</v>
       </c>
       <c r="AK32" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6648,11 +6648,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6701,93 +6701,93 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-6.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>1997.882</v>
+        <v>372.65</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.1</v>
+        <v>14.4</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>13.53</v>
+        <v>7.1</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>-65</v>
       </c>
       <c r="X33" t="n">
-        <v>-32</v>
+        <v>-48</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6799,11 +6799,11 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-64334416</v>
+        <v>-55882659</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6822,14 +6822,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>3.85</v>
       </c>
       <c r="AK33" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6842,11 +6842,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6895,93 +6895,93 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-10.36</v>
+        <v>-6.81</v>
       </c>
       <c r="D34" t="n">
-        <v>2457.509</v>
+        <v>1997.882</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.05</v>
+        <v>13.1</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>7.26</v>
+        <v>15.48</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>306</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>-65</v>
       </c>
       <c r="X34" t="n">
-        <v>-52</v>
+        <v>-32</v>
       </c>
       <c r="Y34" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
@@ -6993,11 +6993,11 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-29354757</v>
+        <v>-64334416</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7016,14 +7016,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>3.85</v>
       </c>
       <c r="AK34" t="n">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7036,11 +7036,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7089,32 +7089,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-3.56</v>
+        <v>2.65</v>
       </c>
       <c r="D35" t="n">
-        <v>3156.796</v>
+        <v>2277.254</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -7122,17 +7122,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -7165,24 +7165,24 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X35" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
         <v>2</v>
       </c>
-      <c r="Y35" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>-2</v>
-      </c>
       <c r="AB35" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -7190,16 +7190,16 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>119360151</v>
+        <v>25092146</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7218,14 +7218,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7238,11 +7238,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7282,7 +7282,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7291,50 +7291,50 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.44</v>
+        <v>-3.56</v>
       </c>
       <c r="D36" t="n">
-        <v>3078.68</v>
+        <v>3156.796</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-3.64</v>
+        <v>2.65</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -7342,48 +7342,48 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X36" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -7392,16 +7392,16 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>197337329</v>
+        <v>119360151</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7420,14 +7420,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7440,11 +7440,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7484,7 +7484,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7493,45 +7493,45 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="D37" t="n">
-        <v>10354.875</v>
+        <v>3078.68</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>40.96</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.71</v>
+        <v>1.1</v>
       </c>
       <c r="J37" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-3.18</v>
+        <v>-0.88</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7544,42 +7544,42 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X37" t="n">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="Y37" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7594,16 +7594,16 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>220446738</v>
+        <v>197337329</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7622,14 +7622,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7642,11 +7642,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7686,7 +7686,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7695,50 +7695,50 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="D38" t="n">
-        <v>3793.099</v>
+        <v>10354.875</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="J38" t="n">
-        <v>11.25</v>
+        <v>11.35</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>-2.27</v>
+        <v>-0.44</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7756,29 +7756,29 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y38" t="n">
         <v>92</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -7805,7 +7805,7 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>163874500</v>
+        <v>220446738</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7824,14 +7824,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>2.22</v>
       </c>
       <c r="AK38" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7844,11 +7844,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7897,45 +7897,45 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="D39" t="n">
-        <v>5193.331</v>
+        <v>3793.099</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-1.82</v>
+        <v>0.44</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -7958,32 +7958,32 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X39" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -7998,16 +7998,16 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>83328965</v>
+        <v>163874500</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8026,14 +8026,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>2.22</v>
       </c>
       <c r="AK39" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8046,11 +8046,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8090,7 +8090,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8099,50 +8099,50 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.66</v>
+        <v>1.35</v>
       </c>
       <c r="D40" t="n">
-        <v>5797.142</v>
+        <v>5193.331</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-0.45</v>
+        <v>0.88</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -8150,48 +8150,48 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X40" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y40" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
@@ -8200,16 +8200,16 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-15056952</v>
+        <v>83328965</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8228,14 +8228,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>2.22</v>
       </c>
       <c r="AK40" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8248,11 +8248,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8292,7 +8292,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8301,50 +8301,50 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1.38</v>
+        <v>5.66</v>
       </c>
       <c r="D41" t="n">
-        <v>3572.959</v>
+        <v>5797.142</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>10.45</v>
+        <v>11.05</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>2.21</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -8352,39 +8352,39 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X41" t="n">
-        <v>-126</v>
+        <v>4</v>
       </c>
       <c r="Y41" t="n">
         <v>90</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>39883278</v>
+        <v>-15056952</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8430,14 +8430,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>2.22</v>
       </c>
       <c r="AK41" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8450,11 +8450,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
@@ -8494,7 +8494,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8503,50 +8503,50 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-2.83</v>
+        <v>-1.38</v>
       </c>
       <c r="D42" t="n">
-        <v>3839.552</v>
+        <v>3572.959</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>3.64</v>
+        <v>7.52</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -8554,22 +8554,22 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -8579,23 +8579,23 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X42" t="n">
-        <v>-7</v>
+        <v>-126</v>
       </c>
       <c r="Y42" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
@@ -8604,16 +8604,16 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-40761602</v>
+        <v>39883278</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8632,14 +8632,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>2.22</v>
       </c>
       <c r="AK42" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8652,11 +8652,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8696,7 +8696,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8705,50 +8705,50 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.91</v>
+        <v>-2.83</v>
       </c>
       <c r="D43" t="n">
-        <v>10757.929</v>
+        <v>3839.552</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J43" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.91</v>
+        <v>6.19</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -8756,42 +8756,42 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X43" t="n">
-        <v>151</v>
+        <v>-7</v>
       </c>
       <c r="Y43" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
@@ -8806,16 +8806,16 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-285894458</v>
+        <v>-40761602</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8834,14 +8834,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>2.22</v>
       </c>
       <c r="AK43" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8854,11 +8854,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8907,50 +8907,50 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-5.94</v>
+        <v>5.91</v>
       </c>
       <c r="D44" t="n">
-        <v>11256.055</v>
+        <v>10757.929</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="J44" t="n">
-        <v>10.25</v>
+        <v>10.9</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>6.82</v>
+        <v>3.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -8958,45 +8958,45 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X44" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Y44" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-263980338</v>
+        <v>-285894458</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9036,14 +9036,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>2.22</v>
       </c>
       <c r="AK44" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9056,11 +9056,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV44" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9109,50 +9109,50 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.45</v>
+        <v>-5.94</v>
       </c>
       <c r="D45" t="n">
-        <v>25281.807</v>
+        <v>11256.055</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="J45" t="n">
-        <v>10.9</v>
+        <v>10.25</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.91</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -9160,22 +9160,22 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -9185,17 +9185,17 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X45" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Y45" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z45" t="b">
         <v>1</v>
@@ -9210,16 +9210,16 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-51261423</v>
+        <v>-263980338</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9238,14 +9238,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>2.22</v>
       </c>
       <c r="AK45" t="n">
-        <v>35.48</v>
+        <v>36.45</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9258,11 +9258,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
@@ -9302,7 +9302,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9311,32 +9311,32 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="D46" t="n">
-        <v>2374.665</v>
+        <v>4662.418</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>13.8</v>
+        <v>14.15</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
@@ -9344,17 +9344,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9362,27 +9362,27 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -9394,26 +9394,26 @@
         <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="Y46" t="n">
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>-19968689</v>
+        <v>-17493943</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9450,11 +9450,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9494,7 +9494,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9503,25 +9503,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-2.84</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3636.261</v>
+        <v>2374.665</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -9532,16 +9532,16 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -9569,43 +9569,43 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>-99</v>
       </c>
       <c r="X47" t="n">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="Y47" t="n">
-        <v>-43</v>
+        <v>-45</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>91830338</v>
+        <v>-19968689</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9642,11 +9642,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9686,7 +9686,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9695,50 +9695,50 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.42</v>
+        <v>-2.84</v>
       </c>
       <c r="D48" t="n">
-        <v>4488.251</v>
+        <v>3636.261</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>-2.9</v>
+        <v>2.47</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -9746,58 +9746,58 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
           <t>-0.09</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>-99</v>
       </c>
       <c r="X48" t="n">
-        <v>-30</v>
+        <v>-11</v>
       </c>
       <c r="Y48" t="n">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>865899</v>
+        <v>91830338</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9834,11 +9834,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9878,7 +9878,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9887,50 +9887,50 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.73</v>
+        <v>1.42</v>
       </c>
       <c r="D49" t="n">
-        <v>5711.889</v>
+        <v>4488.251</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>-1.45</v>
+        <v>-0.35</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -9938,42 +9938,42 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>-99</v>
       </c>
       <c r="X49" t="n">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="Y49" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="Z49" t="b">
         <v>0</v>
@@ -9985,11 +9985,11 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>55293052</v>
+        <v>865899</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -10026,11 +10026,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10070,7 +10070,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10079,50 +10079,50 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-2.8</v>
+        <v>0.73</v>
       </c>
       <c r="D50" t="n">
-        <v>10072.532</v>
+        <v>5711.889</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>-0.72</v>
+        <v>1.06</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10140,32 +10140,32 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>-99</v>
       </c>
       <c r="X50" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="Y50" t="n">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="Z50" t="b">
         <v>0</v>
@@ -10177,11 +10177,11 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>99937211</v>
+        <v>55293052</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10218,11 +10218,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10262,7 +10262,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10271,50 +10271,50 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.75</v>
+        <v>-2.8</v>
       </c>
       <c r="D51" t="n">
-        <v>8197.369000000001</v>
+        <v>10072.532</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>-3.62</v>
+        <v>1.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -10322,58 +10322,58 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="W51" t="n">
         <v>-99</v>
       </c>
       <c r="X51" t="n">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="Y51" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="Z51" t="b">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>387221083</v>
+        <v>99937211</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10410,11 +10410,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10454,7 +10454,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10463,50 +10463,50 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.53</v>
+        <v>1.75</v>
       </c>
       <c r="D52" t="n">
-        <v>8815.002</v>
+        <v>8197.369000000001</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>-1.81</v>
+        <v>-1.06</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -10514,58 +10514,58 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W52" t="n">
         <v>-99</v>
       </c>
       <c r="X52" t="n">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="Y52" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="Z52" t="b">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>328719682</v>
+        <v>387221083</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10602,11 +10602,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10646,7 +10646,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10655,50 +10655,50 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="D53" t="n">
-        <v>10815.79</v>
+        <v>8815.002</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>13.7</v>
+        <v>14.05</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -10706,12 +10706,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -10721,24 +10721,24 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>-99</v>
       </c>
       <c r="X53" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="Y53" t="n">
         <v>-37</v>
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-83220364</v>
+        <v>328719682</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10794,11 +10794,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10838,7 +10838,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10847,50 +10847,50 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.960000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="D54" t="n">
-        <v>4425.193</v>
+        <v>10815.79</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -10898,39 +10898,39 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>-99</v>
       </c>
       <c r="X54" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="Y54" t="n">
         <v>-37</v>
@@ -10949,7 +10949,7 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>-559081863</v>
+        <v>-83220364</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10986,11 +10986,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -11030,7 +11030,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11039,50 +11039,50 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-10.11</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>23042.602</v>
+        <v>4425.193</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>11.59</v>
+        <v>5.3</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -11090,42 +11090,42 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>-99</v>
       </c>
       <c r="X55" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Y55" t="n">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="Z55" t="b">
         <v>0</v>
@@ -11137,11 +11137,11 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-650351029</v>
+        <v>-559081863</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11178,11 +11178,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11222,7 +11222,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11231,50 +11231,50 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-11.03</v>
+        <v>-10.11</v>
       </c>
       <c r="D56" t="n">
-        <v>24168.113</v>
+        <v>23042.602</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-9.43</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>13.55</v>
+        <v>12.2</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.81</v>
+        <v>13.78</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -11282,42 +11282,42 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W56" t="n">
         <v>-99</v>
       </c>
       <c r="X56" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="Y56" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
@@ -11329,11 +11329,11 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-26709684</v>
+        <v>-650351029</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11370,11 +11370,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>45.66</v>
+        <v>46.76</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>40131</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D2" t="n">
-        <v>52.973</v>
+        <v>24.333</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>44.2</v>
+        <v>44.35</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,12 +720,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,27 +753,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="W2" t="n">
         <v>90</v>
       </c>
       <c r="X2" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -785,11 +785,11 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-7590443</v>
+        <v>-2405745</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,45 +881,45 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.623</v>
+        <v>52.973</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="J3" t="n">
         <v>44.2</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -947,17 +947,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -967,7 +967,7 @@
         <v>50</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-162051</v>
+        <v>-7590443</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,50 +1075,50 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.76</v>
+        <v>-1.02</v>
       </c>
       <c r="D4" t="n">
-        <v>91.71299999999999</v>
+        <v>25.623</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="J4" t="n">
-        <v>44.65</v>
+        <v>44.2</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-1.02</v>
+        <v>0.34</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1146,19 +1146,19 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>90</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Y4" t="n">
         <v>18</v>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-473874</v>
+        <v>-162051</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,50 +1269,50 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.9</v>
+        <v>-1.76</v>
       </c>
       <c r="D5" t="n">
-        <v>111.465</v>
+        <v>91.71299999999999</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J5" t="n">
-        <v>45.45</v>
+        <v>44.65</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-2.83</v>
+        <v>-0.68</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>90</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1367,11 +1367,11 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>647009</v>
+        <v>-473874</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,50 +1463,50 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.44</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="n">
-        <v>32.528</v>
+        <v>111.465</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>44.6</v>
+        <v>45.45</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-0.9</v>
+        <v>-2.48</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1529,43 +1529,43 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>90</v>
       </c>
       <c r="X6" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>57389</v>
+        <v>647009</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,50 +1657,50 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.64</v>
+        <v>-0.44</v>
       </c>
       <c r="D7" t="n">
-        <v>66.04900000000001</v>
+        <v>32.528</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-1.36</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,39 +1708,39 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>90</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="n">
         <v>-3</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-6442165</v>
+        <v>57389</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,50 +1851,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.66</v>
+        <v>-1.64</v>
       </c>
       <c r="D8" t="n">
-        <v>98.401</v>
+        <v>66.04900000000001</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45.55</v>
+        <v>44.8</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-3.05</v>
+        <v>-1.01</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,42 +1902,42 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>90</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-10074248</v>
+        <v>-6442165</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,50 +2045,50 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.74</v>
+        <v>0.66</v>
       </c>
       <c r="D9" t="n">
-        <v>173.632</v>
+        <v>98.401</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>45.25</v>
+        <v>45.55</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-2.38</v>
+        <v>-2.71</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2121,33 +2121,33 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>90</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-2201719</v>
+        <v>-10074248</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,50 +2239,50 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="D10" t="n">
-        <v>144.515</v>
+        <v>173.632</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>46.05</v>
+        <v>45.25</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-4.19</v>
+        <v>-2.03</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2290,58 +2290,58 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>90</v>
       </c>
       <c r="X10" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-7324501</v>
+        <v>-2201719</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,50 +2433,50 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D11" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-5.43</v>
+        <v>-3.83</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2494,32 +2494,32 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>90</v>
       </c>
       <c r="X11" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y11" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>10.71</v>
       </c>
       <c r="AK11" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,50 +2627,50 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.44</v>
+        <v>9.25</v>
       </c>
       <c r="D12" t="n">
-        <v>304.601</v>
+        <v>266.938</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>42.45</v>
+        <v>46.6</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.96</v>
+        <v>-5.07</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -2678,42 +2678,42 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-9.65</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>-80</v>
+        <v>-69</v>
       </c>
       <c r="Y12" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2725,11 +2725,11 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-26145201</v>
+        <v>8403358</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>10.71</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,32 +2821,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.54</v>
+        <v>-2.24</v>
       </c>
       <c r="D13" t="n">
-        <v>4545.679</v>
+        <v>2401.286</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="J13" t="n">
-        <v>17.75</v>
+        <v>17.35</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
@@ -2854,30 +2854,30 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2897,33 +2897,33 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>-14</v>
+        <v>-26</v>
       </c>
       <c r="Z13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>96945578</v>
+        <v>101161340</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS13" t="n">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,109 +3015,109 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="D14" t="n">
-        <v>3552.446</v>
+        <v>4545.679</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="J14" t="n">
-        <v>17.3</v>
+        <v>17.75</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>2.54</v>
+        <v>-2.31</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="Z14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-36762623</v>
+        <v>96945578</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS14" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,109 +3209,109 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.23</v>
+        <v>2.34</v>
       </c>
       <c r="D15" t="n">
-        <v>2704.432</v>
+        <v>3552.446</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-3.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.79</v>
+        <v>0.29</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="Z15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>51568315</v>
+        <v>-36762623</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS15" t="n">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,109 +3403,109 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.67</v>
+        <v>-4.23</v>
       </c>
       <c r="D16" t="n">
-        <v>2932.418</v>
+        <v>2704.432</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.65</v>
+        <v>16.9</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.59</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>315631059</v>
+        <v>51568315</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS16" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,93 +3597,93 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.11</v>
+        <v>-1.67</v>
       </c>
       <c r="D17" t="n">
-        <v>8270.969999999999</v>
+        <v>2932.418</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.95</v>
+        <v>17.65</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-1.13</v>
+        <v>-1.73</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X17" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3695,11 +3695,11 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>429986747</v>
+        <v>315631059</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS17" t="n">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,93 +3791,93 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="D18" t="n">
-        <v>11897.927</v>
+        <v>8270.969999999999</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>35.40</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.75</v>
+        <v>17.95</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-3.46</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X18" t="n">
-        <v>-21</v>
+        <v>-2</v>
       </c>
       <c r="Y18" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3889,11 +3889,11 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>193311762</v>
+        <v>429986747</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS18" t="n">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,45 +3985,45 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.28</v>
+        <v>0.57</v>
       </c>
       <c r="D19" t="n">
-        <v>3570.343</v>
+        <v>11897.927</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>35.40</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.65</v>
+        <v>17.75</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.5600000000000001</v>
+        <v>-2.31</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4032,62 +4032,62 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X19" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="Y19" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>79667719</v>
+        <v>193311762</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4126,11 +4126,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS19" t="n">
@@ -4170,7 +4170,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4179,109 +4179,109 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="D20" t="n">
-        <v>5012.004</v>
+        <v>3570.343</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="J20" t="n">
-        <v>16.75</v>
+        <v>17.65</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>5.63</v>
+        <v>-1.73</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>-3.69</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
       <c r="W20" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="Y20" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>27433204</v>
+        <v>79667719</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>4.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4320,11 +4320,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS20" t="n">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
@@ -4364,7 +4364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4373,45 +4373,45 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.49</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>6367.384</v>
+        <v>5012.004</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="J21" t="n">
         <v>16.75</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>5.63</v>
+        <v>3.46</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4420,11 +4420,11 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4439,27 +4439,27 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4471,11 +4471,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>30851799</v>
+        <v>27433204</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>4.3</v>
       </c>
       <c r="AK21" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4514,11 +4514,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS21" t="n">
@@ -4558,7 +4558,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4567,93 +4567,93 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.85</v>
+        <v>9.49</v>
       </c>
       <c r="D22" t="n">
-        <v>654.096</v>
+        <v>6367.384</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J22" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>14.08</v>
+        <v>3.46</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4665,11 +4665,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-160677055</v>
+        <v>30851799</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>4.3</v>
       </c>
       <c r="AK22" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4708,11 +4708,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS22" t="n">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4761,90 +4761,90 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-9.77</v>
+        <v>8.85</v>
       </c>
       <c r="D23" t="n">
-        <v>5645.051</v>
+        <v>654.096</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>13.9</v>
+        <v>15.25</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>21.69</v>
+        <v>12.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="X23" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>91</v>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-179409674</v>
+        <v>-160677055</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4882,14 +4882,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>4.3</v>
       </c>
       <c r="AK23" t="n">
-        <v>93.42</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="AS23" t="n">
@@ -4946,7 +4946,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4955,32 +4955,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.27</v>
+        <v>-0.32</v>
       </c>
       <c r="D24" t="n">
-        <v>306.498</v>
+        <v>260.943</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J24" t="n">
-        <v>15.5</v>
+        <v>15.45</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
@@ -4988,25 +4988,25 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5016,32 +5016,32 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-65</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5053,11 +5053,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-13100073</v>
+        <v>-4034397</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5076,14 +5076,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5096,11 +5096,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5149,109 +5149,109 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.01</v>
+        <v>2.27</v>
       </c>
       <c r="D25" t="n">
-        <v>311.913</v>
+        <v>306.498</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.73</v>
+        <v>1.08</v>
       </c>
       <c r="J25" t="n">
-        <v>15.15</v>
+        <v>15.5</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>2.26</v>
+        <v>-0.32</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-65</v>
       </c>
       <c r="X25" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-20783901</v>
+        <v>-13100073</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5270,14 +5270,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5290,11 +5290,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5343,45 +5343,45 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1.53</v>
+        <v>-1.01</v>
       </c>
       <c r="D26" t="n">
-        <v>834.509</v>
+        <v>311.913</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J26" t="n">
-        <v>15.3</v>
+        <v>15.15</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5390,11 +5390,11 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -5409,43 +5409,43 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-65</v>
       </c>
       <c r="X26" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-20451543</v>
+        <v>-20783901</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5464,14 +5464,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5484,11 +5484,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5537,93 +5537,93 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.63</v>
+        <v>-1.53</v>
       </c>
       <c r="D27" t="n">
-        <v>187.278</v>
+        <v>834.509</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.55</v>
+        <v>15.3</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-0.32</v>
+        <v>0.97</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-65</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5635,11 +5635,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-14399502</v>
+        <v>-20451543</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5658,14 +5658,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5678,11 +5678,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5731,45 +5731,45 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="D28" t="n">
-        <v>283.747</v>
+        <v>187.278</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.65</v>
+        <v>15.55</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-0.97</v>
+        <v>-0.65</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5778,31 +5778,31 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -5814,10 +5814,10 @@
         <v>-65</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5829,11 +5829,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-4736597</v>
+        <v>-14399502</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5852,14 +5852,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5872,11 +5872,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5916,7 +5916,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5925,25 +5925,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>446.862</v>
+        <v>283.747</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-0.97</v>
+        <v>-1.29</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5972,31 +5972,31 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -6008,10 +6008,10 @@
         <v>-65</v>
       </c>
       <c r="X29" t="n">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
@@ -6023,11 +6023,11 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>11532248</v>
+        <v>-4736597</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6046,14 +6046,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>3.85</v>
       </c>
       <c r="AK29" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6066,11 +6066,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6119,109 +6119,109 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.52</v>
+        <v>-0.62</v>
       </c>
       <c r="D30" t="n">
-        <v>433.824</v>
+        <v>446.862</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.75</v>
+        <v>15.65</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-1.61</v>
+        <v>-1.29</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>-65</v>
       </c>
       <c r="X30" t="n">
-        <v>-47</v>
+        <v>-23</v>
       </c>
       <c r="Y30" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>30511598</v>
+        <v>11532248</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6240,14 +6240,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>3.85</v>
       </c>
       <c r="AK30" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6260,11 +6260,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6313,109 +6313,109 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.36</v>
+        <v>4.52</v>
       </c>
       <c r="D31" t="n">
-        <v>781.769</v>
+        <v>433.824</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15.05</v>
+        <v>15.75</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>2.9</v>
+        <v>-1.94</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>-65</v>
       </c>
       <c r="X31" t="n">
-        <v>-65</v>
+        <v>-47</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>29128757</v>
+        <v>30511598</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>3.85</v>
       </c>
       <c r="AK31" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6454,11 +6454,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6507,63 +6507,63 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="D32" t="n">
-        <v>812.1319999999999</v>
+        <v>781.769</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>14.7</v>
+        <v>15.05</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>5.16</v>
+        <v>2.59</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -6573,27 +6573,27 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>-65</v>
       </c>
       <c r="X32" t="n">
-        <v>-46</v>
+        <v>-65</v>
       </c>
       <c r="Y32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
@@ -6605,11 +6605,11 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-9446945</v>
+        <v>29128757</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6628,14 +6628,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>3.85</v>
       </c>
       <c r="AK32" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6648,11 +6648,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6701,93 +6701,93 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="D33" t="n">
-        <v>372.65</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>7.1</v>
+        <v>4.85</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>-65</v>
       </c>
       <c r="X33" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6799,11 +6799,11 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-55882659</v>
+        <v>-9446945</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6822,14 +6822,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>3.85</v>
       </c>
       <c r="AK33" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6842,11 +6842,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6895,93 +6895,93 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-6.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>1997.882</v>
+        <v>372.65</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>13.1</v>
+        <v>14.4</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>15.48</v>
+        <v>6.8</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>261</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>-65</v>
       </c>
       <c r="X34" t="n">
-        <v>-32</v>
+        <v>-48</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
@@ -6993,11 +6993,11 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-64334416</v>
+        <v>-55882659</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7016,14 +7016,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>3.85</v>
       </c>
       <c r="AK34" t="n">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7036,11 +7036,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7089,32 +7089,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.65</v>
+        <v>-0.88</v>
       </c>
       <c r="D35" t="n">
-        <v>2277.254</v>
+        <v>1597.112</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -7122,12 +7122,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -7140,48 +7140,48 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>65</v>
       </c>
       <c r="X35" t="n">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -7190,16 +7190,16 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>25092146</v>
+        <v>-27654623</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7218,14 +7218,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7238,11 +7238,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7282,7 +7282,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7291,50 +7291,50 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-3.56</v>
+        <v>2.65</v>
       </c>
       <c r="D36" t="n">
-        <v>3156.796</v>
+        <v>2277.254</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>2.65</v>
+        <v>-0.89</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -7342,12 +7342,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -7367,24 +7367,24 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>65</v>
       </c>
       <c r="X36" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
         <v>2</v>
       </c>
-      <c r="Y36" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>-2</v>
-      </c>
       <c r="AB36" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -7392,16 +7392,16 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>119360151</v>
+        <v>25092146</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7420,14 +7420,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7440,11 +7440,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7484,7 +7484,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7493,50 +7493,50 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.44</v>
+        <v>-3.56</v>
       </c>
       <c r="D37" t="n">
-        <v>3078.68</v>
+        <v>3156.796</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-0.88</v>
+        <v>1.79</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -7544,48 +7544,48 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>65</v>
       </c>
       <c r="X37" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -7594,16 +7594,16 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>197337329</v>
+        <v>119360151</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7622,14 +7622,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7642,11 +7642,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
@@ -7686,7 +7686,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7695,45 +7695,45 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="D38" t="n">
-        <v>10354.875</v>
+        <v>3078.68</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>40.96</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.71</v>
+        <v>1.1</v>
       </c>
       <c r="J38" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>-0.44</v>
+        <v>-1.79</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7746,42 +7746,42 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>65</v>
       </c>
       <c r="X38" t="n">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="Y38" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7796,16 +7796,16 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>220446738</v>
+        <v>197337329</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7824,14 +7824,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>2.22</v>
       </c>
       <c r="AK38" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7844,11 +7844,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7897,50 +7897,50 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="D39" t="n">
-        <v>3793.099</v>
+        <v>10354.875</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="J39" t="n">
-        <v>11.25</v>
+        <v>11.35</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.44</v>
+        <v>-1.34</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -7958,29 +7958,29 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>65</v>
       </c>
       <c r="X39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y39" t="n">
         <v>92</v>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>163874500</v>
+        <v>220446738</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8026,14 +8026,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>2.22</v>
       </c>
       <c r="AK39" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8046,11 +8046,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8090,7 +8090,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8099,45 +8099,45 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="D40" t="n">
-        <v>5193.331</v>
+        <v>3793.099</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.88</v>
+        <v>-0.45</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8160,32 +8160,32 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>65</v>
       </c>
       <c r="X40" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
@@ -8200,16 +8200,16 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>83328965</v>
+        <v>163874500</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8228,14 +8228,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>2.22</v>
       </c>
       <c r="AK40" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8248,11 +8248,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8292,7 +8292,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8301,50 +8301,50 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.66</v>
+        <v>1.35</v>
       </c>
       <c r="D41" t="n">
-        <v>5797.142</v>
+        <v>5193.331</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -8352,48 +8352,48 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>65</v>
       </c>
       <c r="X41" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y41" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -8402,16 +8402,16 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-15056952</v>
+        <v>83328965</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8430,14 +8430,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>2.22</v>
       </c>
       <c r="AK41" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8450,11 +8450,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8494,7 +8494,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8503,50 +8503,50 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.38</v>
+        <v>5.66</v>
       </c>
       <c r="D42" t="n">
-        <v>3572.959</v>
+        <v>5797.142</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.45</v>
+        <v>11.05</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>7.52</v>
+        <v>1.34</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -8554,39 +8554,39 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>65</v>
       </c>
       <c r="X42" t="n">
-        <v>-126</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="n">
         <v>90</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>39883278</v>
+        <v>-15056952</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8632,14 +8632,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>2.22</v>
       </c>
       <c r="AK42" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8652,11 +8652,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
@@ -8696,7 +8696,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8705,50 +8705,50 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-2.83</v>
+        <v>-1.38</v>
       </c>
       <c r="D43" t="n">
-        <v>3839.552</v>
+        <v>3572.959</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>6.19</v>
+        <v>6.7</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -8756,22 +8756,22 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -8781,23 +8781,23 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>65</v>
       </c>
       <c r="X43" t="n">
-        <v>-7</v>
+        <v>-126</v>
       </c>
       <c r="Y43" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
@@ -8806,16 +8806,16 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-40761602</v>
+        <v>39883278</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8834,14 +8834,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>2.22</v>
       </c>
       <c r="AK43" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8854,11 +8854,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8907,50 +8907,50 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.91</v>
+        <v>-2.83</v>
       </c>
       <c r="D44" t="n">
-        <v>10757.929</v>
+        <v>3839.552</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J44" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>3.54</v>
+        <v>5.36</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -8958,42 +8958,42 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>65</v>
       </c>
       <c r="X44" t="n">
-        <v>151</v>
+        <v>-7</v>
       </c>
       <c r="Y44" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
@@ -9008,16 +9008,16 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-285894458</v>
+        <v>-40761602</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9036,14 +9036,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>2.22</v>
       </c>
       <c r="AK44" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9056,11 +9056,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV44" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9109,50 +9109,50 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-5.94</v>
+        <v>5.91</v>
       </c>
       <c r="D45" t="n">
-        <v>11256.055</v>
+        <v>10757.929</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="J45" t="n">
-        <v>10.25</v>
+        <v>10.9</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>9.289999999999999</v>
+        <v>2.68</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -9160,45 +9160,45 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>65</v>
       </c>
       <c r="X45" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Y45" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -9210,16 +9210,16 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-263980338</v>
+        <v>-285894458</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9238,14 +9238,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>2.22</v>
       </c>
       <c r="AK45" t="n">
-        <v>36.45</v>
+        <v>36.13</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9258,11 +9258,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
@@ -9302,7 +9302,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9311,32 +9311,32 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.48</v>
+        <v>-1.05</v>
       </c>
       <c r="D46" t="n">
-        <v>4662.418</v>
+        <v>2807.7</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.15</v>
+        <v>14</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
@@ -9344,17 +9344,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9362,58 +9362,58 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>-17493943</v>
+        <v>-6558524</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9450,11 +9450,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9494,7 +9494,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9503,50 +9503,50 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="D47" t="n">
-        <v>2374.665</v>
+        <v>4662.418</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>13.8</v>
+        <v>14.15</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>2.47</v>
+        <v>-1.07</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -9554,27 +9554,27 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -9586,26 +9586,26 @@
         <v>-99</v>
       </c>
       <c r="X47" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="Y47" t="n">
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>-19968689</v>
+        <v>-17493943</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9642,11 +9642,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9686,7 +9686,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9695,25 +9695,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-2.84</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3636.261</v>
+        <v>2374.665</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -9724,16 +9724,16 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>2.47</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9746,12 +9746,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -9761,43 +9761,43 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>-99</v>
       </c>
       <c r="X48" t="n">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="Y48" t="n">
-        <v>-43</v>
+        <v>-45</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>91830338</v>
+        <v>-19968689</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9834,11 +9834,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9878,7 +9878,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9887,50 +9887,50 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.42</v>
+        <v>-2.84</v>
       </c>
       <c r="D49" t="n">
-        <v>4488.251</v>
+        <v>3636.261</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>-0.35</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -9938,58 +9938,58 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
           <t>-0.09</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>-99</v>
       </c>
       <c r="X49" t="n">
-        <v>-30</v>
+        <v>-11</v>
       </c>
       <c r="Y49" t="n">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="Z49" t="b">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>865899</v>
+        <v>91830338</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -10026,11 +10026,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10070,7 +10070,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10079,50 +10079,50 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.73</v>
+        <v>1.42</v>
       </c>
       <c r="D50" t="n">
-        <v>5711.889</v>
+        <v>4488.251</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.06</v>
+        <v>-1.43</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -10130,42 +10130,42 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>-99</v>
       </c>
       <c r="X50" t="n">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="Y50" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="Z50" t="b">
         <v>0</v>
@@ -10177,11 +10177,11 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>55293052</v>
+        <v>865899</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10218,11 +10218,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10262,7 +10262,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10271,50 +10271,50 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-2.8</v>
+        <v>0.73</v>
       </c>
       <c r="D51" t="n">
-        <v>10072.532</v>
+        <v>5711.889</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10332,32 +10332,32 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W51" t="n">
         <v>-99</v>
       </c>
       <c r="X51" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="Y51" t="n">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="Z51" t="b">
         <v>0</v>
@@ -10369,11 +10369,11 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>99937211</v>
+        <v>55293052</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10410,11 +10410,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10454,7 +10454,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10463,50 +10463,50 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.75</v>
+        <v>-2.8</v>
       </c>
       <c r="D52" t="n">
-        <v>8197.369000000001</v>
+        <v>10072.532</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>-1.06</v>
+        <v>0.71</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -10514,58 +10514,58 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="W52" t="n">
         <v>-99</v>
       </c>
       <c r="X52" t="n">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="Y52" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="Z52" t="b">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>387221083</v>
+        <v>99937211</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10602,11 +10602,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10646,7 +10646,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10655,50 +10655,50 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.53</v>
+        <v>1.75</v>
       </c>
       <c r="D53" t="n">
-        <v>8815.002</v>
+        <v>8197.369000000001</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.71</v>
+        <v>-2.14</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -10706,58 +10706,58 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>-99</v>
       </c>
       <c r="X53" t="n">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="Y53" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="Z53" t="b">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>328719682</v>
+        <v>387221083</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10794,11 +10794,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10838,7 +10838,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10847,50 +10847,50 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="D54" t="n">
-        <v>10815.79</v>
+        <v>8815.002</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>13.7</v>
+        <v>14.05</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>3.18</v>
+        <v>-0.36</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -10898,12 +10898,12 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -10913,24 +10913,24 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>-99</v>
       </c>
       <c r="X54" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="Y54" t="n">
         <v>-37</v>
@@ -10949,7 +10949,7 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>-83220364</v>
+        <v>328719682</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10986,11 +10986,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -11030,7 +11030,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11039,50 +11039,50 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.960000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="D55" t="n">
-        <v>4425.193</v>
+        <v>10815.79</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>5.3</v>
+        <v>2.14</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -11090,39 +11090,39 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>-99</v>
       </c>
       <c r="X55" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="Y55" t="n">
         <v>-37</v>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-559081863</v>
+        <v>-83220364</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11178,11 +11178,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11222,7 +11222,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11231,50 +11231,50 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-10.11</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>23042.602</v>
+        <v>4425.193</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>13.78</v>
+        <v>4.29</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -11282,42 +11282,42 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W56" t="n">
         <v>-99</v>
       </c>
       <c r="X56" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Y56" t="n">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
@@ -11329,11 +11329,11 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-650351029</v>
+        <v>-559081863</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11370,11 +11370,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>46.76</v>
+        <v>46.12</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="D2" t="n">
-        <v>24.333</v>
+        <v>56.795</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="J2" t="n">
-        <v>44.35</v>
+        <v>44.45</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,17 +720,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -738,12 +738,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,27 +753,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="W2" t="n">
         <v>90</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -785,11 +785,11 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-2405745</v>
+        <v>1261562</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,45 +881,45 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D3" t="n">
-        <v>52.973</v>
+        <v>24.333</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="J3" t="n">
-        <v>44.2</v>
+        <v>44.35</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -947,27 +947,27 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-7590443</v>
+        <v>-2405745</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.71</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,45 +1075,45 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.623</v>
+        <v>52.973</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="J4" t="n">
         <v>44.2</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1161,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-162051</v>
+        <v>-7590443</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.71</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,50 +1269,50 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.76</v>
+        <v>-1.02</v>
       </c>
       <c r="D5" t="n">
-        <v>91.71299999999999</v>
+        <v>25.623</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="J5" t="n">
-        <v>44.65</v>
+        <v>44.2</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1340,19 +1340,19 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>90</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
         <v>18</v>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-473874</v>
+        <v>-162051</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.71</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,50 +1463,50 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.9</v>
+        <v>-1.76</v>
       </c>
       <c r="D6" t="n">
-        <v>111.465</v>
+        <v>91.71299999999999</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J6" t="n">
-        <v>45.45</v>
+        <v>44.65</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-2.48</v>
+        <v>-0.45</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1514,42 +1514,42 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>90</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>647009</v>
+        <v>-473874</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.71</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,50 +1657,50 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.44</v>
+        <v>1.9</v>
       </c>
       <c r="D7" t="n">
-        <v>32.528</v>
+        <v>111.465</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.6</v>
+        <v>45.45</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-2.25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1723,43 +1723,43 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>90</v>
       </c>
       <c r="X7" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>57389</v>
+        <v>647009</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.71</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,50 +1851,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.64</v>
+        <v>-0.44</v>
       </c>
       <c r="D8" t="n">
-        <v>66.04900000000001</v>
+        <v>32.528</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-1.01</v>
+        <v>-0.34</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,39 +1902,39 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>90</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="n">
         <v>-3</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-6442165</v>
+        <v>57389</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.71</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,50 +2045,50 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.66</v>
+        <v>-1.64</v>
       </c>
       <c r="D9" t="n">
-        <v>98.401</v>
+        <v>66.04900000000001</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>45.55</v>
+        <v>44.8</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-2.71</v>
+        <v>-0.79</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>90</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-10074248</v>
+        <v>-6442165</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,50 +2239,50 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.74</v>
+        <v>0.66</v>
       </c>
       <c r="D10" t="n">
-        <v>173.632</v>
+        <v>98.401</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.25</v>
+        <v>45.55</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-2.03</v>
+        <v>-2.47</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2315,33 +2315,33 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>90</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-2201719</v>
+        <v>-10074248</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,50 +2433,50 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="D11" t="n">
-        <v>144.515</v>
+        <v>173.632</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.05</v>
+        <v>45.25</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-3.83</v>
+        <v>-1.8</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -2484,58 +2484,58 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>90</v>
       </c>
       <c r="X11" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-7324501</v>
+        <v>-2201719</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>10.71</v>
       </c>
       <c r="AK11" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,50 +2627,50 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.25</v>
+        <v>-1.17</v>
       </c>
       <c r="D12" t="n">
-        <v>266.938</v>
+        <v>144.515</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.6</v>
+        <v>46.05</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-5.07</v>
+        <v>-3.6</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2688,32 +2688,32 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>-69</v>
+        <v>-18</v>
       </c>
       <c r="Y12" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2725,11 +2725,11 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>8403358</v>
+        <v>-7324501</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>10.71</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.22</v>
+        <v>10.24</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,32 +2821,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.24</v>
+        <v>-0.28</v>
       </c>
       <c r="D13" t="n">
-        <v>2401.286</v>
+        <v>3424.598</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-2.64</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>17.35</v>
+        <v>17.3</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
@@ -2854,17 +2854,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2897,20 +2897,20 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>-65</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>-26</v>
+        <v>-37</v>
       </c>
       <c r="Z13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2919,11 +2919,11 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>101161340</v>
+        <v>-20707583</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>4.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,50 +3015,50 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.54</v>
+        <v>-2.24</v>
       </c>
       <c r="D14" t="n">
-        <v>4545.679</v>
+        <v>2401.286</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>17.75</v>
+        <v>17.35</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-2.31</v>
+        <v>-0.29</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3091,33 +3091,33 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>-65</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>-14</v>
+        <v>-26</v>
       </c>
       <c r="Z14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>96945578</v>
+        <v>101161340</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>4.3</v>
       </c>
       <c r="AK14" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,50 +3209,50 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="D15" t="n">
-        <v>3552.446</v>
+        <v>4545.679</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="J15" t="n">
-        <v>17.3</v>
+        <v>17.75</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.29</v>
+        <v>-2.6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -3260,58 +3260,58 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>-65</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="Z15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-36762623</v>
+        <v>96945578</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>4.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,50 +3403,50 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-4.23</v>
+        <v>2.34</v>
       </c>
       <c r="D16" t="n">
-        <v>2704.432</v>
+        <v>3552.446</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-3.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -3454,58 +3454,58 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>-65</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="Z16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>51568315</v>
+        <v>-36762623</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>4.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,50 +3597,50 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.67</v>
+        <v>-4.23</v>
       </c>
       <c r="D17" t="n">
-        <v>2932.418</v>
+        <v>2704.432</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.65</v>
+        <v>16.9</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-1.73</v>
+        <v>2.31</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -3648,58 +3648,58 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>-65</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>315631059</v>
+        <v>51568315</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>4.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,50 +3791,50 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.11</v>
+        <v>-1.67</v>
       </c>
       <c r="D18" t="n">
-        <v>8270.969999999999</v>
+        <v>2932.418</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.95</v>
+        <v>17.65</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-3.46</v>
+        <v>-2.02</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -3842,42 +3842,42 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>-65</v>
       </c>
       <c r="X18" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3889,11 +3889,11 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>429986747</v>
+        <v>315631059</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>4.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,50 +3985,50 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="D19" t="n">
-        <v>11897.927</v>
+        <v>8270.969999999999</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>35.40</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.75</v>
+        <v>17.95</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-2.31</v>
+        <v>-3.76</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -4036,42 +4036,42 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W19" t="n">
         <v>-65</v>
       </c>
       <c r="X19" t="n">
-        <v>-21</v>
+        <v>-2</v>
       </c>
       <c r="Y19" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
@@ -4083,11 +4083,11 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>193311762</v>
+        <v>429986747</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>4.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4126,11 +4126,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4179,45 +4179,45 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.28</v>
+        <v>0.57</v>
       </c>
       <c r="D20" t="n">
-        <v>3570.343</v>
+        <v>11897.927</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>35.40</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>17.65</v>
+        <v>17.75</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>-1.73</v>
+        <v>-2.6</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4230,58 +4230,58 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-65</v>
       </c>
       <c r="X20" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="Y20" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>79667719</v>
+        <v>193311762</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>4.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4320,11 +4320,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4364,7 +4364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4373,50 +4373,50 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="D21" t="n">
-        <v>5012.004</v>
+        <v>3570.343</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>16.75</v>
+        <v>17.65</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>3.46</v>
+        <v>-2.02</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -4424,58 +4424,58 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
           <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>-3.69</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-0.08</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-65</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="Y21" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>27433204</v>
+        <v>79667719</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>4.3</v>
       </c>
       <c r="AK21" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4514,11 +4514,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4567,45 +4567,45 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.49</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6367.384</v>
+        <v>5012.004</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="J22" t="n">
         <v>16.75</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>3.46</v>
+        <v>3.18</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4633,27 +4633,27 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-61.98</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-65</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4665,11 +4665,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>30851799</v>
+        <v>27433204</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>4.3</v>
       </c>
       <c r="AK22" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4708,11 +4708,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4761,50 +4761,50 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.85</v>
+        <v>9.49</v>
       </c>
       <c r="D23" t="n">
-        <v>654.096</v>
+        <v>6367.384</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J23" t="n">
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>12.1</v>
+        <v>3.18</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -4812,42 +4812,42 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>-61.98</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-65</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4859,11 +4859,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-160677055</v>
+        <v>30851799</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4882,14 +4882,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>4.3</v>
       </c>
       <c r="AK23" t="n">
-        <v>91.31999999999999</v>
+        <v>91.05</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
@@ -4946,7 +4946,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4955,32 +4955,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.32</v>
+        <v>1.92</v>
       </c>
       <c r="D24" t="n">
-        <v>260.943</v>
+        <v>409.991</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.03</v>
+        <v>0.73</v>
       </c>
       <c r="J24" t="n">
-        <v>15.45</v>
+        <v>15.75</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
@@ -4988,76 +4988,76 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-4034397</v>
+        <v>7145603</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5076,14 +5076,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.85</v>
       </c>
       <c r="AK24" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5096,11 +5096,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5149,58 +5149,58 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.27</v>
+        <v>-0.32</v>
       </c>
       <c r="D25" t="n">
-        <v>306.498</v>
+        <v>260.943</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J25" t="n">
-        <v>15.5</v>
+        <v>15.45</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-0.32</v>
+        <v>1.9</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5210,32 +5210,32 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
@@ -5247,11 +5247,11 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-13100073</v>
+        <v>-4034397</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5270,14 +5270,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.85</v>
       </c>
       <c r="AK25" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5290,11 +5290,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5343,109 +5343,109 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1.01</v>
+        <v>2.27</v>
       </c>
       <c r="D26" t="n">
-        <v>311.913</v>
+        <v>306.498</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.73</v>
+        <v>1.08</v>
       </c>
       <c r="J26" t="n">
-        <v>15.15</v>
+        <v>15.5</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X26" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-20783901</v>
+        <v>-13100073</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5464,14 +5464,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.85</v>
       </c>
       <c r="AK26" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5484,11 +5484,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5537,45 +5537,45 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.53</v>
+        <v>-1.01</v>
       </c>
       <c r="D27" t="n">
-        <v>834.509</v>
+        <v>311.913</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J27" t="n">
-        <v>15.3</v>
+        <v>15.15</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.97</v>
+        <v>3.81</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5584,11 +5584,11 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5603,43 +5603,43 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-20451543</v>
+        <v>-20783901</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5658,14 +5658,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.85</v>
       </c>
       <c r="AK27" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5678,11 +5678,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5731,93 +5731,93 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.63</v>
+        <v>-1.53</v>
       </c>
       <c r="D28" t="n">
-        <v>187.278</v>
+        <v>834.509</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.55</v>
+        <v>15.3</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-0.65</v>
+        <v>2.86</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5829,11 +5829,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-14399502</v>
+        <v>-20451543</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5852,14 +5852,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.85</v>
       </c>
       <c r="AK28" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5872,11 +5872,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5916,7 +5916,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5925,45 +5925,45 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="D29" t="n">
-        <v>283.747</v>
+        <v>187.278</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>15.65</v>
+        <v>15.55</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5972,31 +5972,31 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -6005,13 +6005,13 @@
         </is>
       </c>
       <c r="W29" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
@@ -6023,11 +6023,11 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-4736597</v>
+        <v>-14399502</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6046,14 +6046,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>3.85</v>
       </c>
       <c r="AK29" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6066,11 +6066,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6119,25 +6119,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>446.862</v>
+        <v>283.747</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -6148,16 +6148,16 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-1.29</v>
+        <v>0.63</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -6166,31 +6166,31 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -6199,13 +6199,13 @@
         </is>
       </c>
       <c r="W30" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X30" t="n">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
@@ -6217,11 +6217,11 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>11532248</v>
+        <v>-4736597</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6240,14 +6240,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>3.85</v>
       </c>
       <c r="AK30" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6260,11 +6260,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6313,109 +6313,109 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.52</v>
+        <v>-0.62</v>
       </c>
       <c r="D31" t="n">
-        <v>433.824</v>
+        <v>446.862</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15.75</v>
+        <v>15.65</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-1.94</v>
+        <v>0.63</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X31" t="n">
-        <v>-47</v>
+        <v>-23</v>
       </c>
       <c r="Y31" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>30511598</v>
+        <v>11532248</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>3.85</v>
       </c>
       <c r="AK31" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6454,11 +6454,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6507,109 +6507,109 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.36</v>
+        <v>4.52</v>
       </c>
       <c r="D32" t="n">
-        <v>781.769</v>
+        <v>433.824</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>15.05</v>
+        <v>15.75</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X32" t="n">
-        <v>-65</v>
+        <v>-47</v>
       </c>
       <c r="Y32" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>29128757</v>
+        <v>30511598</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6628,14 +6628,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>3.85</v>
       </c>
       <c r="AK32" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6648,11 +6648,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6701,63 +6701,63 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="D33" t="n">
-        <v>812.1319999999999</v>
+        <v>781.769</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.7</v>
+        <v>15.05</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>4.85</v>
+        <v>4.44</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -6767,27 +6767,27 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="W33" t="n">
+        <v>-50</v>
+      </c>
+      <c r="X33" t="n">
         <v>-65</v>
       </c>
-      <c r="X33" t="n">
-        <v>-46</v>
-      </c>
       <c r="Y33" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6799,11 +6799,11 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-9446945</v>
+        <v>29128757</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6822,14 +6822,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>3.85</v>
       </c>
       <c r="AK33" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6842,11 +6842,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6895,93 +6895,93 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="D34" t="n">
-        <v>372.65</v>
+        <v>812.1319999999999</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>6.8</v>
+        <v>6.67</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="X34" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="Y34" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
@@ -6993,11 +6993,11 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-55882659</v>
+        <v>-9446945</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7016,14 +7016,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>3.85</v>
       </c>
       <c r="AK34" t="n">
-        <v>46.82</v>
+        <v>47.73</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7036,11 +7036,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7089,32 +7089,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.88</v>
+        <v>-0.44</v>
       </c>
       <c r="D35" t="n">
-        <v>1597.112</v>
+        <v>1687.631</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.2</v>
+        <v>11.15</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -7122,45 +7122,45 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -7172,16 +7172,16 @@
         <v>65</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -7190,16 +7190,16 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-27654623</v>
+        <v>-11149947</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7218,14 +7218,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>2.22</v>
       </c>
       <c r="AK35" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7238,11 +7238,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7282,7 +7282,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7291,45 +7291,45 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.65</v>
+        <v>-0.88</v>
       </c>
       <c r="D36" t="n">
-        <v>2277.254</v>
+        <v>1597.112</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-0.89</v>
+        <v>-0.45</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7338,52 +7338,52 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>65</v>
       </c>
       <c r="X36" t="n">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -7392,16 +7392,16 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>25092146</v>
+        <v>-27654623</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7420,14 +7420,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>2.22</v>
       </c>
       <c r="AK36" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7440,11 +7440,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7484,7 +7484,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7493,63 +7493,63 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-3.56</v>
+        <v>2.65</v>
       </c>
       <c r="D37" t="n">
-        <v>3156.796</v>
+        <v>2277.254</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.79</v>
+        <v>-1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -7569,24 +7569,24 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>65</v>
       </c>
       <c r="X37" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
         <v>2</v>
       </c>
-      <c r="Y37" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>-2</v>
-      </c>
       <c r="AB37" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -7594,16 +7594,16 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>119360151</v>
+        <v>25092146</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7622,14 +7622,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>2.22</v>
       </c>
       <c r="AK37" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7642,11 +7642,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
@@ -7686,7 +7686,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7695,99 +7695,99 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.44</v>
+        <v>-3.56</v>
       </c>
       <c r="D38" t="n">
-        <v>3078.68</v>
+        <v>3156.796</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>-1.79</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>65</v>
       </c>
       <c r="X38" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="Y38" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -7796,16 +7796,16 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>197337329</v>
+        <v>119360151</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7824,14 +7824,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>2.22</v>
       </c>
       <c r="AK38" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7844,11 +7844,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7897,45 +7897,45 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="D39" t="n">
-        <v>10354.875</v>
+        <v>3078.68</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>40.96</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.71</v>
+        <v>1.1</v>
       </c>
       <c r="J39" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-1.34</v>
+        <v>-2.24</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -7944,46 +7944,46 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>65</v>
       </c>
       <c r="X39" t="n">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="Y39" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -7998,16 +7998,16 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>220446738</v>
+        <v>197337329</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8026,14 +8026,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>2.22</v>
       </c>
       <c r="AK39" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8046,11 +8046,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8090,7 +8090,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8099,58 +8099,58 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="D40" t="n">
-        <v>3793.099</v>
+        <v>10354.875</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="J40" t="n">
-        <v>11.25</v>
+        <v>11.35</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-0.45</v>
+        <v>-1.79</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8160,29 +8160,29 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>65</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y40" t="n">
         <v>92</v>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>163874500</v>
+        <v>220446738</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8228,14 +8228,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>2.22</v>
       </c>
       <c r="AK40" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8248,11 +8248,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8292,7 +8292,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8301,45 +8301,45 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="D41" t="n">
-        <v>5193.331</v>
+        <v>3793.099</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -8348,11 +8348,11 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -8362,32 +8362,32 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>65</v>
       </c>
       <c r="X41" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
@@ -8402,16 +8402,16 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>83328965</v>
+        <v>163874500</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8430,14 +8430,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>2.22</v>
       </c>
       <c r="AK41" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8450,11 +8450,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8494,7 +8494,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8503,99 +8503,99 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.66</v>
+        <v>1.35</v>
       </c>
       <c r="D42" t="n">
-        <v>5797.142</v>
+        <v>5193.331</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.34</v>
+        <v>-0.45</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>65</v>
       </c>
       <c r="X42" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y42" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
@@ -8604,16 +8604,16 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-15056952</v>
+        <v>83328965</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8632,14 +8632,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>2.22</v>
       </c>
       <c r="AK42" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8652,11 +8652,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8696,7 +8696,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8705,90 +8705,90 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1.38</v>
+        <v>5.66</v>
       </c>
       <c r="D43" t="n">
-        <v>3572.959</v>
+        <v>5797.142</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.45</v>
+        <v>11.05</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>65</v>
       </c>
       <c r="X43" t="n">
-        <v>-126</v>
+        <v>4</v>
       </c>
       <c r="Y43" t="n">
         <v>90</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>39883278</v>
+        <v>-15056952</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8834,14 +8834,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>2.22</v>
       </c>
       <c r="AK43" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8854,11 +8854,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8907,73 +8907,73 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-2.83</v>
+        <v>-1.38</v>
       </c>
       <c r="D44" t="n">
-        <v>3839.552</v>
+        <v>3572.959</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>5.36</v>
+        <v>6.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -8983,23 +8983,23 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>65</v>
       </c>
       <c r="X44" t="n">
-        <v>-7</v>
+        <v>-126</v>
       </c>
       <c r="Y44" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
@@ -9008,16 +9008,16 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-40761602</v>
+        <v>39883278</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9036,14 +9036,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>2.22</v>
       </c>
       <c r="AK44" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9056,11 +9056,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9109,93 +9109,93 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.91</v>
+        <v>-2.83</v>
       </c>
       <c r="D45" t="n">
-        <v>10757.929</v>
+        <v>3839.552</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J45" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>2.68</v>
+        <v>4.93</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>65</v>
       </c>
       <c r="X45" t="n">
-        <v>151</v>
+        <v>-7</v>
       </c>
       <c r="Y45" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
@@ -9210,16 +9210,16 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-285894458</v>
+        <v>-40761602</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9238,14 +9238,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>2.22</v>
       </c>
       <c r="AK45" t="n">
-        <v>36.13</v>
+        <v>35.97</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9258,11 +9258,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
@@ -9302,7 +9302,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9311,32 +9311,32 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D46" t="n">
-        <v>2807.7</v>
+        <v>2964.026</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14</v>
+        <v>14.15</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
@@ -9344,17 +9344,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9362,58 +9362,58 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
-        <v>-37</v>
+        <v>-44</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>-6558524</v>
+        <v>68152287</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9450,11 +9450,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9494,7 +9494,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9503,50 +9503,50 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.48</v>
+        <v>-1.05</v>
       </c>
       <c r="D47" t="n">
-        <v>4662.418</v>
+        <v>2807.7</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>14.15</v>
+        <v>14</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>-1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -9554,58 +9554,58 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>-99</v>
       </c>
       <c r="X47" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>-17493943</v>
+        <v>-6558524</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9642,11 +9642,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9686,7 +9686,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9695,50 +9695,50 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="D48" t="n">
-        <v>2374.665</v>
+        <v>4662.418</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>13.8</v>
+        <v>14.15</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -9746,27 +9746,27 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -9778,26 +9778,26 @@
         <v>-99</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="Y48" t="n">
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>-19968689</v>
+        <v>-17493943</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9834,11 +9834,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9878,7 +9878,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9887,25 +9887,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-2.84</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3636.261</v>
+        <v>2374.665</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -9916,16 +9916,16 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>2.47</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -9953,43 +9953,43 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>-99</v>
       </c>
       <c r="X49" t="n">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="n">
-        <v>-43</v>
+        <v>-45</v>
       </c>
       <c r="Z49" t="b">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>91830338</v>
+        <v>-19968689</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -10026,11 +10026,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10070,7 +10070,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10079,50 +10079,50 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.42</v>
+        <v>-2.84</v>
       </c>
       <c r="D50" t="n">
-        <v>4488.251</v>
+        <v>3636.261</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>-1.43</v>
+        <v>2.47</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -10130,58 +10130,58 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
           <t>-0.09</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>-99</v>
       </c>
       <c r="X50" t="n">
-        <v>-30</v>
+        <v>-11</v>
       </c>
       <c r="Y50" t="n">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="Z50" t="b">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>865899</v>
+        <v>91830338</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10218,11 +10218,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10262,7 +10262,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10271,50 +10271,50 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.73</v>
+        <v>1.42</v>
       </c>
       <c r="D51" t="n">
-        <v>5711.889</v>
+        <v>4488.251</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -10322,42 +10322,42 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W51" t="n">
         <v>-99</v>
       </c>
       <c r="X51" t="n">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="Y51" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="Z51" t="b">
         <v>0</v>
@@ -10369,11 +10369,11 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>55293052</v>
+        <v>865899</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10410,11 +10410,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10454,7 +10454,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10463,50 +10463,50 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-2.8</v>
+        <v>0.73</v>
       </c>
       <c r="D52" t="n">
-        <v>10072.532</v>
+        <v>5711.889</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -10524,32 +10524,32 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W52" t="n">
         <v>-99</v>
       </c>
       <c r="X52" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="Y52" t="n">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="Z52" t="b">
         <v>0</v>
@@ -10561,11 +10561,11 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>99937211</v>
+        <v>55293052</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10602,11 +10602,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10646,7 +10646,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10655,50 +10655,50 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.75</v>
+        <v>-2.8</v>
       </c>
       <c r="D53" t="n">
-        <v>8197.369000000001</v>
+        <v>10072.532</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>-2.14</v>
+        <v>1.77</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -10706,58 +10706,58 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>-99</v>
       </c>
       <c r="X53" t="n">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="Y53" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="Z53" t="b">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>387221083</v>
+        <v>99937211</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10794,11 +10794,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10838,7 +10838,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10847,50 +10847,50 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.53</v>
+        <v>1.75</v>
       </c>
       <c r="D54" t="n">
-        <v>8815.002</v>
+        <v>8197.369000000001</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>-0.36</v>
+        <v>-1.06</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -10898,58 +10898,58 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>-99</v>
       </c>
       <c r="X54" t="n">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="Y54" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="Z54" t="b">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>328719682</v>
+        <v>387221083</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10986,11 +10986,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -11030,7 +11030,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11039,50 +11039,50 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="D55" t="n">
-        <v>10815.79</v>
+        <v>8815.002</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>13.7</v>
+        <v>14.05</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -11090,12 +11090,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -11105,24 +11105,24 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>-99</v>
       </c>
       <c r="X55" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="Y55" t="n">
         <v>-37</v>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-83220364</v>
+        <v>328719682</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11178,11 +11178,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11222,7 +11222,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11231,50 +11231,50 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.960000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="D56" t="n">
-        <v>4425.193</v>
+        <v>10815.79</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>4.29</v>
+        <v>3.18</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -11282,39 +11282,39 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W56" t="n">
         <v>-99</v>
       </c>
       <c r="X56" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="Y56" t="n">
         <v>-37</v>
@@ -11333,7 +11333,7 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-559081863</v>
+        <v>-83220364</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11370,11 +11370,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>46.12</v>
+        <v>46.25</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">

--- a/Result/checksun/玻璃陶瓷.xlsx
+++ b/Result/checksun/玻璃陶瓷.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.23</v>
+        <v>1.87</v>
       </c>
       <c r="D2" t="n">
-        <v>180.765</v>
+        <v>52.511</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.65</v>
+        <v>45.5</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,17 +720,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -738,12 +738,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,43 +753,43 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X2" t="n">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="Y2" t="n">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="Z2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-2082991</v>
+        <v>-2917163</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,50 +881,50 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.77</v>
+        <v>-3.23</v>
       </c>
       <c r="D3" t="n">
-        <v>62.346</v>
+        <v>180.765</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>-2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.1</v>
+        <v>44.65</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-3.25</v>
+        <v>1.87</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -932,58 +932,58 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X3" t="n">
-        <v>-26</v>
+        <v>-39</v>
       </c>
       <c r="Y3" t="n">
-        <v>-56</v>
+        <v>-57</v>
       </c>
       <c r="Z3" t="b">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>1234219</v>
+        <v>-2082991</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,50 +1075,50 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="D4" t="n">
-        <v>70.626</v>
+        <v>62.346</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.75</v>
+        <v>46.1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-2.46</v>
+        <v>-1.32</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1136,48 +1136,48 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X4" t="n">
-        <v>-36</v>
+        <v>-26</v>
       </c>
       <c r="Y4" t="n">
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="Z4" t="b">
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>2081752</v>
+        <v>1234219</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,47 +1272,47 @@
         <v>0.55</v>
       </c>
       <c r="D5" t="n">
-        <v>106.401</v>
+        <v>70.626</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-1.9</v>
+        <v>-0.55</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1330,48 +1330,48 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X5" t="n">
-        <v>-52</v>
+        <v>-36</v>
       </c>
       <c r="Y5" t="n">
-        <v>-46</v>
+        <v>-53</v>
       </c>
       <c r="Z5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-557144</v>
+        <v>2081752</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,45 +1463,45 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.91</v>
+        <v>0.55</v>
       </c>
       <c r="D6" t="n">
-        <v>82.012</v>
+        <v>106.401</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.65</v>
+        <v>45.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1514,42 +1514,42 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="n">
-        <v>-35</v>
+        <v>-52</v>
       </c>
       <c r="Y6" t="n">
-        <v>-39</v>
+        <v>-46</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>6803463</v>
+        <v>-557144</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>8.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,50 +1657,50 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79</v>
+        <v>1.91</v>
       </c>
       <c r="D7" t="n">
-        <v>12.693</v>
+        <v>82.012</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.8</v>
+        <v>45.65</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,58 +1708,58 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X7" t="n">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="Y7" t="n">
-        <v>-35</v>
+        <v>-39</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>4179336</v>
+        <v>6803463</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,50 +1851,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.22</v>
+        <v>0.79</v>
       </c>
       <c r="D8" t="n">
-        <v>56.795</v>
+        <v>12.693</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="J8" t="n">
-        <v>44.45</v>
+        <v>44.8</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.45</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,27 +1902,27 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1931,29 +1931,29 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="Y8" t="n">
-        <v>-18</v>
+        <v>-35</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>1261562</v>
+        <v>4179336</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,45 +2045,45 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>24.333</v>
+        <v>56.795</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35</v>
+        <v>44.45</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.67</v>
+        <v>2.31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2111,27 +2111,27 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-2405745</v>
+        <v>1261562</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>11.02</v>
+        <v>11.23</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>48.44</v>
+        <v>48.95</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,45 +2239,45 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D10" t="n">
-        <v>52.973</v>
+        <v>24.333</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="J10" t="n">
-        <v>44.2</v>
+        <v>44.35</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>2.53</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>53</t>
         </is>
    